--- a/assets/data/hospital.xlsx
+++ b/assets/data/hospital.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lele/Project/莆田/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lele/Downloads/putianxi/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25580" yWindow="460" windowWidth="25580" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="莆田系医院列表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="3232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="3230">
   <si>
     <t>安顺阳光妇科医院</t>
   </si>
@@ -6671,12 +6671,6 @@
     <t>021-64389999</t>
   </si>
   <si>
-    <t>上海五官科医院</t>
-  </si>
-  <si>
-    <t>徐汇区汾阳路83号</t>
-  </si>
-  <si>
     <t>上海西郊骨科医院</t>
   </si>
   <si>
@@ -8562,15 +8556,6 @@
   </si>
   <si>
     <t>0731-58220666</t>
-  </si>
-  <si>
-    <t>湘雅二医院</t>
-  </si>
-  <si>
-    <t>人民中路139号</t>
-  </si>
-  <si>
-    <t>0731-85295888;0731-85295999</t>
   </si>
   <si>
     <t>襄樊东大肛肠医院</t>
@@ -9730,6 +9715,18 @@
   </si>
   <si>
     <t>数据来源: https://putianxi.github.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐汇区石龙路269号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海沪申五官科医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-54305338;021-62119666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11192,10 +11189,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP941"/>
+  <dimension ref="A1:IP940"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.6640625" defaultRowHeight="24" x14ac:dyDescent="0.15"/>
@@ -11212,7 +11209,7 @@
   <sheetData>
     <row r="1" spans="1:250" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>3230</v>
+        <v>3225</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -11222,7 +11219,7 @@
     </row>
     <row r="2" spans="1:250" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>3231</v>
+        <v>3226</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -11232,22 +11229,22 @@
     </row>
     <row r="3" spans="1:250" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>3224</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3226</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3227</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3229</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -23956,7 +23953,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632" s="11" t="s">
-        <v>2214</v>
+        <v>3228</v>
       </c>
       <c r="B632" s="12" t="s">
         <v>1383</v>
@@ -23968,13 +23965,15 @@
         <v>2090</v>
       </c>
       <c r="E632" s="13" t="s">
-        <v>2215</v>
-      </c>
-      <c r="F632" s="15"/>
+        <v>3227</v>
+      </c>
+      <c r="F632" s="15" t="s">
+        <v>3229</v>
+      </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633" s="11" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B633" s="12" t="s">
         <v>1383</v>
@@ -23986,15 +23985,15 @@
         <v>2144</v>
       </c>
       <c r="E633" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="F633" s="14" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634" s="11" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B634" s="12" t="s">
         <v>1383</v>
@@ -24006,15 +24005,15 @@
         <v>2144</v>
       </c>
       <c r="E634" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F634" s="14" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635" s="11" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B635" s="12" t="s">
         <v>1383</v>
@@ -24026,15 +24025,15 @@
         <v>2144</v>
       </c>
       <c r="E635" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="F635" s="14" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636" s="11" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B636" s="12" t="s">
         <v>1383</v>
@@ -24046,15 +24045,15 @@
         <v>2144</v>
       </c>
       <c r="E636" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F636" s="14" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637" s="11" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B637" s="12" t="s">
         <v>1383</v>
@@ -24066,15 +24065,15 @@
         <v>2121</v>
       </c>
       <c r="E637" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="F637" s="14" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638" s="11" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B638" s="12" t="s">
         <v>1383</v>
@@ -24086,15 +24085,15 @@
         <v>2113</v>
       </c>
       <c r="E638" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="F638" s="14" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639" s="11" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B639" s="12" t="s">
         <v>1383</v>
@@ -24106,13 +24105,13 @@
         <v>2109</v>
       </c>
       <c r="E639" s="13" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="F639" s="15"/>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640" s="11" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B640" s="12" t="s">
         <v>1383</v>
@@ -24124,15 +24123,15 @@
         <v>2090</v>
       </c>
       <c r="E640" s="13" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="F640" s="14" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641" s="11" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B641" s="12" t="s">
         <v>1383</v>
@@ -24144,15 +24143,15 @@
         <v>2082</v>
       </c>
       <c r="E641" s="13" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="F641" s="14" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642" s="11" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B642" s="12" t="s">
         <v>1383</v>
@@ -24164,15 +24163,15 @@
         <v>1384</v>
       </c>
       <c r="E642" s="13" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="F642" s="14" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643" s="11" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B643" s="12" t="s">
         <v>1383</v>
@@ -24184,15 +24183,15 @@
         <v>2144</v>
       </c>
       <c r="E643" s="13" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F643" s="14" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644" s="11" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B644" s="12" t="s">
         <v>1383</v>
@@ -24204,15 +24203,15 @@
         <v>2137</v>
       </c>
       <c r="E644" s="13" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="F644" s="14" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645" s="11" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B645" s="12" t="s">
         <v>1383</v>
@@ -24224,13 +24223,13 @@
         <v>2090</v>
       </c>
       <c r="E645" s="13" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="F645" s="15"/>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646" s="11" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B646" s="12" t="s">
         <v>1383</v>
@@ -24242,15 +24241,15 @@
         <v>2179</v>
       </c>
       <c r="E646" s="13" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F646" s="14" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647" s="11" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B647" s="12" t="s">
         <v>1383</v>
@@ -24262,15 +24261,15 @@
         <v>2082</v>
       </c>
       <c r="E647" s="13" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648" s="11" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B648" s="12" t="s">
         <v>1383</v>
@@ -24285,12 +24284,12 @@
         <v>2192</v>
       </c>
       <c r="F648" s="14" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649" s="11" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B649" s="12" t="s">
         <v>1383</v>
@@ -24302,609 +24301,609 @@
         <v>2154</v>
       </c>
       <c r="E649" s="13" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="F649" s="14" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650" s="11" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B650" s="12" t="s">
         <v>642</v>
       </c>
       <c r="C650" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D650" s="13" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E650" s="13" t="s">
         <v>2265</v>
       </c>
-      <c r="D650" s="13" t="s">
+      <c r="F650" s="14" t="s">
         <v>2266</v>
-      </c>
-      <c r="E650" s="13" t="s">
-        <v>2267</v>
-      </c>
-      <c r="F650" s="14" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651" s="11" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B651" s="12" t="s">
         <v>642</v>
       </c>
       <c r="C651" s="13" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D651" s="13" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="E651" s="13" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="F651" s="14" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652" s="11" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B652" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C652" s="13" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D652" s="13" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E652" s="13" t="s">
         <v>2273</v>
       </c>
-      <c r="D652" s="13" t="s">
+      <c r="F652" s="14" t="s">
         <v>2274</v>
-      </c>
-      <c r="E652" s="13" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F652" s="14" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653" s="11" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B653" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C653" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D653" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E653" s="13" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F653" s="15"/>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654" s="11" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B654" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C654" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D654" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E654" s="13" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F654" s="14" t="s">
         <v>2281</v>
-      </c>
-      <c r="E654" s="13" t="s">
-        <v>2282</v>
-      </c>
-      <c r="F654" s="14" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655" s="11" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B655" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C655" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D655" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E655" s="13" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F655" s="15"/>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656" s="11" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B656" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C656" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D656" s="13" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E656" s="13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F656" s="14" t="s">
         <v>2287</v>
-      </c>
-      <c r="E656" s="13" t="s">
-        <v>2288</v>
-      </c>
-      <c r="F656" s="14" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657" s="11" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B657" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C657" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D657" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E657" s="13" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F657" s="14" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658" s="11" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B658" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C658" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D658" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E658" s="13" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F658" s="14" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659" s="11" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B659" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C659" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D659" s="13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E659" s="13" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F659" s="14" t="s">
         <v>2297</v>
-      </c>
-      <c r="E659" s="13" t="s">
-        <v>2298</v>
-      </c>
-      <c r="F659" s="14" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660" s="11" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B660" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C660" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D660" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E660" s="13" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F660" s="14" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661" s="11" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B661" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C661" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D661" s="13" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="E661" s="13" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="F661" s="15"/>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662" s="11" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B662" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C662" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D662" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E662" s="13" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F662" s="14" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663" s="11" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B663" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C663" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D663" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E663" s="13" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F663" s="14" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664" s="11" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B664" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C664" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D664" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E664" s="13" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F664" s="14" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665" s="11" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B665" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C665" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D665" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E665" s="13" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F665" s="14" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666" s="11" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B666" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C666" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D666" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E666" s="13" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F666" s="14" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667" s="11" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B667" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C667" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D667" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E667" s="13" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F667" s="14" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668" s="11" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B668" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C668" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D668" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E668" s="13" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F668" s="14" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669" s="11" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B669" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C669" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D669" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E669" s="13" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F669" s="14" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670" s="11" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B670" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D670" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E670" s="13" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F670" s="14" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671" s="11" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B671" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C671" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D671" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E671" s="13" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672" s="11" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B672" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C672" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D672" s="13" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="E672" s="13" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="F672" s="14" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673" s="11" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B673" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C673" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D673" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E673" s="13" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="F673" s="14" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674" s="11" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B674" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C674" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D674" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E674" s="13" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675" s="11" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B675" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C675" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D675" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E675" s="13" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F675" s="14" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676" s="11" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B676" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C676" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D676" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E676" s="13" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F676" s="14" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677" s="11" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B677" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C677" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D677" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E677" s="13" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="F677" s="14" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678" s="11" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B678" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C678" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D678" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E678" s="13" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F678" s="14" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679" s="11" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B679" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C679" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D679" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E679" s="13" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="F679" s="14" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680" s="11" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B680" s="12" t="s">
         <v>437</v>
@@ -24916,15 +24915,15 @@
         <v>1592</v>
       </c>
       <c r="E680" s="13" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="F680" s="14" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681" s="11" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B681" s="12" t="s">
         <v>437</v>
@@ -24933,18 +24932,18 @@
         <v>1414</v>
       </c>
       <c r="D681" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E681" s="13" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F681" s="14" t="s">
         <v>2363</v>
-      </c>
-      <c r="E681" s="13" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F681" s="14" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682" s="11" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B682" s="12" t="s">
         <v>437</v>
@@ -24953,98 +24952,98 @@
         <v>1414</v>
       </c>
       <c r="D682" s="13" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E682" s="13" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="F682" s="14" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683" s="11" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B683" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C683" s="13" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D683" s="13" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E683" s="13" t="s">
         <v>2370</v>
       </c>
-      <c r="D683" s="13" t="s">
+      <c r="F683" s="14" t="s">
         <v>2371</v>
-      </c>
-      <c r="E683" s="13" t="s">
-        <v>2372</v>
-      </c>
-      <c r="F683" s="14" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684" s="11" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B684" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C684" s="13" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D684" s="13" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E684" s="13" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="F684" s="14" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685" s="11" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B685" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C685" s="13" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D685" s="13" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E685" s="13" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F685" s="14" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686" s="11" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B686" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C686" s="13" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D686" s="13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E686" s="13" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F686" s="14" t="s">
         <v>2381</v>
-      </c>
-      <c r="E686" s="13" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F686" s="14" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687" s="11" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B687" s="12" t="s">
         <v>216</v>
@@ -25053,16 +25052,16 @@
         <v>1691</v>
       </c>
       <c r="D687" s="13" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="E687" s="13" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F687" s="15"/>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688" s="11" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B688" s="12" t="s">
         <v>469</v>
@@ -25074,15 +25073,15 @@
         <v>536</v>
       </c>
       <c r="E688" s="13" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F688" s="14" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689" s="11" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B689" s="12" t="s">
         <v>469</v>
@@ -25094,7 +25093,7 @@
         <v>536</v>
       </c>
       <c r="E689" s="13" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="F689" s="16">
         <v>4008728120</v>
@@ -25102,7 +25101,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690" s="11" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B690" s="12" t="s">
         <v>469</v>
@@ -25114,15 +25113,15 @@
         <v>536</v>
       </c>
       <c r="E690" s="13" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F690" s="14" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691" s="11" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B691" s="12" t="s">
         <v>469</v>
@@ -25134,15 +25133,15 @@
         <v>536</v>
       </c>
       <c r="E691" s="13" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F691" s="14" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692" s="11" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B692" s="12" t="s">
         <v>469</v>
@@ -25154,15 +25153,15 @@
         <v>536</v>
       </c>
       <c r="E692" s="13" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F692" s="14" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693" s="11" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B693" s="12" t="s">
         <v>469</v>
@@ -25174,15 +25173,15 @@
         <v>536</v>
       </c>
       <c r="E693" s="13" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F693" s="14" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694" s="11" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B694" s="12" t="s">
         <v>469</v>
@@ -25194,15 +25193,15 @@
         <v>536</v>
       </c>
       <c r="E694" s="13" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F694" s="14" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695" s="11" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B695" s="12" t="s">
         <v>258</v>
@@ -25214,53 +25213,53 @@
         <v>260</v>
       </c>
       <c r="E695" s="13" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="F695" s="14" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696" s="11" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B696" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C696" s="13" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D696" s="13" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E696" s="13" t="s">
         <v>2407</v>
-      </c>
-      <c r="D696" s="13" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E696" s="13" t="s">
-        <v>2409</v>
       </c>
       <c r="F696" s="15"/>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697" s="11" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B697" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C697" s="13" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="D697" s="13" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E697" s="13" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F697" s="14" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698" s="11" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B698" s="12" t="s">
         <v>258</v>
@@ -25272,35 +25271,35 @@
         <v>305</v>
       </c>
       <c r="E698" s="13" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="F698" s="14" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699" s="11" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B699" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C699" s="13" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="D699" s="13" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E699" s="13" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="F699" s="14" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700" s="11" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B700" s="12" t="s">
         <v>654</v>
@@ -25312,33 +25311,33 @@
         <v>656</v>
       </c>
       <c r="E700" s="13" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="F700" s="14" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701" s="11" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B701" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C701" s="13" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D701" s="13" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E701" s="13" t="s">
         <v>2423</v>
-      </c>
-      <c r="D701" s="13" t="s">
-        <v>2424</v>
-      </c>
-      <c r="E701" s="13" t="s">
-        <v>2425</v>
       </c>
       <c r="F701" s="15"/>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702" s="11" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B702" s="12" t="s">
         <v>236</v>
@@ -25347,18 +25346,18 @@
         <v>237</v>
       </c>
       <c r="D702" s="13" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E702" s="13" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F702" s="14" t="s">
         <v>2427</v>
-      </c>
-      <c r="E702" s="13" t="s">
-        <v>2428</v>
-      </c>
-      <c r="F702" s="14" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703" s="11" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="B703" s="12" t="s">
         <v>236</v>
@@ -25367,18 +25366,18 @@
         <v>237</v>
       </c>
       <c r="D703" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E703" s="13" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="F703" s="14" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704" s="11" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="B704" s="12" t="s">
         <v>236</v>
@@ -25387,16 +25386,16 @@
         <v>237</v>
       </c>
       <c r="D704" s="13" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="E704" s="13" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="F704" s="15"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705" s="11" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="B705" s="12" t="s">
         <v>236</v>
@@ -25405,18 +25404,18 @@
         <v>237</v>
       </c>
       <c r="D705" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E705" s="13" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="F705" s="14" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706" s="11" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B706" s="12" t="s">
         <v>236</v>
@@ -25425,18 +25424,18 @@
         <v>237</v>
       </c>
       <c r="D706" s="13" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E706" s="13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F706" s="14" t="s">
         <v>2440</v>
-      </c>
-      <c r="E706" s="13" t="s">
-        <v>2441</v>
-      </c>
-      <c r="F706" s="14" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707" s="11" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B707" s="12" t="s">
         <v>236</v>
@@ -25445,18 +25444,18 @@
         <v>237</v>
       </c>
       <c r="D707" s="13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E707" s="13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F707" s="14" t="s">
         <v>2444</v>
-      </c>
-      <c r="E707" s="13" t="s">
-        <v>2445</v>
-      </c>
-      <c r="F707" s="14" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708" s="11" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B708" s="12" t="s">
         <v>236</v>
@@ -25465,18 +25464,18 @@
         <v>237</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E708" s="13" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="F708" s="14" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709" s="11" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B709" s="12" t="s">
         <v>236</v>
@@ -25485,18 +25484,18 @@
         <v>237</v>
       </c>
       <c r="D709" s="13" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E709" s="13" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="F709" s="14" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710" s="11" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B710" s="12" t="s">
         <v>236</v>
@@ -25505,98 +25504,98 @@
         <v>237</v>
       </c>
       <c r="D710" s="13" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E710" s="13" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F710" s="14" t="s">
         <v>2454</v>
-      </c>
-      <c r="E710" s="13" t="s">
-        <v>2455</v>
-      </c>
-      <c r="F710" s="14" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711" s="11" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B711" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C711" s="13" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D711" s="13" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E711" s="13" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F711" s="14" t="s">
         <v>2458</v>
-      </c>
-      <c r="E711" s="13" t="s">
-        <v>2459</v>
-      </c>
-      <c r="F711" s="14" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712" s="11" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B712" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C712" s="13" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D712" s="13" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E712" s="13" t="s">
         <v>2462</v>
       </c>
-      <c r="D712" s="13" t="s">
+      <c r="F712" s="14" t="s">
         <v>2463</v>
-      </c>
-      <c r="E712" s="13" t="s">
-        <v>2464</v>
-      </c>
-      <c r="F712" s="14" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713" s="11" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C713" s="13" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D713" s="13" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E713" s="13" t="s">
         <v>2467</v>
       </c>
-      <c r="D713" s="13" t="s">
+      <c r="F713" s="14" t="s">
         <v>2468</v>
-      </c>
-      <c r="E713" s="13" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F713" s="14" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714" s="11" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C714" s="13" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E714" s="13" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F714" s="14" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715" s="11" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>451</v>
@@ -25608,15 +25607,15 @@
         <v>2047</v>
       </c>
       <c r="E715" s="13" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="F715" s="14" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716" s="11" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>451</v>
@@ -25628,15 +25627,15 @@
         <v>1344</v>
       </c>
       <c r="E716" s="13" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F716" s="14" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717" s="11" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>451</v>
@@ -25648,15 +25647,15 @@
         <v>2047</v>
       </c>
       <c r="E717" s="13" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F717" s="14" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718" s="11" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B718" s="12" t="s">
         <v>451</v>
@@ -25668,15 +25667,15 @@
         <v>2047</v>
       </c>
       <c r="E718" s="13" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="F718" s="14" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719" s="11" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B719" s="12" t="s">
         <v>451</v>
@@ -25688,15 +25687,15 @@
         <v>1344</v>
       </c>
       <c r="E719" s="13" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="F719" s="14" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720" s="11" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B720" s="12" t="s">
         <v>451</v>
@@ -25708,15 +25707,15 @@
         <v>2047</v>
       </c>
       <c r="E720" s="13" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="F720" s="14" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721" s="11" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B721" s="12" t="s">
         <v>236</v>
@@ -25725,18 +25724,18 @@
         <v>457</v>
       </c>
       <c r="D721" s="13" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E721" s="13" t="s">
+        <v>2492</v>
+      </c>
+      <c r="F721" s="14" t="s">
         <v>2493</v>
-      </c>
-      <c r="E721" s="13" t="s">
-        <v>2494</v>
-      </c>
-      <c r="F721" s="14" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722" s="11" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B722" s="12" t="s">
         <v>236</v>
@@ -25745,18 +25744,18 @@
         <v>457</v>
       </c>
       <c r="D722" s="13" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="E722" s="13" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="F722" s="14" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723" s="11" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B723" s="12" t="s">
         <v>236</v>
@@ -25765,174 +25764,174 @@
         <v>457</v>
       </c>
       <c r="D723" s="13" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="E723" s="13" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="F723" s="14" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724" s="11" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B724" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C724" s="13" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D724" s="13" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E724" s="13" t="s">
         <v>2503</v>
       </c>
-      <c r="D724" s="13" t="s">
+      <c r="F724" s="14" t="s">
         <v>2504</v>
-      </c>
-      <c r="E724" s="13" t="s">
-        <v>2505</v>
-      </c>
-      <c r="F724" s="14" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725" s="11" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B725" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C725" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D725" s="13" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E725" s="13" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F725" s="14" t="s">
         <v>2508</v>
-      </c>
-      <c r="E725" s="13" t="s">
-        <v>2509</v>
-      </c>
-      <c r="F725" s="14" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726" s="11" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B726" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C726" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D726" s="13" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E726" s="13" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F726" s="14" t="s">
         <v>2512</v>
-      </c>
-      <c r="E726" s="13" t="s">
-        <v>2513</v>
-      </c>
-      <c r="F726" s="14" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727" s="11" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B727" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C727" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D727" s="13" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="E727" s="13" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="F727" s="14" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728" s="11" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B728" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C728" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="E728" s="13" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="F728" s="14" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729" s="11" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B729" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C729" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D729" s="13" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="E729" s="13" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="F729" s="15"/>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730" s="11" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B730" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C730" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="E730" s="13" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="F730" s="14" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731" s="11" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B731" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C731" s="13" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D731" s="13" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="E731" s="13" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="F731" s="15"/>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732" s="11" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B732" s="12" t="s">
         <v>432</v>
@@ -25944,7 +25943,7 @@
         <v>1419</v>
       </c>
       <c r="E732" s="13" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F732" s="16">
         <v>15922061177</v>
@@ -25952,7 +25951,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733" s="11" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B733" s="12" t="s">
         <v>432</v>
@@ -25961,18 +25960,18 @@
         <v>432</v>
       </c>
       <c r="D733" s="13" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E733" s="13" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F733" s="14" t="s">
         <v>2530</v>
-      </c>
-      <c r="E733" s="13" t="s">
-        <v>2531</v>
-      </c>
-      <c r="F733" s="14" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734" s="11" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B734" s="12" t="s">
         <v>432</v>
@@ -25981,16 +25980,16 @@
         <v>432</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E734" s="13" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="F734" s="15"/>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735" s="11" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B735" s="12" t="s">
         <v>432</v>
@@ -26002,15 +26001,15 @@
         <v>1419</v>
       </c>
       <c r="E735" s="13" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="F735" s="14" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736" s="11" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B736" s="12" t="s">
         <v>432</v>
@@ -26019,18 +26018,18 @@
         <v>432</v>
       </c>
       <c r="D736" s="13" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E736" s="13" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F736" s="14" t="s">
         <v>2540</v>
-      </c>
-      <c r="E736" s="13" t="s">
-        <v>2541</v>
-      </c>
-      <c r="F736" s="14" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737" s="11" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B737" s="12" t="s">
         <v>432</v>
@@ -26039,18 +26038,18 @@
         <v>432</v>
       </c>
       <c r="D737" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E737" s="13" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="F737" s="14" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738" s="11" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B738" s="12" t="s">
         <v>432</v>
@@ -26059,18 +26058,18 @@
         <v>432</v>
       </c>
       <c r="D738" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E738" s="13" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="F738" s="14" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739" s="11" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B739" s="12" t="s">
         <v>432</v>
@@ -26079,18 +26078,18 @@
         <v>432</v>
       </c>
       <c r="D739" s="13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E739" s="13" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F739" s="14" t="s">
         <v>2550</v>
-      </c>
-      <c r="E739" s="13" t="s">
-        <v>2551</v>
-      </c>
-      <c r="F739" s="14" t="s">
-        <v>2552</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740" s="11" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B740" s="12" t="s">
         <v>432</v>
@@ -26099,18 +26098,18 @@
         <v>432</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E740" s="13" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="F740" s="14" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741" s="11" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B741" s="12" t="s">
         <v>432</v>
@@ -26119,18 +26118,18 @@
         <v>432</v>
       </c>
       <c r="D741" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E741" s="13" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="F741" s="14" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742" s="11" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B742" s="12" t="s">
         <v>432</v>
@@ -26139,18 +26138,18 @@
         <v>432</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="E742" s="13" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="F742" s="14" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743" s="11" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B743" s="12" t="s">
         <v>432</v>
@@ -26162,15 +26161,15 @@
         <v>1419</v>
       </c>
       <c r="E743" s="13" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="F743" s="14" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744" s="11" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B744" s="12" t="s">
         <v>432</v>
@@ -26179,18 +26178,18 @@
         <v>432</v>
       </c>
       <c r="D744" s="13" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E744" s="13" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745" s="11" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B745" s="12" t="s">
         <v>432</v>
@@ -26199,18 +26198,18 @@
         <v>432</v>
       </c>
       <c r="D745" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E745" s="13" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="F745" s="14" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746" s="11" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B746" s="12" t="s">
         <v>432</v>
@@ -26219,18 +26218,18 @@
         <v>432</v>
       </c>
       <c r="D746" s="13" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="E746" s="13" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747" s="11" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B747" s="12" t="s">
         <v>432</v>
@@ -26239,18 +26238,18 @@
         <v>432</v>
       </c>
       <c r="D747" s="13" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E747" s="13" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F747" s="14" t="s">
         <v>2575</v>
-      </c>
-      <c r="E747" s="13" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F747" s="14" t="s">
-        <v>2577</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748" s="11" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B748" s="12" t="s">
         <v>432</v>
@@ -26262,15 +26261,15 @@
         <v>1335</v>
       </c>
       <c r="E748" s="13" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749" s="11" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B749" s="12" t="s">
         <v>432</v>
@@ -26282,15 +26281,15 @@
         <v>1419</v>
       </c>
       <c r="E749" s="13" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="F749" s="14" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750" s="11" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B750" s="12" t="s">
         <v>432</v>
@@ -26302,15 +26301,15 @@
         <v>1419</v>
       </c>
       <c r="E750" s="13" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751" s="11" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B751" s="12" t="s">
         <v>432</v>
@@ -26322,115 +26321,115 @@
         <v>1335</v>
       </c>
       <c r="E751" s="13" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="F751" s="14" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752" s="11" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B752" s="12" t="s">
         <v>1543</v>
       </c>
       <c r="C752" s="13" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D752" s="13" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E752" s="13" t="s">
         <v>2589</v>
       </c>
-      <c r="D752" s="13" t="s">
+      <c r="F752" s="14" t="s">
         <v>2590</v>
-      </c>
-      <c r="E752" s="13" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F752" s="14" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753" s="11" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B753" s="12" t="s">
         <v>1543</v>
       </c>
       <c r="C753" s="13" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D753" s="13" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E753" s="13" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F753" s="14" t="s">
         <v>2594</v>
-      </c>
-      <c r="E753" s="13" t="s">
-        <v>2595</v>
-      </c>
-      <c r="F753" s="14" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754" s="11" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B754" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C754" s="13" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D754" s="13" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E754" s="13" t="s">
         <v>2598</v>
       </c>
-      <c r="D754" s="13" t="s">
+      <c r="F754" s="14" t="s">
         <v>2599</v>
-      </c>
-      <c r="E754" s="13" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F754" s="14" t="s">
-        <v>2601</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755" s="11" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B755" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C755" s="13" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D755" s="13" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E755" s="13" t="s">
         <v>2603</v>
       </c>
-      <c r="D755" s="13" t="s">
+      <c r="F755" s="14" t="s">
         <v>2604</v>
-      </c>
-      <c r="E755" s="13" t="s">
-        <v>2605</v>
-      </c>
-      <c r="F755" s="14" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756" s="11" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B756" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C756" s="13" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D756" s="13" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E756" s="13" t="s">
         <v>2608</v>
       </c>
-      <c r="D756" s="13" t="s">
+      <c r="F756" s="14" t="s">
         <v>2609</v>
-      </c>
-      <c r="E756" s="13" t="s">
-        <v>2610</v>
-      </c>
-      <c r="F756" s="14" t="s">
-        <v>2611</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757" s="11" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B757" s="12" t="s">
         <v>351</v>
@@ -26442,35 +26441,35 @@
         <v>395</v>
       </c>
       <c r="E757" s="13" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="F757" s="14" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758" s="11" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B758" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C758" s="13" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D758" s="13" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E758" s="13" t="s">
         <v>2616</v>
       </c>
-      <c r="D758" s="13" t="s">
+      <c r="F758" s="14" t="s">
         <v>2617</v>
-      </c>
-      <c r="E758" s="13" t="s">
-        <v>2618</v>
-      </c>
-      <c r="F758" s="14" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759" s="11" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B759" s="12" t="s">
         <v>230</v>
@@ -26479,18 +26478,18 @@
         <v>231</v>
       </c>
       <c r="D759" s="13" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E759" s="13" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F759" s="14" t="s">
         <v>2621</v>
-      </c>
-      <c r="E759" s="13" t="s">
-        <v>2622</v>
-      </c>
-      <c r="F759" s="14" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760" s="11" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B760" s="12" t="s">
         <v>230</v>
@@ -26499,56 +26498,56 @@
         <v>231</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="E760" s="13" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761" s="11" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B761" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C761" s="13" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D761" s="13" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E761" s="13" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F761" s="14" t="s">
         <v>2628</v>
-      </c>
-      <c r="E761" s="13" t="s">
-        <v>2629</v>
-      </c>
-      <c r="F761" s="14" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762" s="11" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B762" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="E762" s="13" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="F762" s="15"/>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763" s="11" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B763" s="12" t="s">
         <v>420</v>
@@ -26557,18 +26556,18 @@
         <v>1569</v>
       </c>
       <c r="D763" s="13" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E763" s="13" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F763" s="14" t="s">
         <v>2634</v>
-      </c>
-      <c r="E763" s="13" t="s">
-        <v>2635</v>
-      </c>
-      <c r="F763" s="14" t="s">
-        <v>2636</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764" s="11" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="B764" s="12" t="s">
         <v>420</v>
@@ -26577,18 +26576,18 @@
         <v>1569</v>
       </c>
       <c r="D764" s="13" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E764" s="13" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F764" s="14" t="s">
         <v>2638</v>
-      </c>
-      <c r="E764" s="13" t="s">
-        <v>2639</v>
-      </c>
-      <c r="F764" s="14" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765" s="11" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="B765" s="12" t="s">
         <v>420</v>
@@ -26597,18 +26596,18 @@
         <v>1569</v>
       </c>
       <c r="D765" s="13" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E765" s="13" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F765" s="14" t="s">
         <v>2642</v>
-      </c>
-      <c r="E765" s="13" t="s">
-        <v>2643</v>
-      </c>
-      <c r="F765" s="14" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766" s="11" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="B766" s="12" t="s">
         <v>420</v>
@@ -26617,18 +26616,18 @@
         <v>1569</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="E766" s="13" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="F766" s="14" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767" s="11" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="B767" s="12" t="s">
         <v>420</v>
@@ -26637,16 +26636,16 @@
         <v>1569</v>
       </c>
       <c r="D767" s="13" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="E767" s="13" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="F767" s="15"/>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768" s="11" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B768" s="12" t="s">
         <v>420</v>
@@ -26655,18 +26654,18 @@
         <v>1569</v>
       </c>
       <c r="D768" s="13" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="E768" s="13" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769" s="11" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B769" s="12" t="s">
         <v>420</v>
@@ -26678,13 +26677,13 @@
         <v>1996</v>
       </c>
       <c r="E769" s="13" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="F769" s="15"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770" s="11" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B770" s="12" t="s">
         <v>420</v>
@@ -26696,15 +26695,15 @@
         <v>1570</v>
       </c>
       <c r="E770" s="13" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771" s="11" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B771" s="12" t="s">
         <v>420</v>
@@ -26713,56 +26712,56 @@
         <v>1569</v>
       </c>
       <c r="D771" s="13" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="E771" s="13" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="F771" s="15"/>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772" s="11" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B772" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C772" s="13" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D772" s="13" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E772" s="13" t="s">
         <v>2661</v>
       </c>
-      <c r="D772" s="13" t="s">
+      <c r="F772" s="14" t="s">
         <v>2662</v>
-      </c>
-      <c r="E772" s="13" t="s">
-        <v>2663</v>
-      </c>
-      <c r="F772" s="14" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773" s="11" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B773" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C773" s="13" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D773" s="13" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E773" s="13" t="s">
         <v>2666</v>
       </c>
-      <c r="D773" s="13" t="s">
+      <c r="F773" s="14" t="s">
         <v>2667</v>
-      </c>
-      <c r="E773" s="13" t="s">
-        <v>2668</v>
-      </c>
-      <c r="F773" s="14" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774" s="11" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B774" s="12" t="s">
         <v>814</v>
@@ -26771,18 +26770,18 @@
         <v>1423</v>
       </c>
       <c r="D774" s="13" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E774" s="13" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F774" s="14" t="s">
         <v>2671</v>
-      </c>
-      <c r="E774" s="13" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F774" s="14" t="s">
-        <v>2673</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775" s="11" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B775" s="12" t="s">
         <v>814</v>
@@ -26791,18 +26790,18 @@
         <v>1423</v>
       </c>
       <c r="D775" s="13" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E775" s="13" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F775" s="14" t="s">
         <v>2675</v>
-      </c>
-      <c r="E775" s="13" t="s">
-        <v>2676</v>
-      </c>
-      <c r="F775" s="14" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776" s="11" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>814</v>
@@ -26811,18 +26810,18 @@
         <v>1423</v>
       </c>
       <c r="D776" s="13" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="E776" s="13" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="F776" s="14" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777" s="11" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B777" s="12" t="s">
         <v>814</v>
@@ -26831,18 +26830,18 @@
         <v>1423</v>
       </c>
       <c r="D777" s="13" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="E777" s="13" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778" s="11" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="B778" s="12" t="s">
         <v>236</v>
@@ -26851,18 +26850,18 @@
         <v>1230</v>
       </c>
       <c r="D778" s="13" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E778" s="13" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F778" s="14" t="s">
         <v>2685</v>
-      </c>
-      <c r="E778" s="13" t="s">
-        <v>2686</v>
-      </c>
-      <c r="F778" s="14" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A779" s="11" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B779" s="12" t="s">
         <v>236</v>
@@ -26871,18 +26870,18 @@
         <v>1230</v>
       </c>
       <c r="D779" s="13" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E779" s="13" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F779" s="14" t="s">
         <v>2689</v>
-      </c>
-      <c r="E779" s="13" t="s">
-        <v>2690</v>
-      </c>
-      <c r="F779" s="14" t="s">
-        <v>2691</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A780" s="11" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="B780" s="12" t="s">
         <v>236</v>
@@ -26891,18 +26890,18 @@
         <v>1230</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E780" s="13" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="F780" s="14" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A781" s="11" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="B781" s="12" t="s">
         <v>236</v>
@@ -26911,18 +26910,18 @@
         <v>1230</v>
       </c>
       <c r="D781" s="13" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E781" s="13" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A782" s="11" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="B782" s="12" t="s">
         <v>236</v>
@@ -26931,18 +26930,18 @@
         <v>1230</v>
       </c>
       <c r="D782" s="13" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E782" s="13" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F782" s="14" t="s">
         <v>2699</v>
-      </c>
-      <c r="E782" s="13" t="s">
-        <v>2700</v>
-      </c>
-      <c r="F782" s="14" t="s">
-        <v>2701</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A783" s="11" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="B783" s="12" t="s">
         <v>236</v>
@@ -26951,18 +26950,18 @@
         <v>1230</v>
       </c>
       <c r="D783" s="13" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="E783" s="13" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A784" s="11" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="B784" s="12" t="s">
         <v>236</v>
@@ -26971,18 +26970,18 @@
         <v>1230</v>
       </c>
       <c r="D784" s="13" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E784" s="13" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="F784" s="14" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A785" s="11" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B785" s="12" t="s">
         <v>236</v>
@@ -26991,18 +26990,18 @@
         <v>1230</v>
       </c>
       <c r="D785" s="13" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E785" s="13" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A786" s="11" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B786" s="12" t="s">
         <v>236</v>
@@ -27011,18 +27010,18 @@
         <v>1230</v>
       </c>
       <c r="D786" s="13" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="E786" s="13" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="F786" s="14" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A787" s="11" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B787" s="12" t="s">
         <v>236</v>
@@ -27031,18 +27030,18 @@
         <v>1230</v>
       </c>
       <c r="D787" s="13" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E787" s="13" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F787" s="14" t="s">
         <v>2715</v>
-      </c>
-      <c r="E787" s="13" t="s">
-        <v>2716</v>
-      </c>
-      <c r="F787" s="14" t="s">
-        <v>2717</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A788" s="11" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B788" s="12" t="s">
         <v>236</v>
@@ -27051,38 +27050,38 @@
         <v>1230</v>
       </c>
       <c r="D788" s="13" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E788" s="13" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="F788" s="14" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A789" s="11" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B789" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C789" s="13" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D789" s="13" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E789" s="13" t="s">
         <v>2722</v>
       </c>
-      <c r="D789" s="13" t="s">
+      <c r="F789" s="14" t="s">
         <v>2723</v>
-      </c>
-      <c r="E789" s="13" t="s">
-        <v>2724</v>
-      </c>
-      <c r="F789" s="14" t="s">
-        <v>2725</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A790" s="11" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B790" s="12" t="s">
         <v>12</v>
@@ -27091,16 +27090,16 @@
         <v>1630</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="E790" s="13" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="F790" s="15"/>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A791" s="11" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B791" s="12" t="s">
         <v>996</v>
@@ -27109,18 +27108,18 @@
         <v>997</v>
       </c>
       <c r="D791" s="13" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E791" s="13" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F791" s="14" t="s">
         <v>2730</v>
-      </c>
-      <c r="E791" s="13" t="s">
-        <v>2731</v>
-      </c>
-      <c r="F791" s="14" t="s">
-        <v>2732</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A792" s="11" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B792" s="12" t="s">
         <v>996</v>
@@ -27129,18 +27128,18 @@
         <v>997</v>
       </c>
       <c r="D792" s="13" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="E792" s="13" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="F792" s="14" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A793" s="11" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="B793" s="12" t="s">
         <v>996</v>
@@ -27149,18 +27148,18 @@
         <v>997</v>
       </c>
       <c r="D793" s="13" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E793" s="13" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F793" s="14" t="s">
         <v>2737</v>
-      </c>
-      <c r="E793" s="13" t="s">
-        <v>2738</v>
-      </c>
-      <c r="F793" s="14" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A794" s="11" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="B794" s="12" t="s">
         <v>996</v>
@@ -27169,18 +27168,18 @@
         <v>997</v>
       </c>
       <c r="D794" s="13" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="E794" s="13" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="F794" s="14" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A795" s="11" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="B795" s="12" t="s">
         <v>996</v>
@@ -27189,18 +27188,18 @@
         <v>997</v>
       </c>
       <c r="D795" s="13" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="E795" s="13" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A796" s="11" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="B796" s="12" t="s">
         <v>996</v>
@@ -27209,18 +27208,18 @@
         <v>997</v>
       </c>
       <c r="D796" s="13" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="E796" s="13" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="F796" s="14" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A797" s="11" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B797" s="12" t="s">
         <v>996</v>
@@ -27232,15 +27231,15 @@
         <v>1299</v>
       </c>
       <c r="E797" s="13" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A798" s="11" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="B798" s="12" t="s">
         <v>996</v>
@@ -27249,16 +27248,16 @@
         <v>997</v>
       </c>
       <c r="D798" s="13" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="E798" s="13" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="F798" s="15"/>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A799" s="11" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="B799" s="12" t="s">
         <v>996</v>
@@ -27267,18 +27266,18 @@
         <v>997</v>
       </c>
       <c r="D799" s="13" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="E799" s="13" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A800" s="11" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B800" s="12" t="s">
         <v>996</v>
@@ -27287,18 +27286,18 @@
         <v>997</v>
       </c>
       <c r="D800" s="13" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E800" s="13" t="s">
+        <v>2757</v>
+      </c>
+      <c r="F800" s="14" t="s">
         <v>2758</v>
-      </c>
-      <c r="E800" s="13" t="s">
-        <v>2759</v>
-      </c>
-      <c r="F800" s="14" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A801" s="11" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B801" s="12" t="s">
         <v>814</v>
@@ -27307,18 +27306,18 @@
         <v>1423</v>
       </c>
       <c r="D801" s="13" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="E801" s="13" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A802" s="11" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B802" s="12" t="s">
         <v>351</v>
@@ -27330,55 +27329,55 @@
         <v>374</v>
       </c>
       <c r="E802" s="13" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="F802" s="14" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A803" s="11" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B803" s="12" t="s">
         <v>2003</v>
       </c>
       <c r="C803" s="13" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D803" s="13" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E803" s="13" t="s">
         <v>2768</v>
       </c>
-      <c r="D803" s="13" t="s">
+      <c r="F803" s="14" t="s">
         <v>2769</v>
-      </c>
-      <c r="E803" s="13" t="s">
-        <v>2770</v>
-      </c>
-      <c r="F803" s="14" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A804" s="11" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B804" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C804" s="13" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D804" s="13" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E804" s="13" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F804" s="14" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A805" s="11" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B805" s="12" t="s">
         <v>6</v>
@@ -27390,15 +27389,15 @@
         <v>940</v>
       </c>
       <c r="E805" s="13" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A806" s="11" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="B806" s="12" t="s">
         <v>792</v>
@@ -27413,12 +27412,12 @@
         <v>973</v>
       </c>
       <c r="F806" s="14" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A807" s="11" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="B807" s="12" t="s">
         <v>252</v>
@@ -27430,15 +27429,15 @@
         <v>1617</v>
       </c>
       <c r="E807" s="13" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A808" s="11" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B808" s="12" t="s">
         <v>654</v>
@@ -27458,7 +27457,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A809" s="11" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="B809" s="12" t="s">
         <v>236</v>
@@ -27467,18 +27466,18 @@
         <v>825</v>
       </c>
       <c r="D809" s="13" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E809" s="13" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F809" s="14" t="s">
         <v>2785</v>
-      </c>
-      <c r="E809" s="13" t="s">
-        <v>2786</v>
-      </c>
-      <c r="F809" s="14" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A810" s="11" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="B810" s="12" t="s">
         <v>642</v>
@@ -27490,15 +27489,15 @@
         <v>834</v>
       </c>
       <c r="E810" s="13" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A811" s="11" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B811" s="12" t="s">
         <v>437</v>
@@ -27507,18 +27506,18 @@
         <v>1414</v>
       </c>
       <c r="D811" s="13" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E811" s="13" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F811" s="14" t="s">
         <v>2792</v>
-      </c>
-      <c r="E811" s="13" t="s">
-        <v>2793</v>
-      </c>
-      <c r="F811" s="14" t="s">
-        <v>2794</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A812" s="11" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="B812" s="12" t="s">
         <v>18</v>
@@ -27527,18 +27526,18 @@
         <v>984</v>
       </c>
       <c r="D812" s="13" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E812" s="13" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F812" s="14" t="s">
         <v>2796</v>
-      </c>
-      <c r="E812" s="13" t="s">
-        <v>2797</v>
-      </c>
-      <c r="F812" s="14" t="s">
-        <v>2798</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A813" s="11" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B813" s="12" t="s">
         <v>1444</v>
@@ -27550,15 +27549,15 @@
         <v>1446</v>
       </c>
       <c r="E813" s="13" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="F813" s="14" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A814" s="11" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="B814" s="12" t="s">
         <v>451</v>
@@ -27570,13 +27569,13 @@
         <v>2047</v>
       </c>
       <c r="E814" s="13" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="F814" s="15"/>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A815" s="11" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="B815" s="12" t="s">
         <v>34</v>
@@ -27588,15 +27587,15 @@
         <v>2063</v>
       </c>
       <c r="E815" s="13" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="F815" s="14" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A816" s="11" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B816" s="12" t="s">
         <v>258</v>
@@ -27608,15 +27607,15 @@
         <v>279</v>
       </c>
       <c r="E816" s="13" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="F816" s="14" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A817" s="11" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="B817" s="12" t="s">
         <v>637</v>
@@ -27628,13 +27627,13 @@
         <v>1510</v>
       </c>
       <c r="E817" s="13" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="F817" s="15"/>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A818" s="11" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="B818" s="12" t="s">
         <v>34</v>
@@ -27646,13 +27645,13 @@
         <v>1398</v>
       </c>
       <c r="E818" s="13" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="F818" s="15"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A819" s="11" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="B819" s="12" t="s">
         <v>34</v>
@@ -27664,15 +27663,15 @@
         <v>2063</v>
       </c>
       <c r="E819" s="13" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F819" s="14" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A820" s="11" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="B820" s="12" t="s">
         <v>34</v>
@@ -27684,15 +27683,15 @@
         <v>2063</v>
       </c>
       <c r="E820" s="13" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A821" s="11" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="B821" s="12" t="s">
         <v>34</v>
@@ -27704,15 +27703,15 @@
         <v>2067</v>
       </c>
       <c r="E821" s="13" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="F821" s="14" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A822" s="11" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B822" s="12" t="s">
         <v>34</v>
@@ -27721,18 +27720,18 @@
         <v>1397</v>
       </c>
       <c r="D822" s="13" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E822" s="13" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F822" s="14" t="s">
         <v>2824</v>
-      </c>
-      <c r="E822" s="13" t="s">
-        <v>2825</v>
-      </c>
-      <c r="F822" s="14" t="s">
-        <v>2826</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A823" s="11" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="B823" s="12" t="s">
         <v>34</v>
@@ -27744,15 +27743,15 @@
         <v>2063</v>
       </c>
       <c r="E823" s="13" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="F823" s="14" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A824" s="11" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="B824" s="12" t="s">
         <v>34</v>
@@ -27764,15 +27763,15 @@
         <v>1331</v>
       </c>
       <c r="E824" s="13" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="F824" s="14" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A825" s="11" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="B825" s="12" t="s">
         <v>1537</v>
@@ -27784,13 +27783,13 @@
         <v>1539</v>
       </c>
       <c r="E825" s="13" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F825" s="15"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A826" s="11" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="B826" s="12" t="s">
         <v>1449</v>
@@ -27802,15 +27801,15 @@
         <v>1451</v>
       </c>
       <c r="E826" s="13" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="F826" s="14" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A827" s="11" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="B827" s="12" t="s">
         <v>258</v>
@@ -27822,82 +27821,82 @@
         <v>260</v>
       </c>
       <c r="E827" s="13" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="F827" s="15"/>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A828" s="11" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="B828" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C828" s="13" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D828" s="13" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E828" s="13" t="s">
         <v>2841</v>
       </c>
-      <c r="D828" s="13" t="s">
+      <c r="F828" s="14" t="s">
         <v>2842</v>
-      </c>
-      <c r="E828" s="13" t="s">
-        <v>2843</v>
-      </c>
-      <c r="F828" s="14" t="s">
-        <v>2844</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A829" s="11" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B829" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="C829" s="13" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D829" s="13" t="s">
         <v>2845</v>
-      </c>
-      <c r="B829" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C829" s="13" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D829" s="13" t="s">
-        <v>1004</v>
       </c>
       <c r="E829" s="13" t="s">
         <v>2846</v>
       </c>
-      <c r="F829" s="14" t="s">
-        <v>2847</v>
+      <c r="F829" s="16">
+        <v>4000710919</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A830" s="11" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B830" s="12" t="s">
         <v>996</v>
       </c>
       <c r="C830" s="13" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D830" s="13" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E830" s="13" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F830" s="14" t="s">
         <v>2849</v>
-      </c>
-      <c r="D830" s="13" t="s">
-        <v>2850</v>
-      </c>
-      <c r="E830" s="13" t="s">
-        <v>2851</v>
-      </c>
-      <c r="F830" s="16">
-        <v>4000710919</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A831" s="11" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B831" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C831" s="13" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D831" s="13" t="s">
         <v>2852</v>
-      </c>
-      <c r="B831" s="12" t="s">
-        <v>996</v>
-      </c>
-      <c r="C831" s="13" t="s">
-        <v>2849</v>
-      </c>
-      <c r="D831" s="13" t="s">
-        <v>2850</v>
       </c>
       <c r="E831" s="13" t="s">
         <v>2853</v>
@@ -27914,21 +27913,21 @@
         <v>814</v>
       </c>
       <c r="C832" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D832" s="13" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E832" s="13" t="s">
         <v>2856</v>
       </c>
-      <c r="D832" s="13" t="s">
+      <c r="F832" s="14" t="s">
         <v>2857</v>
-      </c>
-      <c r="E832" s="13" t="s">
-        <v>2858</v>
-      </c>
-      <c r="F832" s="14" t="s">
-        <v>2859</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A833" s="11" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="B833" s="12" t="s">
         <v>814</v>
@@ -27937,125 +27936,125 @@
         <v>1423</v>
       </c>
       <c r="D833" s="13" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="E833" s="13" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="F833" s="14" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A834" s="11" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B834" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C834" s="13" t="s">
-        <v>1423</v>
+        <v>2862</v>
       </c>
       <c r="D834" s="13" t="s">
-        <v>2671</v>
+        <v>2862</v>
       </c>
       <c r="E834" s="13" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F834" s="14" t="s">
         <v>2864</v>
-      </c>
-      <c r="F834" s="14" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A835" s="11" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B835" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C835" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D835" s="13" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E835" s="13" t="s">
         <v>2867</v>
       </c>
-      <c r="D835" s="13" t="s">
-        <v>2867</v>
-      </c>
-      <c r="E835" s="13" t="s">
+      <c r="F835" s="14" t="s">
         <v>2868</v>
-      </c>
-      <c r="F835" s="14" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A836" s="11" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B836" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C836" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D836" s="13" t="s">
         <v>2870</v>
       </c>
-      <c r="B836" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="C836" s="13" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D836" s="13" t="s">
+      <c r="E836" s="13" t="s">
         <v>2871</v>
       </c>
-      <c r="E836" s="13" t="s">
+      <c r="F836" s="14" t="s">
         <v>2872</v>
-      </c>
-      <c r="F836" s="14" t="s">
-        <v>2873</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A837" s="11" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B837" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C837" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D837" s="13" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E837" s="13" t="s">
         <v>2874</v>
       </c>
-      <c r="B837" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C837" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="D837" s="13" t="s">
-        <v>2875</v>
-      </c>
-      <c r="E837" s="13" t="s">
-        <v>2876</v>
-      </c>
-      <c r="F837" s="14" t="s">
-        <v>2877</v>
-      </c>
+      <c r="F837" s="15"/>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A838" s="11" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B838" s="12" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C838" s="13" t="s">
-        <v>237</v>
+        <v>1285</v>
       </c>
       <c r="D838" s="13" t="s">
-        <v>2434</v>
+        <v>1286</v>
       </c>
       <c r="E838" s="13" t="s">
-        <v>2879</v>
-      </c>
-      <c r="F838" s="15"/>
+        <v>2876</v>
+      </c>
+      <c r="F838" s="14" t="s">
+        <v>2877</v>
+      </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A839" s="11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B839" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C839" s="13" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D839" s="13" t="s">
         <v>2880</v>
-      </c>
-      <c r="B839" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C839" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D839" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="E839" s="13" t="s">
         <v>2881</v>
@@ -28069,33 +28068,33 @@
         <v>2883</v>
       </c>
       <c r="B840" s="12" t="s">
-        <v>437</v>
+        <v>236</v>
       </c>
       <c r="C840" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D840" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E840" s="13" t="s">
         <v>2884</v>
       </c>
-      <c r="D840" s="13" t="s">
+      <c r="F840" s="14" t="s">
         <v>2885</v>
-      </c>
-      <c r="E840" s="13" t="s">
-        <v>2886</v>
-      </c>
-      <c r="F840" s="14" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A841" s="11" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B841" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C841" s="13" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D841" s="13" t="s">
         <v>2888</v>
-      </c>
-      <c r="B841" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C841" s="13" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D841" s="13" t="s">
-        <v>1464</v>
       </c>
       <c r="E841" s="13" t="s">
         <v>2889</v>
@@ -28112,59 +28111,59 @@
         <v>6</v>
       </c>
       <c r="C842" s="13" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D842" s="13" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E842" s="13" t="s">
         <v>2892</v>
       </c>
-      <c r="D842" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="E842" s="13" t="s">
-        <v>2894</v>
-      </c>
-      <c r="F842" s="14" t="s">
-        <v>2895</v>
-      </c>
+      <c r="F842" s="15"/>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A843" s="11" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="B843" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C843" s="13" t="s">
-        <v>2892</v>
+        <v>2887</v>
       </c>
       <c r="D843" s="13" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="E843" s="13" t="s">
-        <v>2897</v>
-      </c>
-      <c r="F843" s="15"/>
+        <v>2894</v>
+      </c>
+      <c r="F843" s="14" t="s">
+        <v>2895</v>
+      </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A844" s="11" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B844" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C844" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D844" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E844" s="13" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F844" s="14" t="s">
         <v>2898</v>
-      </c>
-      <c r="B844" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C844" s="13" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D844" s="13" t="s">
-        <v>2893</v>
-      </c>
-      <c r="E844" s="13" t="s">
-        <v>2899</v>
-      </c>
-      <c r="F844" s="14" t="s">
-        <v>2900</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A845" s="11" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B845" s="12" t="s">
         <v>230</v>
@@ -28176,15 +28175,15 @@
         <v>1276</v>
       </c>
       <c r="E845" s="13" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A846" s="11" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="B846" s="12" t="s">
         <v>230</v>
@@ -28192,27 +28191,27 @@
       <c r="C846" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="D846" s="13" t="s">
-        <v>1276</v>
-      </c>
+      <c r="D846" s="17"/>
       <c r="E846" s="13" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="F846" s="14" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A847" s="11" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B847" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C847" s="13" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D847" s="13" t="s">
         <v>2907</v>
       </c>
-      <c r="B847" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C847" s="13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D847" s="17"/>
       <c r="E847" s="13" t="s">
         <v>2908</v>
       </c>
@@ -28225,7 +28224,7 @@
         <v>2910</v>
       </c>
       <c r="B848" s="12" t="s">
-        <v>34</v>
+        <v>654</v>
       </c>
       <c r="C848" s="13" t="s">
         <v>2911</v>
@@ -28245,7 +28244,7 @@
         <v>2915</v>
       </c>
       <c r="B849" s="12" t="s">
-        <v>654</v>
+        <v>236</v>
       </c>
       <c r="C849" s="13" t="s">
         <v>2916</v>
@@ -28256,31 +28255,31 @@
       <c r="E849" s="13" t="s">
         <v>2918</v>
       </c>
-      <c r="F849" s="14" t="s">
-        <v>2919</v>
-      </c>
+      <c r="F849" s="15"/>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A850" s="11" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B850" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C850" s="13" t="s">
-        <v>2921</v>
+        <v>825</v>
       </c>
       <c r="D850" s="13" t="s">
-        <v>2922</v>
+        <v>826</v>
       </c>
       <c r="E850" s="13" t="s">
-        <v>2923</v>
-      </c>
-      <c r="F850" s="15"/>
+        <v>2920</v>
+      </c>
+      <c r="F850" s="16">
+        <v>13222686081</v>
+      </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A851" s="11" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="B851" s="12" t="s">
         <v>236</v>
@@ -28292,43 +28291,43 @@
         <v>826</v>
       </c>
       <c r="E851" s="13" t="s">
-        <v>2925</v>
-      </c>
-      <c r="F851" s="16">
-        <v>13222686081</v>
+        <v>2922</v>
+      </c>
+      <c r="F851" s="14" t="s">
+        <v>2923</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A852" s="11" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B852" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C852" s="13" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D852" s="17"/>
+      <c r="E852" s="13" t="s">
         <v>2926</v>
       </c>
-      <c r="B852" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C852" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="D852" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="E852" s="13" t="s">
+      <c r="F852" s="14" t="s">
         <v>2927</v>
-      </c>
-      <c r="F852" s="14" t="s">
-        <v>2928</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A853" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B853" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C853" s="13" t="s">
         <v>2929</v>
       </c>
-      <c r="B853" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C853" s="13" t="s">
+      <c r="D853" s="13" t="s">
         <v>2930</v>
       </c>
-      <c r="D853" s="17"/>
       <c r="E853" s="13" t="s">
         <v>2931</v>
       </c>
@@ -28341,30 +28340,30 @@
         <v>2933</v>
       </c>
       <c r="B854" s="12" t="s">
-        <v>814</v>
+        <v>236</v>
       </c>
       <c r="C854" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="D854" s="13" t="s">
         <v>2934</v>
       </c>
-      <c r="D854" s="13" t="s">
+      <c r="E854" s="13" t="s">
         <v>2935</v>
       </c>
-      <c r="E854" s="13" t="s">
+      <c r="F854" s="14" t="s">
         <v>2936</v>
-      </c>
-      <c r="F854" s="14" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A855" s="11" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B855" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C855" s="13" t="s">
         <v>2938</v>
-      </c>
-      <c r="B855" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C855" s="13" t="s">
-        <v>825</v>
       </c>
       <c r="D855" s="13" t="s">
         <v>2939</v>
@@ -28381,7 +28380,7 @@
         <v>2942</v>
       </c>
       <c r="B856" s="12" t="s">
-        <v>258</v>
+        <v>996</v>
       </c>
       <c r="C856" s="13" t="s">
         <v>2943</v>
@@ -28401,24 +28400,24 @@
         <v>2947</v>
       </c>
       <c r="B857" s="12" t="s">
-        <v>996</v>
+        <v>236</v>
       </c>
       <c r="C857" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D857" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E857" s="13" t="s">
         <v>2948</v>
       </c>
-      <c r="D857" s="13" t="s">
+      <c r="F857" s="14" t="s">
         <v>2949</v>
-      </c>
-      <c r="E857" s="13" t="s">
-        <v>2950</v>
-      </c>
-      <c r="F857" s="14" t="s">
-        <v>2951</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A858" s="11" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B858" s="12" t="s">
         <v>236</v>
@@ -28430,15 +28429,15 @@
         <v>1231</v>
       </c>
       <c r="E858" s="13" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A859" s="11" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B859" s="12" t="s">
         <v>236</v>
@@ -28450,35 +28449,35 @@
         <v>1231</v>
       </c>
       <c r="E859" s="13" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A860" s="11" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B860" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C860" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D860" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E860" s="13" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F860" s="14" t="s">
         <v>2958</v>
-      </c>
-      <c r="B860" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C860" s="13" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D860" s="13" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E860" s="13" t="s">
-        <v>2959</v>
-      </c>
-      <c r="F860" s="14" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A861" s="11" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B861" s="12" t="s">
         <v>1449</v>
@@ -28490,41 +28489,41 @@
         <v>1451</v>
       </c>
       <c r="E861" s="13" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F861" s="14" t="s">
-        <v>2963</v>
+        <v>2960</v>
+      </c>
+      <c r="F861" s="16">
+        <v>4009985033</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A862" s="11" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B862" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C862" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D862" s="13" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E862" s="13" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F862" s="14" t="s">
         <v>2964</v>
-      </c>
-      <c r="B862" s="12" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C862" s="13" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D862" s="13" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E862" s="13" t="s">
-        <v>2965</v>
-      </c>
-      <c r="F862" s="16">
-        <v>4009985033</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A863" s="11" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B863" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C863" s="13" t="s">
         <v>2966</v>
-      </c>
-      <c r="B863" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C863" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="D863" s="13" t="s">
         <v>2967</v>
@@ -28532,28 +28531,28 @@
       <c r="E863" s="13" t="s">
         <v>2968</v>
       </c>
-      <c r="F863" s="14" t="s">
-        <v>2969</v>
+      <c r="F863" s="16">
+        <v>4008553120</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A864" s="11" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B864" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C864" s="13" t="s">
         <v>2970</v>
       </c>
-      <c r="B864" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C864" s="13" t="s">
+      <c r="D864" s="13" t="s">
         <v>2971</v>
       </c>
-      <c r="D864" s="13" t="s">
+      <c r="E864" s="13" t="s">
         <v>2972</v>
       </c>
-      <c r="E864" s="13" t="s">
+      <c r="F864" s="14" t="s">
         <v>2973</v>
-      </c>
-      <c r="F864" s="16">
-        <v>4008553120</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
@@ -28561,7 +28560,7 @@
         <v>2974</v>
       </c>
       <c r="B865" s="12" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="C865" s="13" t="s">
         <v>2975</v>
@@ -28584,21 +28583,21 @@
         <v>637</v>
       </c>
       <c r="C866" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D866" s="13" t="s">
         <v>2980</v>
       </c>
-      <c r="D866" s="13" t="s">
+      <c r="E866" s="13" t="s">
         <v>2981</v>
       </c>
-      <c r="E866" s="13" t="s">
+      <c r="F866" s="14" t="s">
         <v>2982</v>
-      </c>
-      <c r="F866" s="14" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A867" s="11" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B867" s="12" t="s">
         <v>637</v>
@@ -28607,18 +28606,18 @@
         <v>1430</v>
       </c>
       <c r="D867" s="13" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E867" s="13" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F867" s="14" t="s">
         <v>2985</v>
-      </c>
-      <c r="E867" s="13" t="s">
-        <v>2986</v>
-      </c>
-      <c r="F867" s="14" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A868" s="11" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B868" s="12" t="s">
         <v>637</v>
@@ -28627,18 +28626,18 @@
         <v>1430</v>
       </c>
       <c r="D868" s="13" t="s">
-        <v>2985</v>
+        <v>1506</v>
       </c>
       <c r="E868" s="13" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="F868" s="14" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A869" s="11" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B869" s="12" t="s">
         <v>637</v>
@@ -28647,18 +28646,18 @@
         <v>1430</v>
       </c>
       <c r="D869" s="13" t="s">
-        <v>1506</v>
+        <v>2980</v>
       </c>
       <c r="E869" s="13" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="F869" s="14" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A870" s="11" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B870" s="12" t="s">
         <v>637</v>
@@ -28667,27 +28666,27 @@
         <v>1430</v>
       </c>
       <c r="D870" s="13" t="s">
-        <v>2985</v>
+        <v>1431</v>
       </c>
       <c r="E870" s="13" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="F870" s="14" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A871" s="11" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B871" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C871" s="13" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D871" s="13" t="s">
         <v>2997</v>
-      </c>
-      <c r="B871" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="C871" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D871" s="13" t="s">
-        <v>1431</v>
       </c>
       <c r="E871" s="13" t="s">
         <v>2998</v>
@@ -28701,44 +28700,44 @@
         <v>3000</v>
       </c>
       <c r="B872" s="12" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C872" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D872" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E872" s="13" t="s">
         <v>3001</v>
       </c>
-      <c r="D872" s="13" t="s">
-        <v>3002</v>
-      </c>
-      <c r="E872" s="13" t="s">
-        <v>3003</v>
-      </c>
-      <c r="F872" s="14" t="s">
-        <v>3004</v>
+      <c r="F872" s="16">
+        <v>4000126216</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A873" s="11" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B873" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C873" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D873" s="13" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E873" s="13" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F873" s="14" t="s">
         <v>3005</v>
-      </c>
-      <c r="B873" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C873" s="13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D873" s="13" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E873" s="13" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F873" s="16">
-        <v>4000126216</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A874" s="11" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B874" s="12" t="s">
         <v>236</v>
@@ -28747,18 +28746,18 @@
         <v>237</v>
       </c>
       <c r="D874" s="13" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E874" s="13" t="s">
+        <v>3007</v>
+      </c>
+      <c r="F874" s="14" t="s">
         <v>3008</v>
-      </c>
-      <c r="E874" s="13" t="s">
-        <v>3009</v>
-      </c>
-      <c r="F874" s="14" t="s">
-        <v>3010</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A875" s="11" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B875" s="12" t="s">
         <v>236</v>
@@ -28767,38 +28766,38 @@
         <v>237</v>
       </c>
       <c r="D875" s="13" t="s">
-        <v>3008</v>
+        <v>3003</v>
       </c>
       <c r="E875" s="13" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A876" s="11" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B876" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C876" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D876" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E876" s="13" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F876" s="14" t="s">
         <v>3014</v>
-      </c>
-      <c r="B876" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C876" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D876" s="13" t="s">
-        <v>3008</v>
-      </c>
-      <c r="E876" s="13" t="s">
-        <v>3015</v>
-      </c>
-      <c r="F876" s="14" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A877" s="11" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B877" s="12" t="s">
         <v>654</v>
@@ -28807,18 +28806,18 @@
         <v>1068</v>
       </c>
       <c r="D877" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E877" s="13" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F877" s="14" t="s">
         <v>3018</v>
-      </c>
-      <c r="F877" s="14" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A878" s="11" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B878" s="12" t="s">
         <v>654</v>
@@ -28827,18 +28826,16 @@
         <v>1068</v>
       </c>
       <c r="D878" s="13" t="s">
-        <v>3021</v>
+        <v>1069</v>
       </c>
       <c r="E878" s="13" t="s">
-        <v>3022</v>
-      </c>
-      <c r="F878" s="14" t="s">
-        <v>3023</v>
-      </c>
+        <v>3020</v>
+      </c>
+      <c r="F878" s="15"/>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A879" s="11" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="B879" s="12" t="s">
         <v>654</v>
@@ -28847,16 +28844,18 @@
         <v>1068</v>
       </c>
       <c r="D879" s="13" t="s">
-        <v>1069</v>
+        <v>3016</v>
       </c>
       <c r="E879" s="13" t="s">
-        <v>3025</v>
-      </c>
-      <c r="F879" s="15"/>
+        <v>3022</v>
+      </c>
+      <c r="F879" s="16">
+        <v>13524402436</v>
+      </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A880" s="11" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="B880" s="12" t="s">
         <v>654</v>
@@ -28865,18 +28864,18 @@
         <v>1068</v>
       </c>
       <c r="D880" s="13" t="s">
-        <v>3021</v>
+        <v>1069</v>
       </c>
       <c r="E880" s="13" t="s">
-        <v>3027</v>
-      </c>
-      <c r="F880" s="16">
-        <v>13524402436</v>
+        <v>3024</v>
+      </c>
+      <c r="F880" s="14" t="s">
+        <v>3025</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A881" s="11" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="B881" s="12" t="s">
         <v>654</v>
@@ -28885,18 +28884,18 @@
         <v>1068</v>
       </c>
       <c r="D881" s="13" t="s">
-        <v>1069</v>
+        <v>3016</v>
       </c>
       <c r="E881" s="13" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="F881" s="14" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A882" s="11" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="B882" s="12" t="s">
         <v>654</v>
@@ -28905,18 +28904,18 @@
         <v>1068</v>
       </c>
       <c r="D882" s="13" t="s">
-        <v>3021</v>
+        <v>87</v>
       </c>
       <c r="E882" s="13" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A883" s="11" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="B883" s="12" t="s">
         <v>654</v>
@@ -28928,15 +28927,15 @@
         <v>87</v>
       </c>
       <c r="E883" s="13" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="F883" s="14" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A884" s="11" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B884" s="12" t="s">
         <v>654</v>
@@ -28945,18 +28944,18 @@
         <v>1068</v>
       </c>
       <c r="D884" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E884" s="13" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A885" s="11" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B885" s="12" t="s">
         <v>654</v>
@@ -28965,18 +28964,18 @@
         <v>1068</v>
       </c>
       <c r="D885" s="13" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="E885" s="13" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="F885" s="14" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A886" s="11" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="B886" s="12" t="s">
         <v>654</v>
@@ -28985,18 +28984,16 @@
         <v>1068</v>
       </c>
       <c r="D886" s="13" t="s">
-        <v>3021</v>
+        <v>87</v>
       </c>
       <c r="E886" s="13" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F886" s="14" t="s">
-        <v>3045</v>
-      </c>
+        <v>3042</v>
+      </c>
+      <c r="F886" s="15"/>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A887" s="11" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="B887" s="12" t="s">
         <v>654</v>
@@ -29005,16 +29002,18 @@
         <v>1068</v>
       </c>
       <c r="D887" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E887" s="13" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F887" s="15"/>
+        <v>3039</v>
+      </c>
+      <c r="F887" s="14" t="s">
+        <v>3040</v>
+      </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A888" s="11" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="B888" s="12" t="s">
         <v>654</v>
@@ -29023,18 +29022,18 @@
         <v>1068</v>
       </c>
       <c r="D888" s="13" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="E888" s="13" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A889" s="11" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="B889" s="12" t="s">
         <v>654</v>
@@ -29043,38 +29042,38 @@
         <v>1068</v>
       </c>
       <c r="D889" s="13" t="s">
-        <v>3021</v>
+        <v>1069</v>
       </c>
       <c r="E889" s="13" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F889" s="14" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A890" s="11" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B890" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C890" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D890" s="13" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E890" s="13" t="s">
         <v>3052</v>
       </c>
-      <c r="B890" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="C890" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D890" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E890" s="13" t="s">
+      <c r="F890" s="14" t="s">
         <v>3053</v>
-      </c>
-      <c r="F890" s="14" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A891" s="11" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B891" s="12" t="s">
         <v>216</v>
@@ -29083,38 +29082,38 @@
         <v>217</v>
       </c>
       <c r="D891" s="13" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E891" s="13" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F891" s="14" t="s">
         <v>3056</v>
-      </c>
-      <c r="E891" s="13" t="s">
-        <v>3057</v>
-      </c>
-      <c r="F891" s="14" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A892" s="11" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B892" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C892" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D892" s="13" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E892" s="13" t="s">
         <v>3059</v>
       </c>
-      <c r="B892" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C892" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D892" s="13" t="s">
-        <v>3056</v>
-      </c>
-      <c r="E892" s="13" t="s">
+      <c r="F892" s="14" t="s">
         <v>3060</v>
-      </c>
-      <c r="F892" s="14" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A893" s="11" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B893" s="12" t="s">
         <v>252</v>
@@ -29123,18 +29122,18 @@
         <v>1003</v>
       </c>
       <c r="D893" s="13" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E893" s="13" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F893" s="14" t="s">
         <v>3063</v>
-      </c>
-      <c r="E893" s="13" t="s">
-        <v>3064</v>
-      </c>
-      <c r="F893" s="14" t="s">
-        <v>3065</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A894" s="11" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="B894" s="12" t="s">
         <v>252</v>
@@ -29143,18 +29142,18 @@
         <v>1003</v>
       </c>
       <c r="D894" s="13" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="E894" s="13" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A895" s="11" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="B895" s="12" t="s">
         <v>252</v>
@@ -29163,18 +29162,18 @@
         <v>1003</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>3063</v>
+        <v>1004</v>
       </c>
       <c r="E895" s="13" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="F895" s="14" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A896" s="11" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B896" s="12" t="s">
         <v>252</v>
@@ -29183,18 +29182,18 @@
         <v>1003</v>
       </c>
       <c r="D896" s="13" t="s">
-        <v>1004</v>
+        <v>3058</v>
       </c>
       <c r="E896" s="13" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A897" s="11" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="B897" s="12" t="s">
         <v>252</v>
@@ -29203,18 +29202,18 @@
         <v>1003</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>3063</v>
+        <v>3074</v>
       </c>
       <c r="E897" s="13" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F897" s="14" t="s">
         <v>3076</v>
-      </c>
-      <c r="F897" s="14" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A898" s="11" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B898" s="12" t="s">
         <v>252</v>
@@ -29223,18 +29222,18 @@
         <v>1003</v>
       </c>
       <c r="D898" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E898" s="13" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F898" s="14" t="s">
         <v>3079</v>
-      </c>
-      <c r="E898" s="13" t="s">
-        <v>3080</v>
-      </c>
-      <c r="F898" s="14" t="s">
-        <v>3081</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A899" s="11" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="B899" s="12" t="s">
         <v>252</v>
@@ -29243,18 +29242,18 @@
         <v>1003</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>1004</v>
+        <v>1617</v>
       </c>
       <c r="E899" s="13" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="F899" s="14" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A900" s="11" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="B900" s="12" t="s">
         <v>252</v>
@@ -29263,18 +29262,18 @@
         <v>1003</v>
       </c>
       <c r="D900" s="13" t="s">
-        <v>1617</v>
+        <v>3074</v>
       </c>
       <c r="E900" s="13" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A901" s="11" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="B901" s="12" t="s">
         <v>252</v>
@@ -29283,18 +29282,18 @@
         <v>1003</v>
       </c>
       <c r="D901" s="13" t="s">
-        <v>3079</v>
+        <v>1303</v>
       </c>
       <c r="E901" s="13" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="F901" s="14" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A902" s="11" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="B902" s="12" t="s">
         <v>252</v>
@@ -29303,18 +29302,18 @@
         <v>1003</v>
       </c>
       <c r="D902" s="13" t="s">
-        <v>1303</v>
+        <v>3058</v>
       </c>
       <c r="E902" s="13" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A903" s="11" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="B903" s="12" t="s">
         <v>252</v>
@@ -29323,18 +29322,18 @@
         <v>1003</v>
       </c>
       <c r="D903" s="13" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="E903" s="13" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="F903" s="14" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A904" s="11" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="B904" s="12" t="s">
         <v>252</v>
@@ -29343,18 +29342,18 @@
         <v>1003</v>
       </c>
       <c r="D904" s="13" t="s">
-        <v>3063</v>
+        <v>3074</v>
       </c>
       <c r="E904" s="13" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F904" s="14" t="s">
         <v>3095</v>
-      </c>
-      <c r="F904" s="14" t="s">
-        <v>3096</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A905" s="11" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="B905" s="12" t="s">
         <v>252</v>
@@ -29363,18 +29362,18 @@
         <v>1003</v>
       </c>
       <c r="D905" s="13" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="E905" s="13" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="F905" s="14" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A906" s="11" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="B906" s="12" t="s">
         <v>252</v>
@@ -29383,18 +29382,18 @@
         <v>1003</v>
       </c>
       <c r="D906" s="13" t="s">
-        <v>3079</v>
+        <v>3100</v>
       </c>
       <c r="E906" s="13" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F906" s="14" t="s">
         <v>3102</v>
-      </c>
-      <c r="F906" s="14" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A907" s="11" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B907" s="12" t="s">
         <v>252</v>
@@ -29403,18 +29402,18 @@
         <v>1003</v>
       </c>
       <c r="D907" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E907" s="13" t="s">
+        <v>3104</v>
+      </c>
+      <c r="F907" s="14" t="s">
         <v>3105</v>
-      </c>
-      <c r="E907" s="13" t="s">
-        <v>3106</v>
-      </c>
-      <c r="F907" s="14" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A908" s="11" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="B908" s="12" t="s">
         <v>252</v>
@@ -29426,35 +29425,35 @@
         <v>1004</v>
       </c>
       <c r="E908" s="13" t="s">
-        <v>3109</v>
-      </c>
-      <c r="F908" s="14" t="s">
-        <v>3110</v>
+        <v>3107</v>
+      </c>
+      <c r="F908" s="16">
+        <v>4000986199</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A909" s="11" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="B909" s="12" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="C909" s="13" t="s">
-        <v>1003</v>
+        <v>1480</v>
       </c>
       <c r="D909" s="13" t="s">
-        <v>1004</v>
+        <v>453</v>
       </c>
       <c r="E909" s="13" t="s">
-        <v>3112</v>
-      </c>
-      <c r="F909" s="16">
-        <v>4000986199</v>
+        <v>3109</v>
+      </c>
+      <c r="F909" s="14" t="s">
+        <v>3110</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A910" s="11" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="B910" s="12" t="s">
         <v>451</v>
@@ -29463,24 +29462,24 @@
         <v>1480</v>
       </c>
       <c r="D910" s="13" t="s">
-        <v>453</v>
+        <v>3112</v>
       </c>
       <c r="E910" s="13" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F910" s="14" t="s">
         <v>3114</v>
-      </c>
-      <c r="F910" s="14" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A911" s="11" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B911" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C911" s="13" t="s">
         <v>3116</v>
-      </c>
-      <c r="B911" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C911" s="13" t="s">
-        <v>1480</v>
       </c>
       <c r="D911" s="13" t="s">
         <v>3117</v>
@@ -29497,84 +29496,84 @@
         <v>3120</v>
       </c>
       <c r="B912" s="12" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="C912" s="13" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D912" s="13" t="s">
         <v>3121</v>
       </c>
-      <c r="D912" s="13" t="s">
+      <c r="E912" s="13" t="s">
         <v>3122</v>
       </c>
-      <c r="E912" s="13" t="s">
+      <c r="F912" s="14" t="s">
         <v>3123</v>
-      </c>
-      <c r="F912" s="14" t="s">
-        <v>3124</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A913" s="11" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B913" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C913" s="13" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="D913" s="13" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E913" s="13" t="s">
         <v>3126</v>
       </c>
-      <c r="E913" s="13" t="s">
+      <c r="F913" s="14" t="s">
         <v>3127</v>
-      </c>
-      <c r="F913" s="14" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A914" s="11" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B914" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C914" s="13" t="s">
-        <v>2467</v>
+        <v>1208</v>
       </c>
       <c r="D914" s="13" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E914" s="13" t="s">
         <v>3130</v>
       </c>
-      <c r="E914" s="13" t="s">
+      <c r="F914" s="14" t="s">
         <v>3131</v>
-      </c>
-      <c r="F914" s="14" t="s">
-        <v>3132</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A915" s="11" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B915" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C915" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D915" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="E915" s="13" t="s">
         <v>3133</v>
       </c>
-      <c r="B915" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C915" s="13" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D915" s="13" t="s">
+      <c r="F915" s="14" t="s">
         <v>3134</v>
-      </c>
-      <c r="E915" s="13" t="s">
-        <v>3135</v>
-      </c>
-      <c r="F915" s="14" t="s">
-        <v>3136</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A916" s="11" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="B916" s="12" t="s">
         <v>6</v>
@@ -29583,18 +29582,18 @@
         <v>659</v>
       </c>
       <c r="D916" s="13" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E916" s="13" t="s">
-        <v>3138</v>
-      </c>
-      <c r="F916" s="14" t="s">
-        <v>3139</v>
+        <v>3136</v>
+      </c>
+      <c r="F916" s="16">
+        <v>4009919037</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A917" s="11" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B917" s="12" t="s">
         <v>6</v>
@@ -29603,18 +29602,18 @@
         <v>659</v>
       </c>
       <c r="D917" s="13" t="s">
-        <v>933</v>
+        <v>3138</v>
       </c>
       <c r="E917" s="13" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F917" s="16">
-        <v>4009919037</v>
+        <v>3139</v>
+      </c>
+      <c r="F917" s="14" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A918" s="11" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B918" s="12" t="s">
         <v>6</v>
@@ -29623,18 +29622,18 @@
         <v>659</v>
       </c>
       <c r="D918" s="13" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E918" s="13" t="s">
         <v>3143</v>
       </c>
-      <c r="E918" s="13" t="s">
+      <c r="F918" s="14" t="s">
         <v>3144</v>
-      </c>
-      <c r="F918" s="14" t="s">
-        <v>3145</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A919" s="11" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B919" s="12" t="s">
         <v>6</v>
@@ -29643,18 +29642,18 @@
         <v>659</v>
       </c>
       <c r="D919" s="13" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E919" s="13" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F919" s="14" t="s">
         <v>3147</v>
-      </c>
-      <c r="E919" s="13" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F919" s="14" t="s">
-        <v>3149</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A920" s="11" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="B920" s="12" t="s">
         <v>6</v>
@@ -29663,18 +29662,18 @@
         <v>659</v>
       </c>
       <c r="D920" s="13" t="s">
-        <v>3147</v>
+        <v>933</v>
       </c>
       <c r="E920" s="13" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A921" s="11" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="B921" s="12" t="s">
         <v>6</v>
@@ -29683,18 +29682,18 @@
         <v>659</v>
       </c>
       <c r="D921" s="13" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E921" s="13" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="F921" s="14" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A922" s="11" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="B922" s="12" t="s">
         <v>6</v>
@@ -29703,18 +29702,18 @@
         <v>659</v>
       </c>
       <c r="D922" s="13" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E922" s="13" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A923" s="11" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="B923" s="12" t="s">
         <v>6</v>
@@ -29723,18 +29722,18 @@
         <v>659</v>
       </c>
       <c r="D923" s="13" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E923" s="13" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="F923" s="14" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A924" s="11" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="B924" s="12" t="s">
         <v>6</v>
@@ -29746,138 +29745,138 @@
         <v>940</v>
       </c>
       <c r="E924" s="13" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A925" s="11" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B925" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C925" s="13" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D925" s="13" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E925" s="13" t="s">
         <v>3165</v>
       </c>
-      <c r="B925" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C925" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="D925" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="E925" s="13" t="s">
+      <c r="F925" s="14" t="s">
         <v>3166</v>
-      </c>
-      <c r="F925" s="14" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A926" s="11" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B926" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C926" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="D926" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="E926" s="13" t="s">
-        <v>3170</v>
-      </c>
-      <c r="F926" s="14" t="s">
-        <v>3171</v>
-      </c>
+        <v>3168</v>
+      </c>
+      <c r="F926" s="15"/>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A927" s="11" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="B927" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C927" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="D927" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="E927" s="13" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="F927" s="15"/>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A928" s="11" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="B928" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C928" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="D928" s="13" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="E928" s="13" t="s">
-        <v>3175</v>
-      </c>
-      <c r="F928" s="15"/>
+        <v>3172</v>
+      </c>
+      <c r="F928" s="14" t="s">
+        <v>3173</v>
+      </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A929" s="11" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B929" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C929" s="13" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D929" s="13" t="s">
         <v>3176</v>
-      </c>
-      <c r="B929" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C929" s="13" t="s">
-        <v>3169</v>
-      </c>
-      <c r="D929" s="13" t="s">
-        <v>3169</v>
       </c>
       <c r="E929" s="13" t="s">
         <v>3177</v>
       </c>
-      <c r="F929" s="14" t="s">
-        <v>3178</v>
-      </c>
+      <c r="F929" s="15"/>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A930" s="11" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B930" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C930" s="13" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D930" s="13" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E930" s="13" t="s">
+        <v>3179</v>
+      </c>
+      <c r="F930" s="14" t="s">
         <v>3180</v>
       </c>
-      <c r="D930" s="13" t="s">
-        <v>3181</v>
-      </c>
-      <c r="E930" s="13" t="s">
-        <v>3182</v>
-      </c>
-      <c r="F930" s="15"/>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A931" s="11" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B931" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C931" s="13" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D931" s="13" t="s">
         <v>3183</v>
-      </c>
-      <c r="B931" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C931" s="13" t="s">
-        <v>3180</v>
-      </c>
-      <c r="D931" s="13" t="s">
-        <v>3181</v>
       </c>
       <c r="E931" s="13" t="s">
         <v>3184</v>
@@ -29894,70 +29893,70 @@
         <v>469</v>
       </c>
       <c r="C932" s="13" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D932" s="13" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E932" s="13" t="s">
         <v>3187</v>
       </c>
-      <c r="D932" s="13" t="s">
+      <c r="F932" s="14" t="s">
         <v>3188</v>
-      </c>
-      <c r="E932" s="13" t="s">
-        <v>3189</v>
-      </c>
-      <c r="F932" s="14" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A933" s="11" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="B933" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C933" s="13" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="D933" s="13" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="E933" s="13" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A934" s="11" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B934" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C934" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D934" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E934" s="13" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F934" s="14" t="s">
         <v>3194</v>
-      </c>
-      <c r="B934" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C934" s="13" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D934" s="13" t="s">
-        <v>3188</v>
-      </c>
-      <c r="E934" s="13" t="s">
-        <v>3195</v>
-      </c>
-      <c r="F934" s="14" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A935" s="11" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B935" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C935" s="13" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D935" s="13" t="s">
         <v>3197</v>
-      </c>
-      <c r="B935" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C935" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D935" s="13" t="s">
-        <v>1295</v>
       </c>
       <c r="E935" s="13" t="s">
         <v>3198</v>
@@ -29971,7 +29970,7 @@
         <v>3200</v>
       </c>
       <c r="B936" s="12" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C936" s="13" t="s">
         <v>3201</v>
@@ -29994,96 +29993,76 @@
         <v>230</v>
       </c>
       <c r="C937" s="13" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D937" s="13" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E937" s="13" t="s">
         <v>3206</v>
       </c>
-      <c r="D937" s="13" t="s">
+      <c r="F937" s="14" t="s">
         <v>3207</v>
-      </c>
-      <c r="E937" s="13" t="s">
-        <v>3208</v>
-      </c>
-      <c r="F937" s="14" t="s">
-        <v>3209</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A938" s="11" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="B938" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C938" s="13" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="D938" s="13" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="E938" s="13" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="F938" s="14" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A939" s="11" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B939" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C939" s="13" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D939" s="13" t="s">
         <v>3213</v>
-      </c>
-      <c r="B939" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C939" s="13" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D939" s="13" t="s">
-        <v>3207</v>
       </c>
       <c r="E939" s="13" t="s">
         <v>3214</v>
       </c>
-      <c r="F939" s="14" t="s">
-        <v>3215</v>
+      <c r="F939" s="16">
+        <v>4000852829</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A940" s="11" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B940" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C940" s="13" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D940" s="13" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E940" s="13" t="s">
         <v>3217</v>
       </c>
-      <c r="D940" s="13" t="s">
+      <c r="F940" s="14" t="s">
         <v>3218</v>
-      </c>
-      <c r="E940" s="13" t="s">
-        <v>3219</v>
-      </c>
-      <c r="F940" s="16">
-        <v>4000852829</v>
-      </c>
-    </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A941" s="11" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B941" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C941" s="13" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D941" s="13" t="s">
-        <v>3221</v>
-      </c>
-      <c r="E941" s="13" t="s">
-        <v>3222</v>
-      </c>
-      <c r="F941" s="14" t="s">
-        <v>3223</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/hospital.xlsx
+++ b/assets/data/hospital.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="3230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="3227">
   <si>
     <t>安顺阳光妇科医院</t>
   </si>
@@ -9715,18 +9715,6 @@
   </si>
   <si>
     <t>数据来源: https://putianxi.github.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐汇区石龙路269号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海沪申五官科医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>021-54305338;021-62119666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11189,10 +11177,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP940"/>
+  <dimension ref="A1:IP939"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A632" sqref="A632"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A621" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632:XFD632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.6640625" defaultRowHeight="24" x14ac:dyDescent="0.15"/>
@@ -23953,7 +23941,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632" s="11" t="s">
-        <v>3228</v>
+        <v>2214</v>
       </c>
       <c r="B632" s="12" t="s">
         <v>1383</v>
@@ -23962,18 +23950,18 @@
         <v>1383</v>
       </c>
       <c r="D632" s="13" t="s">
-        <v>2090</v>
+        <v>2144</v>
       </c>
       <c r="E632" s="13" t="s">
-        <v>3227</v>
-      </c>
-      <c r="F632" s="15" t="s">
-        <v>3229</v>
+        <v>2215</v>
+      </c>
+      <c r="F632" s="14" t="s">
+        <v>2216</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633" s="11" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B633" s="12" t="s">
         <v>1383</v>
@@ -23985,15 +23973,15 @@
         <v>2144</v>
       </c>
       <c r="E633" s="13" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="F633" s="14" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634" s="11" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="B634" s="12" t="s">
         <v>1383</v>
@@ -24005,15 +23993,15 @@
         <v>2144</v>
       </c>
       <c r="E634" s="13" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="F634" s="14" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635" s="11" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="B635" s="12" t="s">
         <v>1383</v>
@@ -24025,15 +24013,15 @@
         <v>2144</v>
       </c>
       <c r="E635" s="13" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="F635" s="14" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636" s="11" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="B636" s="12" t="s">
         <v>1383</v>
@@ -24042,18 +24030,18 @@
         <v>1383</v>
       </c>
       <c r="D636" s="13" t="s">
-        <v>2144</v>
+        <v>2121</v>
       </c>
       <c r="E636" s="13" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="F636" s="14" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637" s="11" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B637" s="12" t="s">
         <v>1383</v>
@@ -24062,18 +24050,18 @@
         <v>1383</v>
       </c>
       <c r="D637" s="13" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="E637" s="13" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="F637" s="14" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638" s="11" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="B638" s="12" t="s">
         <v>1383</v>
@@ -24082,18 +24070,16 @@
         <v>1383</v>
       </c>
       <c r="D638" s="13" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="E638" s="13" t="s">
-        <v>2230</v>
-      </c>
-      <c r="F638" s="14" t="s">
-        <v>2231</v>
-      </c>
+        <v>2233</v>
+      </c>
+      <c r="F638" s="15"/>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639" s="11" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="B639" s="12" t="s">
         <v>1383</v>
@@ -24102,16 +24088,18 @@
         <v>1383</v>
       </c>
       <c r="D639" s="13" t="s">
-        <v>2109</v>
+        <v>2090</v>
       </c>
       <c r="E639" s="13" t="s">
-        <v>2233</v>
-      </c>
-      <c r="F639" s="15"/>
+        <v>2235</v>
+      </c>
+      <c r="F639" s="14" t="s">
+        <v>2236</v>
+      </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640" s="11" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="B640" s="12" t="s">
         <v>1383</v>
@@ -24120,18 +24108,18 @@
         <v>1383</v>
       </c>
       <c r="D640" s="13" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="E640" s="13" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="F640" s="14" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641" s="11" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="B641" s="12" t="s">
         <v>1383</v>
@@ -24140,18 +24128,18 @@
         <v>1383</v>
       </c>
       <c r="D641" s="13" t="s">
-        <v>2082</v>
+        <v>1384</v>
       </c>
       <c r="E641" s="13" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="F641" s="14" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642" s="11" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="B642" s="12" t="s">
         <v>1383</v>
@@ -24160,18 +24148,18 @@
         <v>1383</v>
       </c>
       <c r="D642" s="13" t="s">
-        <v>1384</v>
+        <v>2144</v>
       </c>
       <c r="E642" s="13" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="F642" s="14" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643" s="11" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="B643" s="12" t="s">
         <v>1383</v>
@@ -24180,18 +24168,18 @@
         <v>1383</v>
       </c>
       <c r="D643" s="13" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="E643" s="13" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="F643" s="14" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644" s="11" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="B644" s="12" t="s">
         <v>1383</v>
@@ -24200,18 +24188,16 @@
         <v>1383</v>
       </c>
       <c r="D644" s="13" t="s">
-        <v>2137</v>
+        <v>2090</v>
       </c>
       <c r="E644" s="13" t="s">
-        <v>2247</v>
-      </c>
-      <c r="F644" s="14" t="s">
-        <v>2248</v>
-      </c>
+        <v>2250</v>
+      </c>
+      <c r="F644" s="15"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645" s="11" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="B645" s="12" t="s">
         <v>1383</v>
@@ -24220,16 +24206,18 @@
         <v>1383</v>
       </c>
       <c r="D645" s="13" t="s">
-        <v>2090</v>
+        <v>2179</v>
       </c>
       <c r="E645" s="13" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F645" s="15"/>
+        <v>2252</v>
+      </c>
+      <c r="F645" s="14" t="s">
+        <v>2253</v>
+      </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646" s="11" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B646" s="12" t="s">
         <v>1383</v>
@@ -24238,18 +24226,18 @@
         <v>1383</v>
       </c>
       <c r="D646" s="13" t="s">
-        <v>2179</v>
+        <v>2082</v>
       </c>
       <c r="E646" s="13" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="F646" s="14" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647" s="11" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B647" s="12" t="s">
         <v>1383</v>
@@ -24261,15 +24249,15 @@
         <v>2082</v>
       </c>
       <c r="E647" s="13" t="s">
-        <v>2255</v>
+        <v>2192</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648" s="11" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="B648" s="12" t="s">
         <v>1383</v>
@@ -24278,38 +24266,38 @@
         <v>1383</v>
       </c>
       <c r="D648" s="13" t="s">
-        <v>2082</v>
+        <v>2154</v>
       </c>
       <c r="E648" s="13" t="s">
-        <v>2192</v>
+        <v>2260</v>
       </c>
       <c r="F648" s="14" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649" s="11" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>1383</v>
+        <v>642</v>
       </c>
       <c r="C649" s="13" t="s">
-        <v>1383</v>
+        <v>2263</v>
       </c>
       <c r="D649" s="13" t="s">
-        <v>2154</v>
+        <v>2264</v>
       </c>
       <c r="E649" s="13" t="s">
-        <v>2260</v>
+        <v>2265</v>
       </c>
       <c r="F649" s="14" t="s">
-        <v>2261</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650" s="11" t="s">
-        <v>2262</v>
+        <v>2267</v>
       </c>
       <c r="B650" s="12" t="s">
         <v>642</v>
@@ -24321,35 +24309,35 @@
         <v>2264</v>
       </c>
       <c r="E650" s="13" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F650" s="14" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651" s="11" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>642</v>
+        <v>469</v>
       </c>
       <c r="C651" s="13" t="s">
-        <v>2263</v>
+        <v>2271</v>
       </c>
       <c r="D651" s="13" t="s">
-        <v>2264</v>
+        <v>2272</v>
       </c>
       <c r="E651" s="13" t="s">
-        <v>2268</v>
+        <v>2273</v>
       </c>
       <c r="F651" s="14" t="s">
-        <v>2269</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652" s="11" t="s">
-        <v>2270</v>
+        <v>2275</v>
       </c>
       <c r="B652" s="12" t="s">
         <v>469</v>
@@ -24358,18 +24346,16 @@
         <v>2271</v>
       </c>
       <c r="D652" s="13" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="E652" s="13" t="s">
-        <v>2273</v>
-      </c>
-      <c r="F652" s="14" t="s">
-        <v>2274</v>
-      </c>
+        <v>2277</v>
+      </c>
+      <c r="F652" s="15"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653" s="11" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B653" s="12" t="s">
         <v>469</v>
@@ -24378,16 +24364,18 @@
         <v>2271</v>
       </c>
       <c r="D653" s="13" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="E653" s="13" t="s">
-        <v>2277</v>
-      </c>
-      <c r="F653" s="15"/>
+        <v>2280</v>
+      </c>
+      <c r="F653" s="14" t="s">
+        <v>2281</v>
+      </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654" s="11" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="B654" s="12" t="s">
         <v>469</v>
@@ -24396,18 +24384,16 @@
         <v>2271</v>
       </c>
       <c r="D654" s="13" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="E654" s="13" t="s">
-        <v>2280</v>
-      </c>
-      <c r="F654" s="14" t="s">
-        <v>2281</v>
-      </c>
+        <v>2283</v>
+      </c>
+      <c r="F654" s="15"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655" s="11" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="B655" s="12" t="s">
         <v>469</v>
@@ -24416,16 +24402,18 @@
         <v>2271</v>
       </c>
       <c r="D655" s="13" t="s">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="E655" s="13" t="s">
-        <v>2283</v>
-      </c>
-      <c r="F655" s="15"/>
+        <v>2286</v>
+      </c>
+      <c r="F655" s="14" t="s">
+        <v>2287</v>
+      </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656" s="11" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="B656" s="12" t="s">
         <v>469</v>
@@ -24434,18 +24422,18 @@
         <v>2271</v>
       </c>
       <c r="D656" s="13" t="s">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="E656" s="13" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="F656" s="14" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="B657" s="12" t="s">
         <v>469</v>
@@ -24454,18 +24442,18 @@
         <v>2271</v>
       </c>
       <c r="D657" s="13" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="E657" s="13" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="F657" s="14" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658" s="11" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="B658" s="12" t="s">
         <v>469</v>
@@ -24474,18 +24462,18 @@
         <v>2271</v>
       </c>
       <c r="D658" s="13" t="s">
-        <v>2272</v>
+        <v>2295</v>
       </c>
       <c r="E658" s="13" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="F658" s="14" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659" s="11" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="B659" s="12" t="s">
         <v>469</v>
@@ -24494,18 +24482,18 @@
         <v>2271</v>
       </c>
       <c r="D659" s="13" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="E659" s="13" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="F659" s="14" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660" s="11" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="B660" s="12" t="s">
         <v>469</v>
@@ -24514,18 +24502,16 @@
         <v>2271</v>
       </c>
       <c r="D660" s="13" t="s">
-        <v>2285</v>
+        <v>2295</v>
       </c>
       <c r="E660" s="13" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F660" s="14" t="s">
-        <v>2300</v>
-      </c>
+        <v>2302</v>
+      </c>
+      <c r="F660" s="15"/>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661" s="11" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="B661" s="12" t="s">
         <v>469</v>
@@ -24534,16 +24520,18 @@
         <v>2271</v>
       </c>
       <c r="D661" s="13" t="s">
-        <v>2295</v>
+        <v>2276</v>
       </c>
       <c r="E661" s="13" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F661" s="15"/>
+        <v>2304</v>
+      </c>
+      <c r="F661" s="14" t="s">
+        <v>2305</v>
+      </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662" s="11" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="B662" s="12" t="s">
         <v>469</v>
@@ -24552,18 +24540,18 @@
         <v>2271</v>
       </c>
       <c r="D662" s="13" t="s">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="E662" s="13" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="F662" s="14" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663" s="11" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="B663" s="12" t="s">
         <v>469</v>
@@ -24572,18 +24560,18 @@
         <v>2271</v>
       </c>
       <c r="D663" s="13" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="E663" s="13" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="F663" s="14" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664" s="11" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="B664" s="12" t="s">
         <v>469</v>
@@ -24592,18 +24580,18 @@
         <v>2271</v>
       </c>
       <c r="D664" s="13" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="E664" s="13" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="F664" s="14" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665" s="11" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="B665" s="12" t="s">
         <v>469</v>
@@ -24612,18 +24600,18 @@
         <v>2271</v>
       </c>
       <c r="D665" s="13" t="s">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="E665" s="13" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="F665" s="14" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666" s="11" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="B666" s="12" t="s">
         <v>469</v>
@@ -24632,18 +24620,18 @@
         <v>2271</v>
       </c>
       <c r="D666" s="13" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="E666" s="13" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="F666" s="14" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667" s="11" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="B667" s="12" t="s">
         <v>469</v>
@@ -24655,15 +24643,15 @@
         <v>2279</v>
       </c>
       <c r="E667" s="13" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="F667" s="14" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668" s="11" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="B668" s="12" t="s">
         <v>469</v>
@@ -24672,18 +24660,18 @@
         <v>2271</v>
       </c>
       <c r="D668" s="13" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="E668" s="13" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="F668" s="14" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669" s="11" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="B669" s="12" t="s">
         <v>469</v>
@@ -24695,15 +24683,15 @@
         <v>2272</v>
       </c>
       <c r="E669" s="13" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="F669" s="14" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670" s="11" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="B670" s="12" t="s">
         <v>469</v>
@@ -24712,18 +24700,18 @@
         <v>2271</v>
       </c>
       <c r="D670" s="13" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="E670" s="13" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="F670" s="14" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671" s="11" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="B671" s="12" t="s">
         <v>469</v>
@@ -24732,18 +24720,18 @@
         <v>2271</v>
       </c>
       <c r="D671" s="13" t="s">
-        <v>2276</v>
+        <v>2295</v>
       </c>
       <c r="E671" s="13" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672" s="11" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B672" s="12" t="s">
         <v>469</v>
@@ -24752,18 +24740,18 @@
         <v>2271</v>
       </c>
       <c r="D672" s="13" t="s">
-        <v>2295</v>
+        <v>2272</v>
       </c>
       <c r="E672" s="13" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="F672" s="14" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673" s="11" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="B673" s="12" t="s">
         <v>469</v>
@@ -24772,18 +24760,18 @@
         <v>2271</v>
       </c>
       <c r="D673" s="13" t="s">
-        <v>2272</v>
+        <v>2285</v>
       </c>
       <c r="E673" s="13" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="F673" s="14" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674" s="11" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B674" s="12" t="s">
         <v>469</v>
@@ -24792,18 +24780,18 @@
         <v>2271</v>
       </c>
       <c r="D674" s="13" t="s">
-        <v>2285</v>
+        <v>2272</v>
       </c>
       <c r="E674" s="13" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675" s="11" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="B675" s="12" t="s">
         <v>469</v>
@@ -24815,15 +24803,15 @@
         <v>2272</v>
       </c>
       <c r="E675" s="13" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="F675" s="14" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676" s="11" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="B676" s="12" t="s">
         <v>469</v>
@@ -24835,15 +24823,15 @@
         <v>2272</v>
       </c>
       <c r="E676" s="13" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="F676" s="14" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677" s="11" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="B677" s="12" t="s">
         <v>469</v>
@@ -24855,15 +24843,15 @@
         <v>2272</v>
       </c>
       <c r="E677" s="13" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="F677" s="14" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678" s="11" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B678" s="12" t="s">
         <v>469</v>
@@ -24872,38 +24860,38 @@
         <v>2271</v>
       </c>
       <c r="D678" s="13" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="E678" s="13" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="F678" s="14" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679" s="11" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C679" s="13" t="s">
-        <v>2271</v>
+        <v>1414</v>
       </c>
       <c r="D679" s="13" t="s">
-        <v>2276</v>
+        <v>1592</v>
       </c>
       <c r="E679" s="13" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="F679" s="14" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680" s="11" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="B680" s="12" t="s">
         <v>437</v>
@@ -24912,18 +24900,18 @@
         <v>1414</v>
       </c>
       <c r="D680" s="13" t="s">
-        <v>1592</v>
+        <v>2361</v>
       </c>
       <c r="E680" s="13" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="F680" s="14" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681" s="11" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="B681" s="12" t="s">
         <v>437</v>
@@ -24935,35 +24923,35 @@
         <v>2361</v>
       </c>
       <c r="E681" s="13" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="F681" s="14" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682" s="11" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="B682" s="12" t="s">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="C682" s="13" t="s">
-        <v>1414</v>
+        <v>2368</v>
       </c>
       <c r="D682" s="13" t="s">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="E682" s="13" t="s">
-        <v>2365</v>
+        <v>2370</v>
       </c>
       <c r="F682" s="14" t="s">
-        <v>2366</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683" s="11" t="s">
-        <v>2367</v>
+        <v>2372</v>
       </c>
       <c r="B683" s="12" t="s">
         <v>44</v>
@@ -24975,15 +24963,15 @@
         <v>2369</v>
       </c>
       <c r="E683" s="13" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="F683" s="14" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684" s="11" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="B684" s="12" t="s">
         <v>44</v>
@@ -24995,15 +24983,15 @@
         <v>2369</v>
       </c>
       <c r="E684" s="13" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="F684" s="14" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685" s="11" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="B685" s="12" t="s">
         <v>44</v>
@@ -25012,56 +25000,56 @@
         <v>2368</v>
       </c>
       <c r="D685" s="13" t="s">
-        <v>2369</v>
+        <v>2379</v>
       </c>
       <c r="E685" s="13" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="F685" s="14" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686" s="11" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="B686" s="12" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="C686" s="13" t="s">
-        <v>2368</v>
+        <v>1691</v>
       </c>
       <c r="D686" s="13" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="E686" s="13" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F686" s="14" t="s">
-        <v>2381</v>
-      </c>
+        <v>2384</v>
+      </c>
+      <c r="F686" s="15"/>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687" s="11" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>216</v>
+        <v>469</v>
       </c>
       <c r="C687" s="13" t="s">
-        <v>1691</v>
+        <v>528</v>
       </c>
       <c r="D687" s="13" t="s">
-        <v>2383</v>
+        <v>536</v>
       </c>
       <c r="E687" s="13" t="s">
-        <v>2384</v>
-      </c>
-      <c r="F687" s="15"/>
+        <v>2386</v>
+      </c>
+      <c r="F687" s="14" t="s">
+        <v>2387</v>
+      </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688" s="11" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="B688" s="12" t="s">
         <v>469</v>
@@ -25073,15 +25061,15 @@
         <v>536</v>
       </c>
       <c r="E688" s="13" t="s">
-        <v>2386</v>
-      </c>
-      <c r="F688" s="14" t="s">
-        <v>2387</v>
+        <v>2389</v>
+      </c>
+      <c r="F688" s="16">
+        <v>4008728120</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689" s="11" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="B689" s="12" t="s">
         <v>469</v>
@@ -25093,15 +25081,15 @@
         <v>536</v>
       </c>
       <c r="E689" s="13" t="s">
-        <v>2389</v>
-      </c>
-      <c r="F689" s="16">
-        <v>4008728120</v>
+        <v>2391</v>
+      </c>
+      <c r="F689" s="14" t="s">
+        <v>2392</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690" s="11" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="B690" s="12" t="s">
         <v>469</v>
@@ -25113,15 +25101,15 @@
         <v>536</v>
       </c>
       <c r="E690" s="13" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="F690" s="14" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691" s="11" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="B691" s="12" t="s">
         <v>469</v>
@@ -25141,7 +25129,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692" s="11" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B692" s="12" t="s">
         <v>469</v>
@@ -25153,15 +25141,15 @@
         <v>536</v>
       </c>
       <c r="E692" s="13" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="F692" s="14" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693" s="11" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="B693" s="12" t="s">
         <v>469</v>
@@ -25173,55 +25161,53 @@
         <v>536</v>
       </c>
       <c r="E693" s="13" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
       <c r="F693" s="14" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694" s="11" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="B694" s="12" t="s">
-        <v>469</v>
+        <v>258</v>
       </c>
       <c r="C694" s="13" t="s">
-        <v>528</v>
+        <v>259</v>
       </c>
       <c r="D694" s="13" t="s">
-        <v>536</v>
+        <v>260</v>
       </c>
       <c r="E694" s="13" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="F694" s="14" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695" s="11" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="B695" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C695" s="13" t="s">
-        <v>259</v>
+        <v>2405</v>
       </c>
       <c r="D695" s="13" t="s">
-        <v>260</v>
+        <v>2406</v>
       </c>
       <c r="E695" s="13" t="s">
-        <v>2402</v>
-      </c>
-      <c r="F695" s="14" t="s">
-        <v>2403</v>
-      </c>
+        <v>2407</v>
+      </c>
+      <c r="F695" s="15"/>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696" s="11" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="B696" s="12" t="s">
         <v>258</v>
@@ -25233,111 +25219,113 @@
         <v>2406</v>
       </c>
       <c r="E696" s="13" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F696" s="15"/>
+        <v>2409</v>
+      </c>
+      <c r="F696" s="14" t="s">
+        <v>2410</v>
+      </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697" s="11" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="B697" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C697" s="13" t="s">
-        <v>2405</v>
+        <v>259</v>
       </c>
       <c r="D697" s="13" t="s">
-        <v>2406</v>
+        <v>305</v>
       </c>
       <c r="E697" s="13" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="F697" s="14" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698" s="11" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="B698" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C698" s="13" t="s">
-        <v>259</v>
+        <v>2405</v>
       </c>
       <c r="D698" s="13" t="s">
-        <v>305</v>
+        <v>2406</v>
       </c>
       <c r="E698" s="13" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="F698" s="14" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699" s="11" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>258</v>
+        <v>654</v>
       </c>
       <c r="C699" s="13" t="s">
-        <v>2405</v>
+        <v>655</v>
       </c>
       <c r="D699" s="13" t="s">
-        <v>2406</v>
+        <v>656</v>
       </c>
       <c r="E699" s="13" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="F699" s="14" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700" s="11" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B700" s="12" t="s">
-        <v>654</v>
+        <v>236</v>
       </c>
       <c r="C700" s="13" t="s">
-        <v>655</v>
+        <v>2421</v>
       </c>
       <c r="D700" s="13" t="s">
-        <v>656</v>
+        <v>2422</v>
       </c>
       <c r="E700" s="13" t="s">
-        <v>2418</v>
-      </c>
-      <c r="F700" s="14" t="s">
-        <v>2419</v>
-      </c>
+        <v>2423</v>
+      </c>
+      <c r="F700" s="15"/>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701" s="11" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="B701" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C701" s="13" t="s">
-        <v>2421</v>
+        <v>237</v>
       </c>
       <c r="D701" s="13" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="E701" s="13" t="s">
-        <v>2423</v>
-      </c>
-      <c r="F701" s="15"/>
+        <v>2426</v>
+      </c>
+      <c r="F701" s="14" t="s">
+        <v>2427</v>
+      </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702" s="11" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="B702" s="12" t="s">
         <v>236</v>
@@ -25349,15 +25337,15 @@
         <v>2425</v>
       </c>
       <c r="E702" s="13" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="F702" s="14" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703" s="11" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="B703" s="12" t="s">
         <v>236</v>
@@ -25366,18 +25354,16 @@
         <v>237</v>
       </c>
       <c r="D703" s="13" t="s">
-        <v>2425</v>
+        <v>2432</v>
       </c>
       <c r="E703" s="13" t="s">
-        <v>2429</v>
-      </c>
-      <c r="F703" s="14" t="s">
-        <v>2430</v>
-      </c>
+        <v>2433</v>
+      </c>
+      <c r="F703" s="15"/>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704" s="11" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="B704" s="12" t="s">
         <v>236</v>
@@ -25386,16 +25372,18 @@
         <v>237</v>
       </c>
       <c r="D704" s="13" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
       <c r="E704" s="13" t="s">
-        <v>2433</v>
-      </c>
-      <c r="F704" s="15"/>
+        <v>2435</v>
+      </c>
+      <c r="F704" s="14" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705" s="11" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="B705" s="12" t="s">
         <v>236</v>
@@ -25404,18 +25392,18 @@
         <v>237</v>
       </c>
       <c r="D705" s="13" t="s">
-        <v>2425</v>
+        <v>2438</v>
       </c>
       <c r="E705" s="13" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="F705" s="14" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706" s="11" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="B706" s="12" t="s">
         <v>236</v>
@@ -25424,18 +25412,18 @@
         <v>237</v>
       </c>
       <c r="D706" s="13" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="E706" s="13" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="F706" s="14" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707" s="11" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="B707" s="12" t="s">
         <v>236</v>
@@ -25444,18 +25432,18 @@
         <v>237</v>
       </c>
       <c r="D707" s="13" t="s">
-        <v>2442</v>
+        <v>2425</v>
       </c>
       <c r="E707" s="13" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="F707" s="14" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708" s="11" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="B708" s="12" t="s">
         <v>236</v>
@@ -25467,15 +25455,15 @@
         <v>2425</v>
       </c>
       <c r="E708" s="13" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="F708" s="14" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709" s="11" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="B709" s="12" t="s">
         <v>236</v>
@@ -25484,78 +25472,78 @@
         <v>237</v>
       </c>
       <c r="D709" s="13" t="s">
-        <v>2425</v>
+        <v>2452</v>
       </c>
       <c r="E709" s="13" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F709" s="14" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710" s="11" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="B710" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C710" s="13" t="s">
-        <v>237</v>
+        <v>2421</v>
       </c>
       <c r="D710" s="13" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="E710" s="13" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="F710" s="14" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711" s="11" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C711" s="13" t="s">
-        <v>2421</v>
+        <v>2460</v>
       </c>
       <c r="D711" s="13" t="s">
-        <v>2456</v>
+        <v>2461</v>
       </c>
       <c r="E711" s="13" t="s">
-        <v>2457</v>
+        <v>2462</v>
       </c>
       <c r="F711" s="14" t="s">
-        <v>2458</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712" s="11" t="s">
-        <v>2459</v>
+        <v>2464</v>
       </c>
       <c r="B712" s="12" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="C712" s="13" t="s">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="D712" s="13" t="s">
-        <v>2461</v>
+        <v>2466</v>
       </c>
       <c r="E712" s="13" t="s">
-        <v>2462</v>
+        <v>2467</v>
       </c>
       <c r="F712" s="14" t="s">
-        <v>2463</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713" s="11" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>420</v>
@@ -25567,35 +25555,35 @@
         <v>2466</v>
       </c>
       <c r="E713" s="13" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="F713" s="14" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714" s="11" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="B714" s="12" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C714" s="13" t="s">
-        <v>2465</v>
+        <v>1343</v>
       </c>
       <c r="D714" s="13" t="s">
-        <v>2466</v>
+        <v>2047</v>
       </c>
       <c r="E714" s="13" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="F714" s="14" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715" s="11" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>451</v>
@@ -25604,18 +25592,18 @@
         <v>1343</v>
       </c>
       <c r="D715" s="13" t="s">
-        <v>2047</v>
+        <v>1344</v>
       </c>
       <c r="E715" s="13" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="F715" s="14" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716" s="11" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>451</v>
@@ -25624,18 +25612,18 @@
         <v>1343</v>
       </c>
       <c r="D716" s="13" t="s">
-        <v>1344</v>
+        <v>2047</v>
       </c>
       <c r="E716" s="13" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="F716" s="14" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717" s="11" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>451</v>
@@ -25647,15 +25635,15 @@
         <v>2047</v>
       </c>
       <c r="E717" s="13" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="F717" s="14" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718" s="11" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="B718" s="12" t="s">
         <v>451</v>
@@ -25664,18 +25652,18 @@
         <v>1343</v>
       </c>
       <c r="D718" s="13" t="s">
-        <v>2047</v>
+        <v>1344</v>
       </c>
       <c r="E718" s="13" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="F718" s="14" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719" s="11" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="B719" s="12" t="s">
         <v>451</v>
@@ -25684,38 +25672,38 @@
         <v>1343</v>
       </c>
       <c r="D719" s="13" t="s">
-        <v>1344</v>
+        <v>2047</v>
       </c>
       <c r="E719" s="13" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="F719" s="14" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720" s="11" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="B720" s="12" t="s">
-        <v>451</v>
+        <v>236</v>
       </c>
       <c r="C720" s="13" t="s">
-        <v>1343</v>
+        <v>457</v>
       </c>
       <c r="D720" s="13" t="s">
-        <v>2047</v>
+        <v>2491</v>
       </c>
       <c r="E720" s="13" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="F720" s="14" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721" s="11" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="B721" s="12" t="s">
         <v>236</v>
@@ -25727,15 +25715,15 @@
         <v>2491</v>
       </c>
       <c r="E721" s="13" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="F721" s="14" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722" s="11" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="B722" s="12" t="s">
         <v>236</v>
@@ -25747,35 +25735,35 @@
         <v>2491</v>
       </c>
       <c r="E722" s="13" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="F722" s="14" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723" s="11" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="C723" s="13" t="s">
-        <v>457</v>
+        <v>2501</v>
       </c>
       <c r="D723" s="13" t="s">
-        <v>2491</v>
+        <v>2502</v>
       </c>
       <c r="E723" s="13" t="s">
-        <v>2498</v>
+        <v>2503</v>
       </c>
       <c r="F723" s="14" t="s">
-        <v>2499</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724" s="11" t="s">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="B724" s="12" t="s">
         <v>44</v>
@@ -25784,18 +25772,18 @@
         <v>2501</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="E724" s="13" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="F724" s="14" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725" s="11" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="B725" s="12" t="s">
         <v>44</v>
@@ -25804,18 +25792,18 @@
         <v>2501</v>
       </c>
       <c r="D725" s="13" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="E725" s="13" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="F725" s="14" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726" s="11" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="B726" s="12" t="s">
         <v>44</v>
@@ -25824,18 +25812,18 @@
         <v>2501</v>
       </c>
       <c r="D726" s="13" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="E726" s="13" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="F726" s="14" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727" s="11" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="B727" s="12" t="s">
         <v>44</v>
@@ -25847,15 +25835,15 @@
         <v>2502</v>
       </c>
       <c r="E727" s="13" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="F727" s="14" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728" s="11" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="B728" s="12" t="s">
         <v>44</v>
@@ -25864,18 +25852,16 @@
         <v>2501</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="E728" s="13" t="s">
-        <v>2517</v>
-      </c>
-      <c r="F728" s="14" t="s">
-        <v>2518</v>
-      </c>
+        <v>2510</v>
+      </c>
+      <c r="F728" s="15"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729" s="11" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B729" s="12" t="s">
         <v>44</v>
@@ -25884,16 +25870,18 @@
         <v>2501</v>
       </c>
       <c r="D729" s="13" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="E729" s="13" t="s">
-        <v>2510</v>
-      </c>
-      <c r="F729" s="15"/>
+        <v>2521</v>
+      </c>
+      <c r="F729" s="14" t="s">
+        <v>2522</v>
+      </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730" s="11" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="B730" s="12" t="s">
         <v>44</v>
@@ -25902,36 +25890,36 @@
         <v>2501</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="E730" s="13" t="s">
-        <v>2521</v>
-      </c>
-      <c r="F730" s="14" t="s">
-        <v>2522</v>
-      </c>
+        <v>2524</v>
+      </c>
+      <c r="F730" s="15"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731" s="11" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="C731" s="13" t="s">
-        <v>2501</v>
+        <v>432</v>
       </c>
       <c r="D731" s="13" t="s">
-        <v>2510</v>
+        <v>1419</v>
       </c>
       <c r="E731" s="13" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F731" s="15"/>
+        <v>2526</v>
+      </c>
+      <c r="F731" s="16">
+        <v>15922061177</v>
+      </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732" s="11" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B732" s="12" t="s">
         <v>432</v>
@@ -25940,18 +25928,18 @@
         <v>432</v>
       </c>
       <c r="D732" s="13" t="s">
-        <v>1419</v>
+        <v>2528</v>
       </c>
       <c r="E732" s="13" t="s">
-        <v>2526</v>
-      </c>
-      <c r="F732" s="16">
-        <v>15922061177</v>
+        <v>2529</v>
+      </c>
+      <c r="F732" s="14" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733" s="11" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="B733" s="12" t="s">
         <v>432</v>
@@ -25960,18 +25948,16 @@
         <v>432</v>
       </c>
       <c r="D733" s="13" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="E733" s="13" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F733" s="14" t="s">
-        <v>2530</v>
-      </c>
+        <v>2533</v>
+      </c>
+      <c r="F733" s="15"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734" s="11" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="B734" s="12" t="s">
         <v>432</v>
@@ -25980,16 +25966,18 @@
         <v>432</v>
       </c>
       <c r="D734" s="13" t="s">
-        <v>2532</v>
+        <v>1419</v>
       </c>
       <c r="E734" s="13" t="s">
-        <v>2533</v>
-      </c>
-      <c r="F734" s="15"/>
+        <v>2535</v>
+      </c>
+      <c r="F734" s="14" t="s">
+        <v>2536</v>
+      </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735" s="11" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B735" s="12" t="s">
         <v>432</v>
@@ -25998,18 +25986,18 @@
         <v>432</v>
       </c>
       <c r="D735" s="13" t="s">
-        <v>1419</v>
+        <v>2538</v>
       </c>
       <c r="E735" s="13" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="F735" s="14" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736" s="11" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="B736" s="12" t="s">
         <v>432</v>
@@ -26018,18 +26006,18 @@
         <v>432</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="E736" s="13" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="F736" s="14" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737" s="11" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="B737" s="12" t="s">
         <v>432</v>
@@ -26041,15 +26029,15 @@
         <v>2532</v>
       </c>
       <c r="E737" s="13" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="F737" s="14" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738" s="11" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="B738" s="12" t="s">
         <v>432</v>
@@ -26058,18 +26046,18 @@
         <v>432</v>
       </c>
       <c r="D738" s="13" t="s">
-        <v>2532</v>
+        <v>2548</v>
       </c>
       <c r="E738" s="13" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="F738" s="14" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739" s="11" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="B739" s="12" t="s">
         <v>432</v>
@@ -26078,18 +26066,18 @@
         <v>432</v>
       </c>
       <c r="D739" s="13" t="s">
-        <v>2548</v>
+        <v>2532</v>
       </c>
       <c r="E739" s="13" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="F739" s="14" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740" s="11" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="B740" s="12" t="s">
         <v>432</v>
@@ -26101,15 +26089,15 @@
         <v>2532</v>
       </c>
       <c r="E740" s="13" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="F740" s="14" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741" s="11" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="B741" s="12" t="s">
         <v>432</v>
@@ -26118,18 +26106,18 @@
         <v>432</v>
       </c>
       <c r="D741" s="13" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="E741" s="13" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="F741" s="14" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742" s="11" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="B742" s="12" t="s">
         <v>432</v>
@@ -26138,18 +26126,18 @@
         <v>432</v>
       </c>
       <c r="D742" s="13" t="s">
-        <v>2528</v>
+        <v>1419</v>
       </c>
       <c r="E742" s="13" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="F742" s="14" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743" s="11" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="B743" s="12" t="s">
         <v>432</v>
@@ -26158,18 +26146,18 @@
         <v>432</v>
       </c>
       <c r="D743" s="13" t="s">
-        <v>1419</v>
+        <v>2361</v>
       </c>
       <c r="E743" s="13" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="F743" s="14" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744" s="11" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="B744" s="12" t="s">
         <v>432</v>
@@ -26178,18 +26166,18 @@
         <v>432</v>
       </c>
       <c r="D744" s="13" t="s">
-        <v>2361</v>
+        <v>2532</v>
       </c>
       <c r="E744" s="13" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745" s="11" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="B745" s="12" t="s">
         <v>432</v>
@@ -26201,15 +26189,15 @@
         <v>2532</v>
       </c>
       <c r="E745" s="13" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="F745" s="14" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746" s="11" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="B746" s="12" t="s">
         <v>432</v>
@@ -26218,18 +26206,18 @@
         <v>432</v>
       </c>
       <c r="D746" s="13" t="s">
-        <v>2532</v>
+        <v>2573</v>
       </c>
       <c r="E746" s="13" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747" s="11" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="B747" s="12" t="s">
         <v>432</v>
@@ -26238,18 +26226,18 @@
         <v>432</v>
       </c>
       <c r="D747" s="13" t="s">
-        <v>2573</v>
+        <v>1335</v>
       </c>
       <c r="E747" s="13" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="F747" s="14" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748" s="11" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="B748" s="12" t="s">
         <v>432</v>
@@ -26258,18 +26246,18 @@
         <v>432</v>
       </c>
       <c r="D748" s="13" t="s">
-        <v>1335</v>
+        <v>1419</v>
       </c>
       <c r="E748" s="13" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749" s="11" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="B749" s="12" t="s">
         <v>432</v>
@@ -26289,7 +26277,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750" s="11" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B750" s="12" t="s">
         <v>432</v>
@@ -26298,38 +26286,38 @@
         <v>432</v>
       </c>
       <c r="D750" s="13" t="s">
-        <v>1419</v>
+        <v>1335</v>
       </c>
       <c r="E750" s="13" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751" s="11" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="B751" s="12" t="s">
-        <v>432</v>
+        <v>1543</v>
       </c>
       <c r="C751" s="13" t="s">
-        <v>432</v>
+        <v>2587</v>
       </c>
       <c r="D751" s="13" t="s">
-        <v>1335</v>
+        <v>2588</v>
       </c>
       <c r="E751" s="13" t="s">
-        <v>2584</v>
+        <v>2589</v>
       </c>
       <c r="F751" s="14" t="s">
-        <v>2585</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752" s="11" t="s">
-        <v>2586</v>
+        <v>2591</v>
       </c>
       <c r="B752" s="12" t="s">
         <v>1543</v>
@@ -26338,138 +26326,138 @@
         <v>2587</v>
       </c>
       <c r="D752" s="13" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="E752" s="13" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753" s="11" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="B753" s="12" t="s">
-        <v>1543</v>
+        <v>12</v>
       </c>
       <c r="C753" s="13" t="s">
-        <v>2587</v>
+        <v>2596</v>
       </c>
       <c r="D753" s="13" t="s">
-        <v>2592</v>
+        <v>2597</v>
       </c>
       <c r="E753" s="13" t="s">
-        <v>2593</v>
+        <v>2598</v>
       </c>
       <c r="F753" s="14" t="s">
-        <v>2594</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754" s="11" t="s">
-        <v>2595</v>
+        <v>2600</v>
       </c>
       <c r="B754" s="12" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="C754" s="13" t="s">
-        <v>2596</v>
+        <v>2601</v>
       </c>
       <c r="D754" s="13" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="E754" s="13" t="s">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>2599</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755" s="11" t="s">
-        <v>2600</v>
+        <v>2605</v>
       </c>
       <c r="B755" s="12" t="s">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="C755" s="13" t="s">
-        <v>2601</v>
+        <v>2606</v>
       </c>
       <c r="D755" s="13" t="s">
-        <v>2602</v>
+        <v>2607</v>
       </c>
       <c r="E755" s="13" t="s">
-        <v>2603</v>
+        <v>2608</v>
       </c>
       <c r="F755" s="14" t="s">
-        <v>2604</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756" s="11" t="s">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="B756" s="12" t="s">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="C756" s="13" t="s">
-        <v>2606</v>
+        <v>351</v>
       </c>
       <c r="D756" s="13" t="s">
-        <v>2607</v>
+        <v>395</v>
       </c>
       <c r="E756" s="13" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757" s="11" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="B757" s="12" t="s">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="C757" s="13" t="s">
-        <v>351</v>
+        <v>2614</v>
       </c>
       <c r="D757" s="13" t="s">
-        <v>395</v>
+        <v>2615</v>
       </c>
       <c r="E757" s="13" t="s">
-        <v>2611</v>
+        <v>2616</v>
       </c>
       <c r="F757" s="14" t="s">
-        <v>2612</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758" s="11" t="s">
-        <v>2613</v>
+        <v>2618</v>
       </c>
       <c r="B758" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C758" s="13" t="s">
-        <v>2614</v>
+        <v>231</v>
       </c>
       <c r="D758" s="13" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="E758" s="13" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759" s="11" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="B759" s="12" t="s">
         <v>230</v>
@@ -26481,35 +26469,35 @@
         <v>2619</v>
       </c>
       <c r="E759" s="13" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="F759" s="14" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760" s="11" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B760" s="12" t="s">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>231</v>
+        <v>2465</v>
       </c>
       <c r="D760" s="13" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="E760" s="13" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761" s="11" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="B761" s="12" t="s">
         <v>420</v>
@@ -26521,33 +26509,33 @@
         <v>2626</v>
       </c>
       <c r="E761" s="13" t="s">
-        <v>2627</v>
-      </c>
-      <c r="F761" s="14" t="s">
-        <v>2628</v>
-      </c>
+        <v>2630</v>
+      </c>
+      <c r="F761" s="15"/>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762" s="11" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B762" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>2465</v>
+        <v>1569</v>
       </c>
       <c r="D762" s="13" t="s">
-        <v>2626</v>
+        <v>2632</v>
       </c>
       <c r="E762" s="13" t="s">
-        <v>2630</v>
-      </c>
-      <c r="F762" s="15"/>
+        <v>2633</v>
+      </c>
+      <c r="F762" s="14" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763" s="11" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="B763" s="12" t="s">
         <v>420</v>
@@ -26556,18 +26544,18 @@
         <v>1569</v>
       </c>
       <c r="D763" s="13" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="E763" s="13" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="F763" s="14" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764" s="11" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="B764" s="12" t="s">
         <v>420</v>
@@ -26576,18 +26564,18 @@
         <v>1569</v>
       </c>
       <c r="D764" s="13" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="E764" s="13" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765" s="11" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="B765" s="12" t="s">
         <v>420</v>
@@ -26599,15 +26587,15 @@
         <v>2640</v>
       </c>
       <c r="E765" s="13" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="F765" s="14" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766" s="11" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="B766" s="12" t="s">
         <v>420</v>
@@ -26619,15 +26607,13 @@
         <v>2640</v>
       </c>
       <c r="E766" s="13" t="s">
-        <v>2644</v>
-      </c>
-      <c r="F766" s="14" t="s">
-        <v>2645</v>
-      </c>
+        <v>2647</v>
+      </c>
+      <c r="F766" s="15"/>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767" s="11" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="B767" s="12" t="s">
         <v>420</v>
@@ -26639,13 +26625,15 @@
         <v>2640</v>
       </c>
       <c r="E767" s="13" t="s">
-        <v>2647</v>
-      </c>
-      <c r="F767" s="15"/>
+        <v>2649</v>
+      </c>
+      <c r="F767" s="14" t="s">
+        <v>2650</v>
+      </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768" s="11" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="B768" s="12" t="s">
         <v>420</v>
@@ -26654,18 +26642,16 @@
         <v>1569</v>
       </c>
       <c r="D768" s="13" t="s">
-        <v>2640</v>
+        <v>1996</v>
       </c>
       <c r="E768" s="13" t="s">
-        <v>2649</v>
-      </c>
-      <c r="F768" s="14" t="s">
-        <v>2650</v>
-      </c>
+        <v>2652</v>
+      </c>
+      <c r="F768" s="15"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769" s="11" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="B769" s="12" t="s">
         <v>420</v>
@@ -26674,16 +26660,18 @@
         <v>1569</v>
       </c>
       <c r="D769" s="13" t="s">
-        <v>1996</v>
+        <v>1570</v>
       </c>
       <c r="E769" s="13" t="s">
-        <v>2652</v>
-      </c>
-      <c r="F769" s="15"/>
+        <v>2654</v>
+      </c>
+      <c r="F769" s="14" t="s">
+        <v>2655</v>
+      </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770" s="11" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="B770" s="12" t="s">
         <v>420</v>
@@ -26692,76 +26680,76 @@
         <v>1569</v>
       </c>
       <c r="D770" s="13" t="s">
-        <v>1570</v>
+        <v>2640</v>
       </c>
       <c r="E770" s="13" t="s">
-        <v>2654</v>
-      </c>
-      <c r="F770" s="14" t="s">
-        <v>2655</v>
-      </c>
+        <v>2657</v>
+      </c>
+      <c r="F770" s="15"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771" s="11" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="B771" s="12" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="C771" s="13" t="s">
-        <v>1569</v>
+        <v>2659</v>
       </c>
       <c r="D771" s="13" t="s">
-        <v>2640</v>
+        <v>2660</v>
       </c>
       <c r="E771" s="13" t="s">
-        <v>2657</v>
-      </c>
-      <c r="F771" s="15"/>
+        <v>2661</v>
+      </c>
+      <c r="F771" s="14" t="s">
+        <v>2662</v>
+      </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772" s="11" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="B772" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C772" s="13" t="s">
-        <v>2659</v>
+        <v>2664</v>
       </c>
       <c r="D772" s="13" t="s">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="E772" s="13" t="s">
-        <v>2661</v>
+        <v>2666</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>2662</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773" s="11" t="s">
-        <v>2663</v>
+        <v>2668</v>
       </c>
       <c r="B773" s="12" t="s">
-        <v>18</v>
+        <v>814</v>
       </c>
       <c r="C773" s="13" t="s">
-        <v>2664</v>
+        <v>1423</v>
       </c>
       <c r="D773" s="13" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="E773" s="13" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="F773" s="14" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774" s="11" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="B774" s="12" t="s">
         <v>814</v>
@@ -26770,18 +26758,18 @@
         <v>1423</v>
       </c>
       <c r="D774" s="13" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="E774" s="13" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775" s="11" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="B775" s="12" t="s">
         <v>814</v>
@@ -26790,18 +26778,18 @@
         <v>1423</v>
       </c>
       <c r="D775" s="13" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="E775" s="13" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="F775" s="14" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776" s="11" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>814</v>
@@ -26813,35 +26801,35 @@
         <v>2669</v>
       </c>
       <c r="E776" s="13" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="F776" s="14" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777" s="11" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>814</v>
+        <v>236</v>
       </c>
       <c r="C777" s="13" t="s">
-        <v>1423</v>
+        <v>1230</v>
       </c>
       <c r="D777" s="13" t="s">
-        <v>2669</v>
+        <v>2683</v>
       </c>
       <c r="E777" s="13" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778" s="11" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="B778" s="12" t="s">
         <v>236</v>
@@ -26850,18 +26838,18 @@
         <v>1230</v>
       </c>
       <c r="D778" s="13" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="E778" s="13" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="F778" s="14" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A779" s="11" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="B779" s="12" t="s">
         <v>236</v>
@@ -26873,15 +26861,15 @@
         <v>2687</v>
       </c>
       <c r="E779" s="13" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="F779" s="14" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A780" s="11" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="B780" s="12" t="s">
         <v>236</v>
@@ -26893,15 +26881,15 @@
         <v>2687</v>
       </c>
       <c r="E780" s="13" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="F780" s="14" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A781" s="11" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="B781" s="12" t="s">
         <v>236</v>
@@ -26910,18 +26898,18 @@
         <v>1230</v>
       </c>
       <c r="D781" s="13" t="s">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="E781" s="13" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A782" s="11" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="B782" s="12" t="s">
         <v>236</v>
@@ -26933,15 +26921,15 @@
         <v>2697</v>
       </c>
       <c r="E782" s="13" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="F782" s="14" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A783" s="11" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="B783" s="12" t="s">
         <v>236</v>
@@ -26950,18 +26938,18 @@
         <v>1230</v>
       </c>
       <c r="D783" s="13" t="s">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="E783" s="13" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A784" s="11" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="B784" s="12" t="s">
         <v>236</v>
@@ -26973,15 +26961,15 @@
         <v>2687</v>
       </c>
       <c r="E784" s="13" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="F784" s="14" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A785" s="11" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="B785" s="12" t="s">
         <v>236</v>
@@ -26990,18 +26978,18 @@
         <v>1230</v>
       </c>
       <c r="D785" s="13" t="s">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="E785" s="13" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A786" s="11" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="B786" s="12" t="s">
         <v>236</v>
@@ -27010,18 +26998,18 @@
         <v>1230</v>
       </c>
       <c r="D786" s="13" t="s">
-        <v>2697</v>
+        <v>2713</v>
       </c>
       <c r="E786" s="13" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="F786" s="14" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A787" s="11" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="B787" s="12" t="s">
         <v>236</v>
@@ -27030,76 +27018,76 @@
         <v>1230</v>
       </c>
       <c r="D787" s="13" t="s">
-        <v>2713</v>
+        <v>2687</v>
       </c>
       <c r="E787" s="13" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="F787" s="14" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A788" s="11" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="B788" s="12" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C788" s="13" t="s">
-        <v>1230</v>
+        <v>2720</v>
       </c>
       <c r="D788" s="13" t="s">
-        <v>2687</v>
+        <v>2721</v>
       </c>
       <c r="E788" s="13" t="s">
-        <v>2717</v>
+        <v>2722</v>
       </c>
       <c r="F788" s="14" t="s">
-        <v>2718</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A789" s="11" t="s">
-        <v>2719</v>
+        <v>2724</v>
       </c>
       <c r="B789" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C789" s="13" t="s">
-        <v>2720</v>
+        <v>1630</v>
       </c>
       <c r="D789" s="13" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="E789" s="13" t="s">
-        <v>2722</v>
-      </c>
-      <c r="F789" s="14" t="s">
-        <v>2723</v>
-      </c>
+        <v>2726</v>
+      </c>
+      <c r="F789" s="15"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A790" s="11" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="B790" s="12" t="s">
-        <v>12</v>
+        <v>996</v>
       </c>
       <c r="C790" s="13" t="s">
-        <v>1630</v>
+        <v>997</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="E790" s="13" t="s">
-        <v>2726</v>
-      </c>
-      <c r="F790" s="15"/>
+        <v>2729</v>
+      </c>
+      <c r="F790" s="14" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A791" s="11" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="B791" s="12" t="s">
         <v>996</v>
@@ -27111,15 +27099,15 @@
         <v>2728</v>
       </c>
       <c r="E791" s="13" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="F791" s="14" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A792" s="11" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="B792" s="12" t="s">
         <v>996</v>
@@ -27128,18 +27116,18 @@
         <v>997</v>
       </c>
       <c r="D792" s="13" t="s">
-        <v>2728</v>
+        <v>2735</v>
       </c>
       <c r="E792" s="13" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="F792" s="14" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A793" s="11" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="B793" s="12" t="s">
         <v>996</v>
@@ -27148,18 +27136,18 @@
         <v>997</v>
       </c>
       <c r="D793" s="13" t="s">
-        <v>2735</v>
+        <v>2728</v>
       </c>
       <c r="E793" s="13" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A794" s="11" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="B794" s="12" t="s">
         <v>996</v>
@@ -27171,15 +27159,15 @@
         <v>2728</v>
       </c>
       <c r="E794" s="13" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="F794" s="14" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A795" s="11" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="B795" s="12" t="s">
         <v>996</v>
@@ -27188,18 +27176,18 @@
         <v>997</v>
       </c>
       <c r="D795" s="13" t="s">
-        <v>2728</v>
+        <v>2735</v>
       </c>
       <c r="E795" s="13" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A796" s="11" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="B796" s="12" t="s">
         <v>996</v>
@@ -27208,18 +27196,18 @@
         <v>997</v>
       </c>
       <c r="D796" s="13" t="s">
-        <v>2735</v>
+        <v>1299</v>
       </c>
       <c r="E796" s="13" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="F796" s="14" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A797" s="11" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="B797" s="12" t="s">
         <v>996</v>
@@ -27228,18 +27216,16 @@
         <v>997</v>
       </c>
       <c r="D797" s="13" t="s">
-        <v>1299</v>
+        <v>2735</v>
       </c>
       <c r="E797" s="13" t="s">
-        <v>2748</v>
-      </c>
-      <c r="F797" s="14" t="s">
-        <v>2749</v>
-      </c>
+        <v>2751</v>
+      </c>
+      <c r="F797" s="15"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A798" s="11" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="B798" s="12" t="s">
         <v>996</v>
@@ -27251,13 +27237,15 @@
         <v>2735</v>
       </c>
       <c r="E798" s="13" t="s">
-        <v>2751</v>
-      </c>
-      <c r="F798" s="15"/>
+        <v>2753</v>
+      </c>
+      <c r="F798" s="14" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A799" s="11" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="B799" s="12" t="s">
         <v>996</v>
@@ -27266,374 +27254,372 @@
         <v>997</v>
       </c>
       <c r="D799" s="13" t="s">
-        <v>2735</v>
+        <v>2756</v>
       </c>
       <c r="E799" s="13" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A800" s="11" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="B800" s="12" t="s">
-        <v>996</v>
+        <v>814</v>
       </c>
       <c r="C800" s="13" t="s">
-        <v>997</v>
+        <v>1423</v>
       </c>
       <c r="D800" s="13" t="s">
-        <v>2756</v>
+        <v>2673</v>
       </c>
       <c r="E800" s="13" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="F800" s="14" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A801" s="11" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="B801" s="12" t="s">
-        <v>814</v>
+        <v>351</v>
       </c>
       <c r="C801" s="13" t="s">
-        <v>1423</v>
+        <v>351</v>
       </c>
       <c r="D801" s="13" t="s">
-        <v>2673</v>
+        <v>374</v>
       </c>
       <c r="E801" s="13" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A802" s="11" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="B802" s="12" t="s">
-        <v>351</v>
+        <v>2003</v>
       </c>
       <c r="C802" s="13" t="s">
-        <v>351</v>
+        <v>2766</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>374</v>
+        <v>2767</v>
       </c>
       <c r="E802" s="13" t="s">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="F802" s="14" t="s">
-        <v>2764</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A803" s="11" t="s">
-        <v>2765</v>
+        <v>2770</v>
       </c>
       <c r="B803" s="12" t="s">
-        <v>2003</v>
+        <v>44</v>
       </c>
       <c r="C803" s="13" t="s">
-        <v>2766</v>
+        <v>2368</v>
       </c>
       <c r="D803" s="13" t="s">
-        <v>2767</v>
+        <v>2369</v>
       </c>
       <c r="E803" s="13" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A804" s="11" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="B804" s="12" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C804" s="13" t="s">
-        <v>2368</v>
+        <v>659</v>
       </c>
       <c r="D804" s="13" t="s">
-        <v>2369</v>
+        <v>940</v>
       </c>
       <c r="E804" s="13" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="F804" s="14" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A805" s="11" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="B805" s="12" t="s">
-        <v>6</v>
+        <v>792</v>
       </c>
       <c r="C805" s="13" t="s">
-        <v>659</v>
+        <v>793</v>
       </c>
       <c r="D805" s="13" t="s">
-        <v>940</v>
+        <v>804</v>
       </c>
       <c r="E805" s="13" t="s">
-        <v>2774</v>
+        <v>973</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A806" s="11" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="B806" s="12" t="s">
-        <v>792</v>
+        <v>252</v>
       </c>
       <c r="C806" s="13" t="s">
-        <v>793</v>
+        <v>1003</v>
       </c>
       <c r="D806" s="13" t="s">
-        <v>804</v>
+        <v>1617</v>
       </c>
       <c r="E806" s="13" t="s">
-        <v>973</v>
+        <v>2779</v>
       </c>
       <c r="F806" s="14" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A807" s="11" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="B807" s="12" t="s">
-        <v>252</v>
+        <v>654</v>
       </c>
       <c r="C807" s="13" t="s">
-        <v>1003</v>
+        <v>1068</v>
       </c>
       <c r="D807" s="13" t="s">
-        <v>1617</v>
+        <v>1069</v>
       </c>
       <c r="E807" s="13" t="s">
-        <v>2779</v>
+        <v>1070</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>2780</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A808" s="11" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="B808" s="12" t="s">
-        <v>654</v>
+        <v>236</v>
       </c>
       <c r="C808" s="13" t="s">
-        <v>1068</v>
+        <v>825</v>
       </c>
       <c r="D808" s="13" t="s">
-        <v>1069</v>
+        <v>2783</v>
       </c>
       <c r="E808" s="13" t="s">
-        <v>1070</v>
+        <v>2784</v>
       </c>
       <c r="F808" s="14" t="s">
-        <v>1071</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A809" s="11" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="B809" s="12" t="s">
-        <v>236</v>
+        <v>642</v>
       </c>
       <c r="C809" s="13" t="s">
-        <v>825</v>
+        <v>1248</v>
       </c>
       <c r="D809" s="13" t="s">
-        <v>2783</v>
+        <v>834</v>
       </c>
       <c r="E809" s="13" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="F809" s="14" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A810" s="11" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="B810" s="12" t="s">
-        <v>642</v>
+        <v>437</v>
       </c>
       <c r="C810" s="13" t="s">
-        <v>1248</v>
+        <v>1414</v>
       </c>
       <c r="D810" s="13" t="s">
-        <v>834</v>
+        <v>2790</v>
       </c>
       <c r="E810" s="13" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A811" s="11" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="B811" s="12" t="s">
-        <v>437</v>
+        <v>18</v>
       </c>
       <c r="C811" s="13" t="s">
-        <v>1414</v>
+        <v>984</v>
       </c>
       <c r="D811" s="13" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="E811" s="13" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="F811" s="14" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A812" s="11" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="B812" s="12" t="s">
-        <v>18</v>
+        <v>1444</v>
       </c>
       <c r="C812" s="13" t="s">
-        <v>984</v>
+        <v>1445</v>
       </c>
       <c r="D812" s="13" t="s">
-        <v>2794</v>
+        <v>1446</v>
       </c>
       <c r="E812" s="13" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="F812" s="14" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A813" s="11" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="B813" s="12" t="s">
-        <v>1444</v>
+        <v>451</v>
       </c>
       <c r="C813" s="13" t="s">
-        <v>1445</v>
+        <v>1343</v>
       </c>
       <c r="D813" s="13" t="s">
-        <v>1446</v>
+        <v>2047</v>
       </c>
       <c r="E813" s="13" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F813" s="14" t="s">
-        <v>2799</v>
-      </c>
+        <v>2801</v>
+      </c>
+      <c r="F813" s="15"/>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A814" s="11" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="B814" s="12" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="C814" s="13" t="s">
-        <v>1343</v>
+        <v>1397</v>
       </c>
       <c r="D814" s="13" t="s">
-        <v>2047</v>
+        <v>2063</v>
       </c>
       <c r="E814" s="13" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F814" s="15"/>
+        <v>2803</v>
+      </c>
+      <c r="F814" s="14" t="s">
+        <v>2804</v>
+      </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A815" s="11" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="B815" s="12" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="C815" s="13" t="s">
-        <v>1397</v>
+        <v>259</v>
       </c>
       <c r="D815" s="13" t="s">
-        <v>2063</v>
+        <v>279</v>
       </c>
       <c r="E815" s="13" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="F815" s="14" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A816" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="B816" s="12" t="s">
-        <v>258</v>
+        <v>637</v>
       </c>
       <c r="C816" s="13" t="s">
-        <v>259</v>
+        <v>1430</v>
       </c>
       <c r="D816" s="13" t="s">
-        <v>279</v>
+        <v>1510</v>
       </c>
       <c r="E816" s="13" t="s">
-        <v>2806</v>
-      </c>
-      <c r="F816" s="14" t="s">
-        <v>2807</v>
-      </c>
+        <v>2809</v>
+      </c>
+      <c r="F816" s="15"/>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A817" s="11" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="B817" s="12" t="s">
-        <v>637</v>
+        <v>34</v>
       </c>
       <c r="C817" s="13" t="s">
-        <v>1430</v>
+        <v>1397</v>
       </c>
       <c r="D817" s="13" t="s">
-        <v>1510</v>
+        <v>1398</v>
       </c>
       <c r="E817" s="13" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="F817" s="15"/>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A818" s="11" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="B818" s="12" t="s">
         <v>34</v>
@@ -27642,16 +27628,18 @@
         <v>1397</v>
       </c>
       <c r="D818" s="13" t="s">
-        <v>1398</v>
+        <v>2063</v>
       </c>
       <c r="E818" s="13" t="s">
-        <v>2811</v>
-      </c>
-      <c r="F818" s="15"/>
+        <v>2813</v>
+      </c>
+      <c r="F818" s="14" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A819" s="11" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="B819" s="12" t="s">
         <v>34</v>
@@ -27663,15 +27651,15 @@
         <v>2063</v>
       </c>
       <c r="E819" s="13" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="F819" s="14" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A820" s="11" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="B820" s="12" t="s">
         <v>34</v>
@@ -27680,18 +27668,18 @@
         <v>1397</v>
       </c>
       <c r="D820" s="13" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="E820" s="13" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A821" s="11" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="B821" s="12" t="s">
         <v>34</v>
@@ -27700,18 +27688,18 @@
         <v>1397</v>
       </c>
       <c r="D821" s="13" t="s">
-        <v>2067</v>
+        <v>2822</v>
       </c>
       <c r="E821" s="13" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="F821" s="14" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A822" s="11" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="B822" s="12" t="s">
         <v>34</v>
@@ -27720,18 +27708,18 @@
         <v>1397</v>
       </c>
       <c r="D822" s="13" t="s">
-        <v>2822</v>
+        <v>2063</v>
       </c>
       <c r="E822" s="13" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="F822" s="14" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A823" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="B823" s="12" t="s">
         <v>34</v>
@@ -27740,114 +27728,114 @@
         <v>1397</v>
       </c>
       <c r="D823" s="13" t="s">
-        <v>2063</v>
+        <v>1331</v>
       </c>
       <c r="E823" s="13" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="F823" s="14" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A824" s="11" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="B824" s="12" t="s">
-        <v>34</v>
+        <v>1537</v>
       </c>
       <c r="C824" s="13" t="s">
-        <v>1397</v>
+        <v>1538</v>
       </c>
       <c r="D824" s="13" t="s">
-        <v>1331</v>
+        <v>1539</v>
       </c>
       <c r="E824" s="13" t="s">
-        <v>2829</v>
-      </c>
-      <c r="F824" s="14" t="s">
-        <v>2830</v>
-      </c>
+        <v>2832</v>
+      </c>
+      <c r="F824" s="15"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A825" s="11" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B825" s="12" t="s">
-        <v>1537</v>
+        <v>1449</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1538</v>
+        <v>1450</v>
       </c>
       <c r="D825" s="13" t="s">
-        <v>1539</v>
+        <v>1451</v>
       </c>
       <c r="E825" s="13" t="s">
-        <v>2832</v>
-      </c>
-      <c r="F825" s="15"/>
+        <v>2834</v>
+      </c>
+      <c r="F825" s="14" t="s">
+        <v>2835</v>
+      </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A826" s="11" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="B826" s="12" t="s">
-        <v>1449</v>
+        <v>258</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1450</v>
+        <v>259</v>
       </c>
       <c r="D826" s="13" t="s">
-        <v>1451</v>
+        <v>260</v>
       </c>
       <c r="E826" s="13" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F826" s="14" t="s">
-        <v>2835</v>
-      </c>
+        <v>2837</v>
+      </c>
+      <c r="F826" s="15"/>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A827" s="11" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="B827" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>259</v>
+        <v>2839</v>
       </c>
       <c r="D827" s="13" t="s">
-        <v>260</v>
+        <v>2840</v>
       </c>
       <c r="E827" s="13" t="s">
-        <v>2837</v>
-      </c>
-      <c r="F827" s="15"/>
+        <v>2841</v>
+      </c>
+      <c r="F827" s="14" t="s">
+        <v>2842</v>
+      </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A828" s="11" t="s">
-        <v>2838</v>
+        <v>2843</v>
       </c>
       <c r="B828" s="12" t="s">
-        <v>252</v>
+        <v>996</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>2839</v>
+        <v>2844</v>
       </c>
       <c r="D828" s="13" t="s">
-        <v>2840</v>
+        <v>2845</v>
       </c>
       <c r="E828" s="13" t="s">
-        <v>2841</v>
-      </c>
-      <c r="F828" s="14" t="s">
-        <v>2842</v>
+        <v>2846</v>
+      </c>
+      <c r="F828" s="16">
+        <v>4000710919</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A829" s="11" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="B829" s="12" t="s">
         <v>996</v>
@@ -27859,55 +27847,55 @@
         <v>2845</v>
       </c>
       <c r="E829" s="13" t="s">
-        <v>2846</v>
-      </c>
-      <c r="F829" s="16">
-        <v>4000710919</v>
+        <v>2848</v>
+      </c>
+      <c r="F829" s="14" t="s">
+        <v>2849</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A830" s="11" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="B830" s="12" t="s">
-        <v>996</v>
+        <v>814</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="D830" s="13" t="s">
-        <v>2845</v>
+        <v>2852</v>
       </c>
       <c r="E830" s="13" t="s">
-        <v>2848</v>
+        <v>2853</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>2849</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A831" s="11" t="s">
-        <v>2850</v>
+        <v>2855</v>
       </c>
       <c r="B831" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C831" s="13" t="s">
-        <v>2851</v>
+        <v>1423</v>
       </c>
       <c r="D831" s="13" t="s">
-        <v>2852</v>
+        <v>2669</v>
       </c>
       <c r="E831" s="13" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="F831" s="14" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A832" s="11" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="B832" s="12" t="s">
         <v>814</v>
@@ -27919,173 +27907,173 @@
         <v>2669</v>
       </c>
       <c r="E832" s="13" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="F832" s="14" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A833" s="11" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B833" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C833" s="13" t="s">
-        <v>1423</v>
+        <v>2862</v>
       </c>
       <c r="D833" s="13" t="s">
-        <v>2669</v>
+        <v>2862</v>
       </c>
       <c r="E833" s="13" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="F833" s="14" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A834" s="11" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="B834" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C834" s="13" t="s">
-        <v>2862</v>
+        <v>1423</v>
       </c>
       <c r="D834" s="13" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="E834" s="13" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="F834" s="14" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A835" s="11" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="B835" s="12" t="s">
-        <v>814</v>
+        <v>6</v>
       </c>
       <c r="C835" s="13" t="s">
-        <v>1423</v>
+        <v>659</v>
       </c>
       <c r="D835" s="13" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="E835" s="13" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="F835" s="14" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A836" s="11" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="B836" s="12" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="C836" s="13" t="s">
-        <v>659</v>
+        <v>237</v>
       </c>
       <c r="D836" s="13" t="s">
-        <v>2870</v>
+        <v>2432</v>
       </c>
       <c r="E836" s="13" t="s">
-        <v>2871</v>
-      </c>
-      <c r="F836" s="14" t="s">
-        <v>2872</v>
-      </c>
+        <v>2874</v>
+      </c>
+      <c r="F836" s="15"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A837" s="11" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B837" s="12" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C837" s="13" t="s">
-        <v>237</v>
+        <v>1285</v>
       </c>
       <c r="D837" s="13" t="s">
-        <v>2432</v>
+        <v>1286</v>
       </c>
       <c r="E837" s="13" t="s">
-        <v>2874</v>
-      </c>
-      <c r="F837" s="15"/>
+        <v>2876</v>
+      </c>
+      <c r="F837" s="14" t="s">
+        <v>2877</v>
+      </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A838" s="11" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="B838" s="12" t="s">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="C838" s="13" t="s">
-        <v>1285</v>
+        <v>2879</v>
       </c>
       <c r="D838" s="13" t="s">
-        <v>1286</v>
+        <v>2880</v>
       </c>
       <c r="E838" s="13" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="F838" s="14" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A839" s="11" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="B839" s="12" t="s">
-        <v>437</v>
+        <v>236</v>
       </c>
       <c r="C839" s="13" t="s">
-        <v>2879</v>
+        <v>1463</v>
       </c>
       <c r="D839" s="13" t="s">
-        <v>2880</v>
+        <v>1464</v>
       </c>
       <c r="E839" s="13" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="F839" s="14" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A840" s="11" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="B840" s="12" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C840" s="13" t="s">
-        <v>1463</v>
+        <v>2887</v>
       </c>
       <c r="D840" s="13" t="s">
-        <v>1464</v>
+        <v>2888</v>
       </c>
       <c r="E840" s="13" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
       <c r="F840" s="14" t="s">
-        <v>2885</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A841" s="11" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="B841" s="12" t="s">
         <v>6</v>
@@ -28097,15 +28085,13 @@
         <v>2888</v>
       </c>
       <c r="E841" s="13" t="s">
-        <v>2889</v>
-      </c>
-      <c r="F841" s="14" t="s">
-        <v>2890</v>
-      </c>
+        <v>2892</v>
+      </c>
+      <c r="F841" s="15"/>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A842" s="11" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="B842" s="12" t="s">
         <v>6</v>
@@ -28117,33 +28103,35 @@
         <v>2888</v>
       </c>
       <c r="E842" s="13" t="s">
-        <v>2892</v>
-      </c>
-      <c r="F842" s="15"/>
+        <v>2894</v>
+      </c>
+      <c r="F842" s="14" t="s">
+        <v>2895</v>
+      </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A843" s="11" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="B843" s="12" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="C843" s="13" t="s">
-        <v>2887</v>
+        <v>1275</v>
       </c>
       <c r="D843" s="13" t="s">
-        <v>2888</v>
+        <v>1276</v>
       </c>
       <c r="E843" s="13" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="F843" s="14" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A844" s="11" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="B844" s="12" t="s">
         <v>230</v>
@@ -28155,15 +28143,15 @@
         <v>1276</v>
       </c>
       <c r="E844" s="13" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="F844" s="14" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A845" s="11" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="B845" s="12" t="s">
         <v>230</v>
@@ -28171,95 +28159,95 @@
       <c r="C845" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="D845" s="13" t="s">
-        <v>1276</v>
-      </c>
+      <c r="D845" s="17"/>
       <c r="E845" s="13" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A846" s="11" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="B846" s="12" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="C846" s="13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D846" s="17"/>
+        <v>2906</v>
+      </c>
+      <c r="D846" s="13" t="s">
+        <v>2907</v>
+      </c>
       <c r="E846" s="13" t="s">
-        <v>2903</v>
+        <v>2908</v>
       </c>
       <c r="F846" s="14" t="s">
-        <v>2904</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A847" s="11" t="s">
-        <v>2905</v>
+        <v>2910</v>
       </c>
       <c r="B847" s="12" t="s">
-        <v>34</v>
+        <v>654</v>
       </c>
       <c r="C847" s="13" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="D847" s="13" t="s">
-        <v>2907</v>
+        <v>2912</v>
       </c>
       <c r="E847" s="13" t="s">
-        <v>2908</v>
+        <v>2913</v>
       </c>
       <c r="F847" s="14" t="s">
-        <v>2909</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A848" s="11" t="s">
-        <v>2910</v>
+        <v>2915</v>
       </c>
       <c r="B848" s="12" t="s">
-        <v>654</v>
+        <v>236</v>
       </c>
       <c r="C848" s="13" t="s">
-        <v>2911</v>
+        <v>2916</v>
       </c>
       <c r="D848" s="13" t="s">
-        <v>2912</v>
+        <v>2917</v>
       </c>
       <c r="E848" s="13" t="s">
-        <v>2913</v>
-      </c>
-      <c r="F848" s="14" t="s">
-        <v>2914</v>
-      </c>
+        <v>2918</v>
+      </c>
+      <c r="F848" s="15"/>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A849" s="11" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="B849" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C849" s="13" t="s">
-        <v>2916</v>
+        <v>825</v>
       </c>
       <c r="D849" s="13" t="s">
-        <v>2917</v>
+        <v>826</v>
       </c>
       <c r="E849" s="13" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F849" s="15"/>
+        <v>2920</v>
+      </c>
+      <c r="F849" s="16">
+        <v>13222686081</v>
+      </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A850" s="11" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="B850" s="12" t="s">
         <v>236</v>
@@ -28271,133 +28259,133 @@
         <v>826</v>
       </c>
       <c r="E850" s="13" t="s">
-        <v>2920</v>
-      </c>
-      <c r="F850" s="16">
-        <v>13222686081</v>
+        <v>2922</v>
+      </c>
+      <c r="F850" s="14" t="s">
+        <v>2923</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A851" s="11" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="B851" s="12" t="s">
-        <v>236</v>
+        <v>451</v>
       </c>
       <c r="C851" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="D851" s="13" t="s">
-        <v>826</v>
-      </c>
+        <v>2925</v>
+      </c>
+      <c r="D851" s="17"/>
       <c r="E851" s="13" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="F851" s="14" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A852" s="11" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="B852" s="12" t="s">
-        <v>451</v>
+        <v>814</v>
       </c>
       <c r="C852" s="13" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D852" s="17"/>
+        <v>2929</v>
+      </c>
+      <c r="D852" s="13" t="s">
+        <v>2930</v>
+      </c>
       <c r="E852" s="13" t="s">
-        <v>2926</v>
+        <v>2931</v>
       </c>
       <c r="F852" s="14" t="s">
-        <v>2927</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A853" s="11" t="s">
-        <v>2928</v>
+        <v>2933</v>
       </c>
       <c r="B853" s="12" t="s">
-        <v>814</v>
+        <v>236</v>
       </c>
       <c r="C853" s="13" t="s">
-        <v>2929</v>
+        <v>825</v>
       </c>
       <c r="D853" s="13" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="E853" s="13" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="F853" s="14" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A854" s="11" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="B854" s="12" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C854" s="13" t="s">
-        <v>825</v>
+        <v>2938</v>
       </c>
       <c r="D854" s="13" t="s">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="E854" s="13" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
       <c r="F854" s="14" t="s">
-        <v>2936</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A855" s="11" t="s">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="B855" s="12" t="s">
-        <v>258</v>
+        <v>996</v>
       </c>
       <c r="C855" s="13" t="s">
-        <v>2938</v>
+        <v>2943</v>
       </c>
       <c r="D855" s="13" t="s">
-        <v>2939</v>
+        <v>2944</v>
       </c>
       <c r="E855" s="13" t="s">
-        <v>2940</v>
+        <v>2945</v>
       </c>
       <c r="F855" s="14" t="s">
-        <v>2941</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A856" s="11" t="s">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="B856" s="12" t="s">
-        <v>996</v>
+        <v>236</v>
       </c>
       <c r="C856" s="13" t="s">
-        <v>2943</v>
+        <v>1230</v>
       </c>
       <c r="D856" s="13" t="s">
-        <v>2944</v>
+        <v>1231</v>
       </c>
       <c r="E856" s="13" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A857" s="11" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="B857" s="12" t="s">
         <v>236</v>
@@ -28409,15 +28397,15 @@
         <v>1231</v>
       </c>
       <c r="E857" s="13" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="F857" s="14" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A858" s="11" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="B858" s="12" t="s">
         <v>236</v>
@@ -28429,35 +28417,35 @@
         <v>1231</v>
       </c>
       <c r="E858" s="13" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A859" s="11" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="B859" s="12" t="s">
-        <v>236</v>
+        <v>1449</v>
       </c>
       <c r="C859" s="13" t="s">
-        <v>1230</v>
+        <v>1450</v>
       </c>
       <c r="D859" s="13" t="s">
-        <v>1231</v>
+        <v>1451</v>
       </c>
       <c r="E859" s="13" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A860" s="11" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="B860" s="12" t="s">
         <v>1449</v>
@@ -28469,115 +28457,115 @@
         <v>1451</v>
       </c>
       <c r="E860" s="13" t="s">
-        <v>2957</v>
-      </c>
-      <c r="F860" s="14" t="s">
-        <v>2958</v>
+        <v>2960</v>
+      </c>
+      <c r="F860" s="16">
+        <v>4009985033</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A861" s="11" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="B861" s="12" t="s">
-        <v>1449</v>
+        <v>216</v>
       </c>
       <c r="C861" s="13" t="s">
-        <v>1450</v>
+        <v>217</v>
       </c>
       <c r="D861" s="13" t="s">
-        <v>1451</v>
+        <v>2962</v>
       </c>
       <c r="E861" s="13" t="s">
-        <v>2960</v>
-      </c>
-      <c r="F861" s="16">
-        <v>4009985033</v>
+        <v>2963</v>
+      </c>
+      <c r="F861" s="14" t="s">
+        <v>2964</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A862" s="11" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="B862" s="12" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="C862" s="13" t="s">
-        <v>217</v>
+        <v>2966</v>
       </c>
       <c r="D862" s="13" t="s">
-        <v>2962</v>
+        <v>2967</v>
       </c>
       <c r="E862" s="13" t="s">
-        <v>2963</v>
-      </c>
-      <c r="F862" s="14" t="s">
-        <v>2964</v>
+        <v>2968</v>
+      </c>
+      <c r="F862" s="16">
+        <v>4008553120</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A863" s="11" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="B863" s="12" t="s">
-        <v>34</v>
+        <v>669</v>
       </c>
       <c r="C863" s="13" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="D863" s="13" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="E863" s="13" t="s">
-        <v>2968</v>
-      </c>
-      <c r="F863" s="16">
-        <v>4008553120</v>
+        <v>2972</v>
+      </c>
+      <c r="F863" s="14" t="s">
+        <v>2973</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A864" s="11" t="s">
-        <v>2969</v>
+        <v>2974</v>
       </c>
       <c r="B864" s="12" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="C864" s="13" t="s">
-        <v>2970</v>
+        <v>2975</v>
       </c>
       <c r="D864" s="13" t="s">
-        <v>2971</v>
+        <v>2976</v>
       </c>
       <c r="E864" s="13" t="s">
-        <v>2972</v>
+        <v>2977</v>
       </c>
       <c r="F864" s="14" t="s">
-        <v>2973</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A865" s="11" t="s">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="B865" s="12" t="s">
         <v>637</v>
       </c>
       <c r="C865" s="13" t="s">
-        <v>2975</v>
+        <v>1430</v>
       </c>
       <c r="D865" s="13" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="E865" s="13" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="F865" s="14" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A866" s="11" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="B866" s="12" t="s">
         <v>637</v>
@@ -28589,15 +28577,15 @@
         <v>2980</v>
       </c>
       <c r="E866" s="13" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="F866" s="14" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A867" s="11" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="B867" s="12" t="s">
         <v>637</v>
@@ -28606,18 +28594,18 @@
         <v>1430</v>
       </c>
       <c r="D867" s="13" t="s">
-        <v>2980</v>
+        <v>1506</v>
       </c>
       <c r="E867" s="13" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="F867" s="14" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A868" s="11" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="B868" s="12" t="s">
         <v>637</v>
@@ -28626,18 +28614,18 @@
         <v>1430</v>
       </c>
       <c r="D868" s="13" t="s">
-        <v>1506</v>
+        <v>2980</v>
       </c>
       <c r="E868" s="13" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="F868" s="14" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A869" s="11" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="B869" s="12" t="s">
         <v>637</v>
@@ -28646,78 +28634,78 @@
         <v>1430</v>
       </c>
       <c r="D869" s="13" t="s">
-        <v>2980</v>
+        <v>1431</v>
       </c>
       <c r="E869" s="13" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="F869" s="14" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A870" s="11" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="B870" s="12" t="s">
-        <v>637</v>
+        <v>451</v>
       </c>
       <c r="C870" s="13" t="s">
-        <v>1430</v>
+        <v>2996</v>
       </c>
       <c r="D870" s="13" t="s">
-        <v>1431</v>
+        <v>2997</v>
       </c>
       <c r="E870" s="13" t="s">
-        <v>2993</v>
+        <v>2998</v>
       </c>
       <c r="F870" s="14" t="s">
-        <v>2994</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A871" s="11" t="s">
-        <v>2995</v>
+        <v>3000</v>
       </c>
       <c r="B871" s="12" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C871" s="13" t="s">
-        <v>2996</v>
+        <v>1388</v>
       </c>
       <c r="D871" s="13" t="s">
-        <v>2997</v>
+        <v>1389</v>
       </c>
       <c r="E871" s="13" t="s">
-        <v>2998</v>
-      </c>
-      <c r="F871" s="14" t="s">
-        <v>2999</v>
+        <v>3001</v>
+      </c>
+      <c r="F871" s="16">
+        <v>4000126216</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A872" s="11" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="B872" s="12" t="s">
-        <v>469</v>
+        <v>236</v>
       </c>
       <c r="C872" s="13" t="s">
-        <v>1388</v>
+        <v>237</v>
       </c>
       <c r="D872" s="13" t="s">
-        <v>1389</v>
+        <v>3003</v>
       </c>
       <c r="E872" s="13" t="s">
-        <v>3001</v>
-      </c>
-      <c r="F872" s="16">
-        <v>4000126216</v>
+        <v>3004</v>
+      </c>
+      <c r="F872" s="14" t="s">
+        <v>3005</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A873" s="11" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="B873" s="12" t="s">
         <v>236</v>
@@ -28729,15 +28717,15 @@
         <v>3003</v>
       </c>
       <c r="E873" s="13" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="F873" s="14" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A874" s="11" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="B874" s="12" t="s">
         <v>236</v>
@@ -28749,35 +28737,35 @@
         <v>3003</v>
       </c>
       <c r="E874" s="13" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="F874" s="14" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A875" s="11" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="B875" s="12" t="s">
-        <v>236</v>
+        <v>654</v>
       </c>
       <c r="C875" s="13" t="s">
-        <v>237</v>
+        <v>1068</v>
       </c>
       <c r="D875" s="13" t="s">
-        <v>3003</v>
+        <v>87</v>
       </c>
       <c r="E875" s="13" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>3011</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A876" s="11" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="B876" s="12" t="s">
         <v>654</v>
@@ -28786,18 +28774,18 @@
         <v>1068</v>
       </c>
       <c r="D876" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E876" s="13" t="s">
-        <v>3013</v>
+        <v>3017</v>
       </c>
       <c r="F876" s="14" t="s">
-        <v>3014</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A877" s="11" t="s">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="B877" s="12" t="s">
         <v>654</v>
@@ -28806,18 +28794,16 @@
         <v>1068</v>
       </c>
       <c r="D877" s="13" t="s">
-        <v>3016</v>
+        <v>1069</v>
       </c>
       <c r="E877" s="13" t="s">
-        <v>3017</v>
-      </c>
-      <c r="F877" s="14" t="s">
-        <v>3018</v>
-      </c>
+        <v>3020</v>
+      </c>
+      <c r="F877" s="15"/>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A878" s="11" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="B878" s="12" t="s">
         <v>654</v>
@@ -28826,16 +28812,18 @@
         <v>1068</v>
       </c>
       <c r="D878" s="13" t="s">
-        <v>1069</v>
+        <v>3016</v>
       </c>
       <c r="E878" s="13" t="s">
-        <v>3020</v>
-      </c>
-      <c r="F878" s="15"/>
+        <v>3022</v>
+      </c>
+      <c r="F878" s="16">
+        <v>13524402436</v>
+      </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A879" s="11" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="B879" s="12" t="s">
         <v>654</v>
@@ -28844,18 +28832,18 @@
         <v>1068</v>
       </c>
       <c r="D879" s="13" t="s">
-        <v>3016</v>
+        <v>1069</v>
       </c>
       <c r="E879" s="13" t="s">
-        <v>3022</v>
-      </c>
-      <c r="F879" s="16">
-        <v>13524402436</v>
+        <v>3024</v>
+      </c>
+      <c r="F879" s="14" t="s">
+        <v>3025</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A880" s="11" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="B880" s="12" t="s">
         <v>654</v>
@@ -28864,18 +28852,18 @@
         <v>1068</v>
       </c>
       <c r="D880" s="13" t="s">
-        <v>1069</v>
+        <v>3016</v>
       </c>
       <c r="E880" s="13" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A881" s="11" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="B881" s="12" t="s">
         <v>654</v>
@@ -28884,18 +28872,18 @@
         <v>1068</v>
       </c>
       <c r="D881" s="13" t="s">
-        <v>3016</v>
+        <v>87</v>
       </c>
       <c r="E881" s="13" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="F881" s="14" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A882" s="11" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="B882" s="12" t="s">
         <v>654</v>
@@ -28907,15 +28895,15 @@
         <v>87</v>
       </c>
       <c r="E882" s="13" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A883" s="11" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="B883" s="12" t="s">
         <v>654</v>
@@ -28924,18 +28912,18 @@
         <v>1068</v>
       </c>
       <c r="D883" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E883" s="13" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="F883" s="14" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A884" s="11" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="B884" s="12" t="s">
         <v>654</v>
@@ -28947,15 +28935,15 @@
         <v>3016</v>
       </c>
       <c r="E884" s="13" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A885" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="B885" s="12" t="s">
         <v>654</v>
@@ -28964,18 +28952,16 @@
         <v>1068</v>
       </c>
       <c r="D885" s="13" t="s">
-        <v>3016</v>
+        <v>87</v>
       </c>
       <c r="E885" s="13" t="s">
-        <v>3039</v>
-      </c>
-      <c r="F885" s="14" t="s">
-        <v>3040</v>
-      </c>
+        <v>3042</v>
+      </c>
+      <c r="F885" s="15"/>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A886" s="11" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="B886" s="12" t="s">
         <v>654</v>
@@ -28984,16 +28970,18 @@
         <v>1068</v>
       </c>
       <c r="D886" s="13" t="s">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="E886" s="13" t="s">
-        <v>3042</v>
-      </c>
-      <c r="F886" s="15"/>
+        <v>3039</v>
+      </c>
+      <c r="F886" s="14" t="s">
+        <v>3040</v>
+      </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A887" s="11" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="B887" s="12" t="s">
         <v>654</v>
@@ -29005,15 +28993,15 @@
         <v>3016</v>
       </c>
       <c r="E887" s="13" t="s">
-        <v>3039</v>
+        <v>3045</v>
       </c>
       <c r="F887" s="14" t="s">
-        <v>3040</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A888" s="11" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="B888" s="12" t="s">
         <v>654</v>
@@ -29022,38 +29010,38 @@
         <v>1068</v>
       </c>
       <c r="D888" s="13" t="s">
-        <v>3016</v>
+        <v>1069</v>
       </c>
       <c r="E888" s="13" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A889" s="11" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="B889" s="12" t="s">
-        <v>654</v>
+        <v>216</v>
       </c>
       <c r="C889" s="13" t="s">
-        <v>1068</v>
+        <v>217</v>
       </c>
       <c r="D889" s="13" t="s">
-        <v>1069</v>
+        <v>3051</v>
       </c>
       <c r="E889" s="13" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="F889" s="14" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A890" s="11" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="B890" s="12" t="s">
         <v>216</v>
@@ -29065,35 +29053,35 @@
         <v>3051</v>
       </c>
       <c r="E890" s="13" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A891" s="11" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="B891" s="12" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C891" s="13" t="s">
-        <v>217</v>
+        <v>1003</v>
       </c>
       <c r="D891" s="13" t="s">
-        <v>3051</v>
+        <v>3058</v>
       </c>
       <c r="E891" s="13" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="F891" s="14" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A892" s="11" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="B892" s="12" t="s">
         <v>252</v>
@@ -29105,15 +29093,15 @@
         <v>3058</v>
       </c>
       <c r="E892" s="13" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A893" s="11" t="s">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="B893" s="12" t="s">
         <v>252</v>
@@ -29125,15 +29113,15 @@
         <v>3058</v>
       </c>
       <c r="E893" s="13" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="F893" s="14" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A894" s="11" t="s">
-        <v>3064</v>
+        <v>3067</v>
       </c>
       <c r="B894" s="12" t="s">
         <v>252</v>
@@ -29142,18 +29130,18 @@
         <v>1003</v>
       </c>
       <c r="D894" s="13" t="s">
-        <v>3058</v>
+        <v>1004</v>
       </c>
       <c r="E894" s="13" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A895" s="11" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="B895" s="12" t="s">
         <v>252</v>
@@ -29162,18 +29150,18 @@
         <v>1003</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>1004</v>
+        <v>3058</v>
       </c>
       <c r="E895" s="13" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="F895" s="14" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A896" s="11" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="B896" s="12" t="s">
         <v>252</v>
@@ -29182,18 +29170,18 @@
         <v>1003</v>
       </c>
       <c r="D896" s="13" t="s">
-        <v>3058</v>
+        <v>3074</v>
       </c>
       <c r="E896" s="13" t="s">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A897" s="11" t="s">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="B897" s="12" t="s">
         <v>252</v>
@@ -29202,18 +29190,18 @@
         <v>1003</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>3074</v>
+        <v>1004</v>
       </c>
       <c r="E897" s="13" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="F897" s="14" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A898" s="11" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="B898" s="12" t="s">
         <v>252</v>
@@ -29222,18 +29210,18 @@
         <v>1003</v>
       </c>
       <c r="D898" s="13" t="s">
-        <v>1004</v>
+        <v>1617</v>
       </c>
       <c r="E898" s="13" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A899" s="11" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="B899" s="12" t="s">
         <v>252</v>
@@ -29242,18 +29230,18 @@
         <v>1003</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>1617</v>
+        <v>3074</v>
       </c>
       <c r="E899" s="13" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="F899" s="14" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A900" s="11" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="B900" s="12" t="s">
         <v>252</v>
@@ -29262,18 +29250,18 @@
         <v>1003</v>
       </c>
       <c r="D900" s="13" t="s">
-        <v>3074</v>
+        <v>1303</v>
       </c>
       <c r="E900" s="13" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A901" s="11" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="B901" s="12" t="s">
         <v>252</v>
@@ -29282,18 +29270,18 @@
         <v>1003</v>
       </c>
       <c r="D901" s="13" t="s">
-        <v>1303</v>
+        <v>3058</v>
       </c>
       <c r="E901" s="13" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="F901" s="14" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A902" s="11" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="B902" s="12" t="s">
         <v>252</v>
@@ -29313,7 +29301,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A903" s="11" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B903" s="12" t="s">
         <v>252</v>
@@ -29322,18 +29310,18 @@
         <v>1003</v>
       </c>
       <c r="D903" s="13" t="s">
-        <v>3058</v>
+        <v>3074</v>
       </c>
       <c r="E903" s="13" t="s">
-        <v>3090</v>
+        <v>3094</v>
       </c>
       <c r="F903" s="14" t="s">
-        <v>3091</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A904" s="11" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
       <c r="B904" s="12" t="s">
         <v>252</v>
@@ -29345,15 +29333,15 @@
         <v>3074</v>
       </c>
       <c r="E904" s="13" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A905" s="11" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="B905" s="12" t="s">
         <v>252</v>
@@ -29362,18 +29350,18 @@
         <v>1003</v>
       </c>
       <c r="D905" s="13" t="s">
-        <v>3074</v>
+        <v>3100</v>
       </c>
       <c r="E905" s="13" t="s">
-        <v>3097</v>
+        <v>3101</v>
       </c>
       <c r="F905" s="14" t="s">
-        <v>3098</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A906" s="11" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="B906" s="12" t="s">
         <v>252</v>
@@ -29382,18 +29370,18 @@
         <v>1003</v>
       </c>
       <c r="D906" s="13" t="s">
-        <v>3100</v>
+        <v>1004</v>
       </c>
       <c r="E906" s="13" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A907" s="11" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="B907" s="12" t="s">
         <v>252</v>
@@ -29405,35 +29393,35 @@
         <v>1004</v>
       </c>
       <c r="E907" s="13" t="s">
-        <v>3104</v>
-      </c>
-      <c r="F907" s="14" t="s">
-        <v>3105</v>
+        <v>3107</v>
+      </c>
+      <c r="F907" s="16">
+        <v>4000986199</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A908" s="11" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="B908" s="12" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="C908" s="13" t="s">
-        <v>1003</v>
+        <v>1480</v>
       </c>
       <c r="D908" s="13" t="s">
-        <v>1004</v>
+        <v>453</v>
       </c>
       <c r="E908" s="13" t="s">
-        <v>3107</v>
-      </c>
-      <c r="F908" s="16">
-        <v>4000986199</v>
+        <v>3109</v>
+      </c>
+      <c r="F908" s="14" t="s">
+        <v>3110</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A909" s="11" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="B909" s="12" t="s">
         <v>451</v>
@@ -29442,58 +29430,58 @@
         <v>1480</v>
       </c>
       <c r="D909" s="13" t="s">
-        <v>453</v>
+        <v>3112</v>
       </c>
       <c r="E909" s="13" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="F909" s="14" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A910" s="11" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B910" s="12" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C910" s="13" t="s">
-        <v>1480</v>
+        <v>3116</v>
       </c>
       <c r="D910" s="13" t="s">
-        <v>3112</v>
+        <v>3117</v>
       </c>
       <c r="E910" s="13" t="s">
-        <v>3113</v>
+        <v>3118</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>3114</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A911" s="11" t="s">
-        <v>3115</v>
+        <v>3120</v>
       </c>
       <c r="B911" s="12" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="C911" s="13" t="s">
-        <v>3116</v>
+        <v>2465</v>
       </c>
       <c r="D911" s="13" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="E911" s="13" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="F911" s="14" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A912" s="11" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="B912" s="12" t="s">
         <v>420</v>
@@ -29502,58 +29490,58 @@
         <v>2465</v>
       </c>
       <c r="D912" s="13" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="E912" s="13" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A913" s="11" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="B913" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C913" s="13" t="s">
-        <v>2465</v>
+        <v>1208</v>
       </c>
       <c r="D913" s="13" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="E913" s="13" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="F913" s="14" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A914" s="11" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="B914" s="12" t="s">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="C914" s="13" t="s">
-        <v>1208</v>
+        <v>659</v>
       </c>
       <c r="D914" s="13" t="s">
-        <v>3129</v>
+        <v>940</v>
       </c>
       <c r="E914" s="13" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A915" s="11" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="B915" s="12" t="s">
         <v>6</v>
@@ -29562,18 +29550,18 @@
         <v>659</v>
       </c>
       <c r="D915" s="13" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E915" s="13" t="s">
-        <v>3133</v>
-      </c>
-      <c r="F915" s="14" t="s">
-        <v>3134</v>
+        <v>3136</v>
+      </c>
+      <c r="F915" s="16">
+        <v>4009919037</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A916" s="11" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="B916" s="12" t="s">
         <v>6</v>
@@ -29582,18 +29570,18 @@
         <v>659</v>
       </c>
       <c r="D916" s="13" t="s">
-        <v>933</v>
+        <v>3138</v>
       </c>
       <c r="E916" s="13" t="s">
-        <v>3136</v>
-      </c>
-      <c r="F916" s="16">
-        <v>4009919037</v>
+        <v>3139</v>
+      </c>
+      <c r="F916" s="14" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A917" s="11" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="B917" s="12" t="s">
         <v>6</v>
@@ -29602,18 +29590,18 @@
         <v>659</v>
       </c>
       <c r="D917" s="13" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="E917" s="13" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="F917" s="14" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A918" s="11" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="B918" s="12" t="s">
         <v>6</v>
@@ -29625,15 +29613,15 @@
         <v>3142</v>
       </c>
       <c r="E918" s="13" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A919" s="11" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="B919" s="12" t="s">
         <v>6</v>
@@ -29642,18 +29630,18 @@
         <v>659</v>
       </c>
       <c r="D919" s="13" t="s">
-        <v>3142</v>
+        <v>933</v>
       </c>
       <c r="E919" s="13" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="F919" s="14" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A920" s="11" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="B920" s="12" t="s">
         <v>6</v>
@@ -29662,18 +29650,18 @@
         <v>659</v>
       </c>
       <c r="D920" s="13" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E920" s="13" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A921" s="11" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="B921" s="12" t="s">
         <v>6</v>
@@ -29682,18 +29670,18 @@
         <v>659</v>
       </c>
       <c r="D921" s="13" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E921" s="13" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="F921" s="14" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A922" s="11" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="B922" s="12" t="s">
         <v>6</v>
@@ -29702,18 +29690,18 @@
         <v>659</v>
       </c>
       <c r="D922" s="13" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E922" s="13" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A923" s="11" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="B923" s="12" t="s">
         <v>6</v>
@@ -29725,35 +29713,35 @@
         <v>940</v>
       </c>
       <c r="E923" s="13" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="F923" s="14" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A924" s="11" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="B924" s="12" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
       <c r="C924" s="13" t="s">
-        <v>659</v>
+        <v>3164</v>
       </c>
       <c r="D924" s="13" t="s">
-        <v>940</v>
+        <v>3164</v>
       </c>
       <c r="E924" s="13" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A925" s="11" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="B925" s="12" t="s">
         <v>469</v>
@@ -29765,15 +29753,13 @@
         <v>3164</v>
       </c>
       <c r="E925" s="13" t="s">
-        <v>3165</v>
-      </c>
-      <c r="F925" s="14" t="s">
-        <v>3166</v>
-      </c>
+        <v>3168</v>
+      </c>
+      <c r="F925" s="15"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A926" s="11" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="B926" s="12" t="s">
         <v>469</v>
@@ -29785,13 +29771,13 @@
         <v>3164</v>
       </c>
       <c r="E926" s="13" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="F926" s="15"/>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A927" s="11" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="B927" s="12" t="s">
         <v>469</v>
@@ -29803,33 +29789,33 @@
         <v>3164</v>
       </c>
       <c r="E927" s="13" t="s">
-        <v>3170</v>
-      </c>
-      <c r="F927" s="15"/>
+        <v>3172</v>
+      </c>
+      <c r="F927" s="14" t="s">
+        <v>3173</v>
+      </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A928" s="11" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="B928" s="12" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="C928" s="13" t="s">
-        <v>3164</v>
+        <v>3175</v>
       </c>
       <c r="D928" s="13" t="s">
-        <v>3164</v>
+        <v>3176</v>
       </c>
       <c r="E928" s="13" t="s">
-        <v>3172</v>
-      </c>
-      <c r="F928" s="14" t="s">
-        <v>3173</v>
-      </c>
+        <v>3177</v>
+      </c>
+      <c r="F928" s="15"/>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A929" s="11" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B929" s="12" t="s">
         <v>420</v>
@@ -29841,33 +29827,35 @@
         <v>3176</v>
       </c>
       <c r="E929" s="13" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F929" s="15"/>
+        <v>3179</v>
+      </c>
+      <c r="F929" s="14" t="s">
+        <v>3180</v>
+      </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A930" s="11" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="B930" s="12" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C930" s="13" t="s">
-        <v>3175</v>
+        <v>3182</v>
       </c>
       <c r="D930" s="13" t="s">
-        <v>3176</v>
+        <v>3183</v>
       </c>
       <c r="E930" s="13" t="s">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="F930" s="14" t="s">
-        <v>3180</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A931" s="11" t="s">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="B931" s="12" t="s">
         <v>469</v>
@@ -29879,15 +29867,15 @@
         <v>3183</v>
       </c>
       <c r="E931" s="13" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A932" s="11" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="B932" s="12" t="s">
         <v>469</v>
@@ -29899,75 +29887,75 @@
         <v>3183</v>
       </c>
       <c r="E932" s="13" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="F932" s="14" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A933" s="11" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="B933" s="12" t="s">
-        <v>469</v>
+        <v>6</v>
       </c>
       <c r="C933" s="13" t="s">
-        <v>3182</v>
+        <v>1294</v>
       </c>
       <c r="D933" s="13" t="s">
-        <v>3183</v>
+        <v>1295</v>
       </c>
       <c r="E933" s="13" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A934" s="11" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="B934" s="12" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="C934" s="13" t="s">
-        <v>1294</v>
+        <v>3196</v>
       </c>
       <c r="D934" s="13" t="s">
-        <v>1295</v>
+        <v>3197</v>
       </c>
       <c r="E934" s="13" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="F934" s="14" t="s">
-        <v>3194</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A935" s="11" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
       <c r="B935" s="12" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C935" s="13" t="s">
-        <v>3196</v>
+        <v>3201</v>
       </c>
       <c r="D935" s="13" t="s">
-        <v>3197</v>
+        <v>3202</v>
       </c>
       <c r="E935" s="13" t="s">
-        <v>3198</v>
+        <v>3203</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>3199</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A936" s="11" t="s">
-        <v>3200</v>
+        <v>3205</v>
       </c>
       <c r="B936" s="12" t="s">
         <v>230</v>
@@ -29979,15 +29967,15 @@
         <v>3202</v>
       </c>
       <c r="E936" s="13" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="F936" s="14" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A937" s="11" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="B937" s="12" t="s">
         <v>230</v>
@@ -29999,35 +29987,35 @@
         <v>3202</v>
       </c>
       <c r="E937" s="13" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A938" s="11" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="B938" s="12" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="C938" s="13" t="s">
-        <v>3201</v>
+        <v>3212</v>
       </c>
       <c r="D938" s="13" t="s">
-        <v>3202</v>
+        <v>3213</v>
       </c>
       <c r="E938" s="13" t="s">
-        <v>3209</v>
-      </c>
-      <c r="F938" s="14" t="s">
-        <v>3210</v>
+        <v>3214</v>
+      </c>
+      <c r="F938" s="16">
+        <v>4000852829</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A939" s="11" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="B939" s="12" t="s">
         <v>1</v>
@@ -30036,32 +30024,12 @@
         <v>3212</v>
       </c>
       <c r="D939" s="13" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="E939" s="13" t="s">
-        <v>3214</v>
-      </c>
-      <c r="F939" s="16">
-        <v>4000852829</v>
-      </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A940" s="11" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B940" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C940" s="13" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D940" s="13" t="s">
-        <v>3216</v>
-      </c>
-      <c r="E940" s="13" t="s">
         <v>3217</v>
       </c>
-      <c r="F940" s="14" t="s">
+      <c r="F939" s="14" t="s">
         <v>3218</v>
       </c>
     </row>

--- a/assets/data/hospital.xlsx
+++ b/assets/data/hospital.xlsx
@@ -6791,9 +6791,6 @@
     <t>021-59525020;4006675021;15000567972</t>
   </si>
   <si>
-    <t>上海中医药大学附属曙光医院</t>
-  </si>
-  <si>
     <t>张衡路528</t>
   </si>
   <si>
@@ -9715,6 +9712,10 @@
   </si>
   <si>
     <t>数据来源: https://putianxi.github.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海中医药大学附属曙光医院(整形科)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11179,13 +11180,13 @@
   </sheetPr>
   <dimension ref="A1:IP939"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="A632" sqref="A632:XFD632"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A635" workbookViewId="0">
+      <selection activeCell="A646" sqref="A646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.6640625" defaultRowHeight="24" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
@@ -11197,7 +11198,7 @@
   <sheetData>
     <row r="1" spans="1:250" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -11207,7 +11208,7 @@
     </row>
     <row r="2" spans="1:250" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -11217,22 +11218,22 @@
     </row>
     <row r="3" spans="1:250" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3220</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3223</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3224</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -24217,7 +24218,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646" s="11" t="s">
-        <v>2254</v>
+        <v>3226</v>
       </c>
       <c r="B646" s="12" t="s">
         <v>1383</v>
@@ -24229,15 +24230,15 @@
         <v>2082</v>
       </c>
       <c r="E646" s="13" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F646" s="14" t="s">
         <v>2255</v>
-      </c>
-      <c r="F646" s="14" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647" s="11" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B647" s="12" t="s">
         <v>1383</v>
@@ -24252,12 +24253,12 @@
         <v>2192</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648" s="11" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B648" s="12" t="s">
         <v>1383</v>
@@ -24269,609 +24270,609 @@
         <v>2154</v>
       </c>
       <c r="E648" s="13" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F648" s="14" t="s">
         <v>2260</v>
-      </c>
-      <c r="F648" s="14" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649" s="11" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B649" s="12" t="s">
         <v>642</v>
       </c>
       <c r="C649" s="13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D649" s="13" t="s">
         <v>2263</v>
       </c>
-      <c r="D649" s="13" t="s">
+      <c r="E649" s="13" t="s">
         <v>2264</v>
       </c>
-      <c r="E649" s="13" t="s">
+      <c r="F649" s="14" t="s">
         <v>2265</v>
-      </c>
-      <c r="F649" s="14" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650" s="11" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B650" s="12" t="s">
         <v>642</v>
       </c>
       <c r="C650" s="13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D650" s="13" t="s">
         <v>2263</v>
       </c>
-      <c r="D650" s="13" t="s">
-        <v>2264</v>
-      </c>
       <c r="E650" s="13" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F650" s="14" t="s">
         <v>2268</v>
-      </c>
-      <c r="F650" s="14" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651" s="11" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B651" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C651" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D651" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D651" s="13" t="s">
+      <c r="E651" s="13" t="s">
         <v>2272</v>
       </c>
-      <c r="E651" s="13" t="s">
+      <c r="F651" s="14" t="s">
         <v>2273</v>
-      </c>
-      <c r="F651" s="14" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652" s="11" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B652" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C652" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D652" s="13" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E652" s="13" t="s">
         <v>2276</v>
-      </c>
-      <c r="E652" s="13" t="s">
-        <v>2277</v>
       </c>
       <c r="F652" s="15"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653" s="11" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B653" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C653" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D653" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E653" s="13" t="s">
         <v>2279</v>
       </c>
-      <c r="E653" s="13" t="s">
+      <c r="F653" s="14" t="s">
         <v>2280</v>
-      </c>
-      <c r="F653" s="14" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654" s="11" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B654" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C654" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D654" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E654" s="13" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F654" s="15"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655" s="11" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B655" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C655" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D655" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E655" s="13" t="s">
         <v>2285</v>
       </c>
-      <c r="E655" s="13" t="s">
+      <c r="F655" s="14" t="s">
         <v>2286</v>
-      </c>
-      <c r="F655" s="14" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656" s="11" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B656" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C656" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D656" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E656" s="13" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F656" s="14" t="s">
         <v>2289</v>
-      </c>
-      <c r="F656" s="14" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657" s="11" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B657" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C657" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D657" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D657" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E657" s="13" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F657" s="14" t="s">
         <v>2292</v>
-      </c>
-      <c r="F657" s="14" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658" s="11" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B658" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C658" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D658" s="13" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E658" s="13" t="s">
         <v>2295</v>
       </c>
-      <c r="E658" s="13" t="s">
+      <c r="F658" s="14" t="s">
         <v>2296</v>
-      </c>
-      <c r="F658" s="14" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659" s="11" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B659" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C659" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D659" s="13" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E659" s="13" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F659" s="14" t="s">
         <v>2299</v>
-      </c>
-      <c r="F659" s="14" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660" s="11" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B660" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C660" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D660" s="13" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E660" s="13" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F660" s="15"/>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661" s="11" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B661" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C661" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D661" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E661" s="13" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F661" s="14" t="s">
         <v>2304</v>
-      </c>
-      <c r="F661" s="14" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662" s="11" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B662" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C662" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D662" s="13" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E662" s="13" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F662" s="14" t="s">
         <v>2307</v>
-      </c>
-      <c r="F662" s="14" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663" s="11" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B663" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C663" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D663" s="13" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E663" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F663" s="14" t="s">
         <v>2310</v>
-      </c>
-      <c r="F663" s="14" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664" s="11" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B664" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C664" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D664" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E664" s="13" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F664" s="14" t="s">
         <v>2313</v>
-      </c>
-      <c r="F664" s="14" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665" s="11" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B665" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C665" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D665" s="13" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E665" s="13" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F665" s="14" t="s">
         <v>2316</v>
-      </c>
-      <c r="F665" s="14" t="s">
-        <v>2317</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666" s="11" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B666" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C666" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D666" s="13" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E666" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F666" s="14" t="s">
         <v>2319</v>
-      </c>
-      <c r="F666" s="14" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667" s="11" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B667" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C667" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D667" s="13" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E667" s="13" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F667" s="14" t="s">
         <v>2322</v>
-      </c>
-      <c r="F667" s="14" t="s">
-        <v>2323</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668" s="11" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B668" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C668" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D668" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D668" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E668" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F668" s="14" t="s">
         <v>2325</v>
-      </c>
-      <c r="F668" s="14" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669" s="11" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B669" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C669" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D669" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D669" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E669" s="13" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F669" s="14" t="s">
         <v>2328</v>
-      </c>
-      <c r="F669" s="14" t="s">
-        <v>2329</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670" s="11" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B670" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D670" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E670" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F670" s="14" t="s">
         <v>2331</v>
-      </c>
-      <c r="F670" s="14" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671" s="11" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B671" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C671" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D671" s="13" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E671" s="13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F671" s="14" t="s">
         <v>2334</v>
-      </c>
-      <c r="F671" s="14" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672" s="11" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B672" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C672" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D672" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D672" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E672" s="13" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F672" s="14" t="s">
         <v>2337</v>
-      </c>
-      <c r="F672" s="14" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673" s="11" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B673" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C673" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D673" s="13" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E673" s="13" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F673" s="14" t="s">
         <v>2340</v>
-      </c>
-      <c r="F673" s="14" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674" s="11" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B674" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C674" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D674" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D674" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E674" s="13" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F674" s="14" t="s">
         <v>2343</v>
-      </c>
-      <c r="F674" s="14" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675" s="11" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B675" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C675" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D675" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D675" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E675" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F675" s="14" t="s">
         <v>2346</v>
-      </c>
-      <c r="F675" s="14" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676" s="11" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B676" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C676" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D676" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D676" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E676" s="13" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F676" s="14" t="s">
         <v>2349</v>
-      </c>
-      <c r="F676" s="14" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677" s="11" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B677" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C677" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D677" s="13" t="s">
         <v>2271</v>
       </c>
-      <c r="D677" s="13" t="s">
-        <v>2272</v>
-      </c>
       <c r="E677" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F677" s="14" t="s">
         <v>2352</v>
-      </c>
-      <c r="F677" s="14" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678" s="11" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B678" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C678" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D678" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E678" s="13" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F678" s="14" t="s">
         <v>2355</v>
-      </c>
-      <c r="F678" s="14" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679" s="11" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B679" s="12" t="s">
         <v>437</v>
@@ -24883,15 +24884,15 @@
         <v>1592</v>
       </c>
       <c r="E679" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F679" s="14" t="s">
         <v>2358</v>
-      </c>
-      <c r="F679" s="14" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680" s="11" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B680" s="12" t="s">
         <v>437</v>
@@ -24900,18 +24901,18 @@
         <v>1414</v>
       </c>
       <c r="D680" s="13" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E680" s="13" t="s">
         <v>2361</v>
       </c>
-      <c r="E680" s="13" t="s">
+      <c r="F680" s="14" t="s">
         <v>2362</v>
-      </c>
-      <c r="F680" s="14" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681" s="11" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B681" s="12" t="s">
         <v>437</v>
@@ -24920,98 +24921,98 @@
         <v>1414</v>
       </c>
       <c r="D681" s="13" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E681" s="13" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F681" s="14" t="s">
         <v>2365</v>
-      </c>
-      <c r="F681" s="14" t="s">
-        <v>2366</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682" s="11" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B682" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C682" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D682" s="13" t="s">
         <v>2368</v>
       </c>
-      <c r="D682" s="13" t="s">
+      <c r="E682" s="13" t="s">
         <v>2369</v>
       </c>
-      <c r="E682" s="13" t="s">
+      <c r="F682" s="14" t="s">
         <v>2370</v>
-      </c>
-      <c r="F682" s="14" t="s">
-        <v>2371</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683" s="11" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B683" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C683" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D683" s="13" t="s">
         <v>2368</v>
       </c>
-      <c r="D683" s="13" t="s">
-        <v>2369</v>
-      </c>
       <c r="E683" s="13" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F683" s="14" t="s">
         <v>2373</v>
-      </c>
-      <c r="F683" s="14" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684" s="11" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B684" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C684" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D684" s="13" t="s">
         <v>2368</v>
       </c>
-      <c r="D684" s="13" t="s">
-        <v>2369</v>
-      </c>
       <c r="E684" s="13" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F684" s="14" t="s">
         <v>2376</v>
-      </c>
-      <c r="F684" s="14" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685" s="11" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B685" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C685" s="13" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D685" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E685" s="13" t="s">
         <v>2379</v>
       </c>
-      <c r="E685" s="13" t="s">
+      <c r="F685" s="14" t="s">
         <v>2380</v>
-      </c>
-      <c r="F685" s="14" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686" s="11" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B686" s="12" t="s">
         <v>216</v>
@@ -25020,16 +25021,16 @@
         <v>1691</v>
       </c>
       <c r="D686" s="13" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E686" s="13" t="s">
         <v>2383</v>
-      </c>
-      <c r="E686" s="13" t="s">
-        <v>2384</v>
       </c>
       <c r="F686" s="15"/>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687" s="11" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B687" s="12" t="s">
         <v>469</v>
@@ -25041,15 +25042,15 @@
         <v>536</v>
       </c>
       <c r="E687" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F687" s="14" t="s">
         <v>2386</v>
-      </c>
-      <c r="F687" s="14" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688" s="11" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B688" s="12" t="s">
         <v>469</v>
@@ -25061,7 +25062,7 @@
         <v>536</v>
       </c>
       <c r="E688" s="13" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="F688" s="16">
         <v>4008728120</v>
@@ -25069,7 +25070,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689" s="11" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B689" s="12" t="s">
         <v>469</v>
@@ -25081,15 +25082,15 @@
         <v>536</v>
       </c>
       <c r="E689" s="13" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F689" s="14" t="s">
         <v>2391</v>
-      </c>
-      <c r="F689" s="14" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690" s="11" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B690" s="12" t="s">
         <v>469</v>
@@ -25101,15 +25102,15 @@
         <v>536</v>
       </c>
       <c r="E690" s="13" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F690" s="14" t="s">
         <v>2394</v>
-      </c>
-      <c r="F690" s="14" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691" s="11" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B691" s="12" t="s">
         <v>469</v>
@@ -25121,15 +25122,15 @@
         <v>536</v>
       </c>
       <c r="E691" s="13" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F691" s="14" t="s">
         <v>2394</v>
-      </c>
-      <c r="F691" s="14" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692" s="11" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B692" s="12" t="s">
         <v>469</v>
@@ -25141,15 +25142,15 @@
         <v>536</v>
       </c>
       <c r="E692" s="13" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F692" s="14" t="s">
         <v>2391</v>
-      </c>
-      <c r="F692" s="14" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693" s="11" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B693" s="12" t="s">
         <v>469</v>
@@ -25161,15 +25162,15 @@
         <v>536</v>
       </c>
       <c r="E693" s="13" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F693" s="14" t="s">
         <v>2399</v>
-      </c>
-      <c r="F693" s="14" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694" s="11" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B694" s="12" t="s">
         <v>258</v>
@@ -25181,53 +25182,53 @@
         <v>260</v>
       </c>
       <c r="E694" s="13" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F694" s="14" t="s">
         <v>2402</v>
-      </c>
-      <c r="F694" s="14" t="s">
-        <v>2403</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695" s="11" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B695" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C695" s="13" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D695" s="13" t="s">
         <v>2405</v>
       </c>
-      <c r="D695" s="13" t="s">
+      <c r="E695" s="13" t="s">
         <v>2406</v>
-      </c>
-      <c r="E695" s="13" t="s">
-        <v>2407</v>
       </c>
       <c r="F695" s="15"/>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696" s="11" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B696" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C696" s="13" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D696" s="13" t="s">
         <v>2405</v>
       </c>
-      <c r="D696" s="13" t="s">
-        <v>2406</v>
-      </c>
       <c r="E696" s="13" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F696" s="14" t="s">
         <v>2409</v>
-      </c>
-      <c r="F696" s="14" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697" s="11" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B697" s="12" t="s">
         <v>258</v>
@@ -25239,35 +25240,35 @@
         <v>305</v>
       </c>
       <c r="E697" s="13" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F697" s="14" t="s">
         <v>2412</v>
-      </c>
-      <c r="F697" s="14" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698" s="11" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B698" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C698" s="13" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D698" s="13" t="s">
         <v>2405</v>
       </c>
-      <c r="D698" s="13" t="s">
-        <v>2406</v>
-      </c>
       <c r="E698" s="13" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F698" s="14" t="s">
         <v>2415</v>
-      </c>
-      <c r="F698" s="14" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699" s="11" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B699" s="12" t="s">
         <v>654</v>
@@ -25279,33 +25280,33 @@
         <v>656</v>
       </c>
       <c r="E699" s="13" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F699" s="14" t="s">
         <v>2418</v>
-      </c>
-      <c r="F699" s="14" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700" s="11" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B700" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C700" s="13" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D700" s="13" t="s">
         <v>2421</v>
       </c>
-      <c r="D700" s="13" t="s">
+      <c r="E700" s="13" t="s">
         <v>2422</v>
-      </c>
-      <c r="E700" s="13" t="s">
-        <v>2423</v>
       </c>
       <c r="F700" s="15"/>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701" s="11" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B701" s="12" t="s">
         <v>236</v>
@@ -25314,18 +25315,18 @@
         <v>237</v>
       </c>
       <c r="D701" s="13" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E701" s="13" t="s">
         <v>2425</v>
       </c>
-      <c r="E701" s="13" t="s">
+      <c r="F701" s="14" t="s">
         <v>2426</v>
-      </c>
-      <c r="F701" s="14" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702" s="11" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B702" s="12" t="s">
         <v>236</v>
@@ -25334,18 +25335,18 @@
         <v>237</v>
       </c>
       <c r="D702" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E702" s="13" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F702" s="14" t="s">
         <v>2429</v>
-      </c>
-      <c r="F702" s="14" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703" s="11" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B703" s="12" t="s">
         <v>236</v>
@@ -25354,16 +25355,16 @@
         <v>237</v>
       </c>
       <c r="D703" s="13" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E703" s="13" t="s">
         <v>2432</v>
-      </c>
-      <c r="E703" s="13" t="s">
-        <v>2433</v>
       </c>
       <c r="F703" s="15"/>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704" s="11" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B704" s="12" t="s">
         <v>236</v>
@@ -25372,18 +25373,18 @@
         <v>237</v>
       </c>
       <c r="D704" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E704" s="13" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F704" s="14" t="s">
         <v>2435</v>
-      </c>
-      <c r="F704" s="14" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705" s="11" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B705" s="12" t="s">
         <v>236</v>
@@ -25392,18 +25393,18 @@
         <v>237</v>
       </c>
       <c r="D705" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E705" s="13" t="s">
         <v>2438</v>
       </c>
-      <c r="E705" s="13" t="s">
+      <c r="F705" s="14" t="s">
         <v>2439</v>
-      </c>
-      <c r="F705" s="14" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706" s="11" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B706" s="12" t="s">
         <v>236</v>
@@ -25412,18 +25413,18 @@
         <v>237</v>
       </c>
       <c r="D706" s="13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E706" s="13" t="s">
         <v>2442</v>
       </c>
-      <c r="E706" s="13" t="s">
+      <c r="F706" s="14" t="s">
         <v>2443</v>
-      </c>
-      <c r="F706" s="14" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707" s="11" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B707" s="12" t="s">
         <v>236</v>
@@ -25432,18 +25433,18 @@
         <v>237</v>
       </c>
       <c r="D707" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E707" s="13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F707" s="14" t="s">
         <v>2446</v>
-      </c>
-      <c r="F707" s="14" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708" s="11" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B708" s="12" t="s">
         <v>236</v>
@@ -25452,18 +25453,18 @@
         <v>237</v>
       </c>
       <c r="D708" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E708" s="13" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F708" s="14" t="s">
         <v>2449</v>
-      </c>
-      <c r="F708" s="14" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709" s="11" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B709" s="12" t="s">
         <v>236</v>
@@ -25472,98 +25473,98 @@
         <v>237</v>
       </c>
       <c r="D709" s="13" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E709" s="13" t="s">
         <v>2452</v>
       </c>
-      <c r="E709" s="13" t="s">
+      <c r="F709" s="14" t="s">
         <v>2453</v>
-      </c>
-      <c r="F709" s="14" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710" s="11" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B710" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C710" s="13" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D710" s="13" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E710" s="13" t="s">
         <v>2456</v>
       </c>
-      <c r="E710" s="13" t="s">
+      <c r="F710" s="14" t="s">
         <v>2457</v>
-      </c>
-      <c r="F710" s="14" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711" s="11" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B711" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C711" s="13" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D711" s="13" t="s">
         <v>2460</v>
       </c>
-      <c r="D711" s="13" t="s">
+      <c r="E711" s="13" t="s">
         <v>2461</v>
       </c>
-      <c r="E711" s="13" t="s">
+      <c r="F711" s="14" t="s">
         <v>2462</v>
-      </c>
-      <c r="F711" s="14" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712" s="11" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B712" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C712" s="13" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D712" s="13" t="s">
         <v>2465</v>
       </c>
-      <c r="D712" s="13" t="s">
+      <c r="E712" s="13" t="s">
         <v>2466</v>
       </c>
-      <c r="E712" s="13" t="s">
+      <c r="F712" s="14" t="s">
         <v>2467</v>
-      </c>
-      <c r="F712" s="14" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713" s="11" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C713" s="13" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D713" s="13" t="s">
         <v>2465</v>
       </c>
-      <c r="D713" s="13" t="s">
-        <v>2466</v>
-      </c>
       <c r="E713" s="13" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F713" s="14" t="s">
         <v>2470</v>
-      </c>
-      <c r="F713" s="14" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714" s="11" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>451</v>
@@ -25575,15 +25576,15 @@
         <v>2047</v>
       </c>
       <c r="E714" s="13" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F714" s="14" t="s">
         <v>2473</v>
-      </c>
-      <c r="F714" s="14" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715" s="11" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>451</v>
@@ -25595,15 +25596,15 @@
         <v>1344</v>
       </c>
       <c r="E715" s="13" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F715" s="14" t="s">
         <v>2476</v>
-      </c>
-      <c r="F715" s="14" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716" s="11" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>451</v>
@@ -25615,15 +25616,15 @@
         <v>2047</v>
       </c>
       <c r="E716" s="13" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F716" s="14" t="s">
         <v>2479</v>
-      </c>
-      <c r="F716" s="14" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717" s="11" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>451</v>
@@ -25635,15 +25636,15 @@
         <v>2047</v>
       </c>
       <c r="E717" s="13" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F717" s="14" t="s">
         <v>2482</v>
-      </c>
-      <c r="F717" s="14" t="s">
-        <v>2483</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718" s="11" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B718" s="12" t="s">
         <v>451</v>
@@ -25655,15 +25656,15 @@
         <v>1344</v>
       </c>
       <c r="E718" s="13" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F718" s="14" t="s">
         <v>2485</v>
-      </c>
-      <c r="F718" s="14" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719" s="11" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B719" s="12" t="s">
         <v>451</v>
@@ -25675,15 +25676,15 @@
         <v>2047</v>
       </c>
       <c r="E719" s="13" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F719" s="14" t="s">
         <v>2488</v>
-      </c>
-      <c r="F719" s="14" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720" s="11" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B720" s="12" t="s">
         <v>236</v>
@@ -25692,18 +25693,18 @@
         <v>457</v>
       </c>
       <c r="D720" s="13" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E720" s="13" t="s">
         <v>2491</v>
       </c>
-      <c r="E720" s="13" t="s">
+      <c r="F720" s="14" t="s">
         <v>2492</v>
-      </c>
-      <c r="F720" s="14" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721" s="11" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B721" s="12" t="s">
         <v>236</v>
@@ -25712,18 +25713,18 @@
         <v>457</v>
       </c>
       <c r="D721" s="13" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E721" s="13" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F721" s="14" t="s">
         <v>2495</v>
-      </c>
-      <c r="F721" s="14" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722" s="11" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B722" s="12" t="s">
         <v>236</v>
@@ -25732,174 +25733,174 @@
         <v>457</v>
       </c>
       <c r="D722" s="13" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E722" s="13" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F722" s="14" t="s">
         <v>2498</v>
-      </c>
-      <c r="F722" s="14" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723" s="11" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B723" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C723" s="13" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D723" s="13" t="s">
         <v>2501</v>
       </c>
-      <c r="D723" s="13" t="s">
+      <c r="E723" s="13" t="s">
         <v>2502</v>
       </c>
-      <c r="E723" s="13" t="s">
+      <c r="F723" s="14" t="s">
         <v>2503</v>
-      </c>
-      <c r="F723" s="14" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724" s="11" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B724" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C724" s="13" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D724" s="13" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E724" s="13" t="s">
         <v>2506</v>
       </c>
-      <c r="E724" s="13" t="s">
+      <c r="F724" s="14" t="s">
         <v>2507</v>
-      </c>
-      <c r="F724" s="14" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725" s="11" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B725" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C725" s="13" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D725" s="13" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E725" s="13" t="s">
         <v>2510</v>
       </c>
-      <c r="E725" s="13" t="s">
+      <c r="F725" s="14" t="s">
         <v>2511</v>
-      </c>
-      <c r="F725" s="14" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726" s="11" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B726" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C726" s="13" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D726" s="13" t="s">
         <v>2501</v>
       </c>
-      <c r="D726" s="13" t="s">
-        <v>2502</v>
-      </c>
       <c r="E726" s="13" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F726" s="14" t="s">
         <v>2514</v>
-      </c>
-      <c r="F726" s="14" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727" s="11" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B727" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C727" s="13" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D727" s="13" t="s">
         <v>2501</v>
       </c>
-      <c r="D727" s="13" t="s">
-        <v>2502</v>
-      </c>
       <c r="E727" s="13" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F727" s="14" t="s">
         <v>2517</v>
-      </c>
-      <c r="F727" s="14" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728" s="11" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B728" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C728" s="13" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D728" s="13" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E728" s="13" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F728" s="15"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729" s="11" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B729" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C729" s="13" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D729" s="13" t="s">
         <v>2501</v>
       </c>
-      <c r="D729" s="13" t="s">
-        <v>2502</v>
-      </c>
       <c r="E729" s="13" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F729" s="14" t="s">
         <v>2521</v>
-      </c>
-      <c r="F729" s="14" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730" s="11" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B730" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C730" s="13" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D730" s="13" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E730" s="13" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="F730" s="15"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731" s="11" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B731" s="12" t="s">
         <v>432</v>
@@ -25911,7 +25912,7 @@
         <v>1419</v>
       </c>
       <c r="E731" s="13" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F731" s="16">
         <v>15922061177</v>
@@ -25919,7 +25920,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732" s="11" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B732" s="12" t="s">
         <v>432</v>
@@ -25928,18 +25929,18 @@
         <v>432</v>
       </c>
       <c r="D732" s="13" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E732" s="13" t="s">
         <v>2528</v>
       </c>
-      <c r="E732" s="13" t="s">
+      <c r="F732" s="14" t="s">
         <v>2529</v>
-      </c>
-      <c r="F732" s="14" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733" s="11" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B733" s="12" t="s">
         <v>432</v>
@@ -25948,16 +25949,16 @@
         <v>432</v>
       </c>
       <c r="D733" s="13" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E733" s="13" t="s">
         <v>2532</v>
-      </c>
-      <c r="E733" s="13" t="s">
-        <v>2533</v>
       </c>
       <c r="F733" s="15"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734" s="11" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B734" s="12" t="s">
         <v>432</v>
@@ -25969,15 +25970,15 @@
         <v>1419</v>
       </c>
       <c r="E734" s="13" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F734" s="14" t="s">
         <v>2535</v>
-      </c>
-      <c r="F734" s="14" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735" s="11" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B735" s="12" t="s">
         <v>432</v>
@@ -25986,18 +25987,18 @@
         <v>432</v>
       </c>
       <c r="D735" s="13" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E735" s="13" t="s">
         <v>2538</v>
       </c>
-      <c r="E735" s="13" t="s">
+      <c r="F735" s="14" t="s">
         <v>2539</v>
-      </c>
-      <c r="F735" s="14" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736" s="11" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B736" s="12" t="s">
         <v>432</v>
@@ -26006,18 +26007,18 @@
         <v>432</v>
       </c>
       <c r="D736" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E736" s="13" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F736" s="14" t="s">
         <v>2542</v>
-      </c>
-      <c r="F736" s="14" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737" s="11" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B737" s="12" t="s">
         <v>432</v>
@@ -26026,18 +26027,18 @@
         <v>432</v>
       </c>
       <c r="D737" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E737" s="13" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F737" s="14" t="s">
         <v>2545</v>
-      </c>
-      <c r="F737" s="14" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738" s="11" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B738" s="12" t="s">
         <v>432</v>
@@ -26046,18 +26047,18 @@
         <v>432</v>
       </c>
       <c r="D738" s="13" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E738" s="13" t="s">
         <v>2548</v>
       </c>
-      <c r="E738" s="13" t="s">
+      <c r="F738" s="14" t="s">
         <v>2549</v>
-      </c>
-      <c r="F738" s="14" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739" s="11" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B739" s="12" t="s">
         <v>432</v>
@@ -26066,18 +26067,18 @@
         <v>432</v>
       </c>
       <c r="D739" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E739" s="13" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F739" s="14" t="s">
         <v>2552</v>
-      </c>
-      <c r="F739" s="14" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740" s="11" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B740" s="12" t="s">
         <v>432</v>
@@ -26086,18 +26087,18 @@
         <v>432</v>
       </c>
       <c r="D740" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E740" s="13" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F740" s="14" t="s">
         <v>2555</v>
-      </c>
-      <c r="F740" s="14" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741" s="11" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B741" s="12" t="s">
         <v>432</v>
@@ -26106,18 +26107,18 @@
         <v>432</v>
       </c>
       <c r="D741" s="13" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E741" s="13" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F741" s="14" t="s">
         <v>2558</v>
-      </c>
-      <c r="F741" s="14" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742" s="11" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B742" s="12" t="s">
         <v>432</v>
@@ -26129,15 +26130,15 @@
         <v>1419</v>
       </c>
       <c r="E742" s="13" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F742" s="14" t="s">
         <v>2561</v>
-      </c>
-      <c r="F742" s="14" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743" s="11" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B743" s="12" t="s">
         <v>432</v>
@@ -26146,18 +26147,18 @@
         <v>432</v>
       </c>
       <c r="D743" s="13" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E743" s="13" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F743" s="14" t="s">
         <v>2564</v>
-      </c>
-      <c r="F743" s="14" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744" s="11" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B744" s="12" t="s">
         <v>432</v>
@@ -26166,18 +26167,18 @@
         <v>432</v>
       </c>
       <c r="D744" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E744" s="13" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F744" s="14" t="s">
         <v>2567</v>
-      </c>
-      <c r="F744" s="14" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745" s="11" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B745" s="12" t="s">
         <v>432</v>
@@ -26186,18 +26187,18 @@
         <v>432</v>
       </c>
       <c r="D745" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E745" s="13" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F745" s="14" t="s">
         <v>2570</v>
-      </c>
-      <c r="F745" s="14" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746" s="11" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B746" s="12" t="s">
         <v>432</v>
@@ -26206,18 +26207,18 @@
         <v>432</v>
       </c>
       <c r="D746" s="13" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E746" s="13" t="s">
         <v>2573</v>
       </c>
-      <c r="E746" s="13" t="s">
+      <c r="F746" s="14" t="s">
         <v>2574</v>
-      </c>
-      <c r="F746" s="14" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747" s="11" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B747" s="12" t="s">
         <v>432</v>
@@ -26229,15 +26230,15 @@
         <v>1335</v>
       </c>
       <c r="E747" s="13" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F747" s="14" t="s">
         <v>2577</v>
-      </c>
-      <c r="F747" s="14" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748" s="11" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B748" s="12" t="s">
         <v>432</v>
@@ -26249,15 +26250,15 @@
         <v>1419</v>
       </c>
       <c r="E748" s="13" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F748" s="14" t="s">
         <v>2580</v>
-      </c>
-      <c r="F748" s="14" t="s">
-        <v>2581</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749" s="11" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B749" s="12" t="s">
         <v>432</v>
@@ -26269,15 +26270,15 @@
         <v>1419</v>
       </c>
       <c r="E749" s="13" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F749" s="14" t="s">
         <v>2580</v>
-      </c>
-      <c r="F749" s="14" t="s">
-        <v>2581</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750" s="11" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B750" s="12" t="s">
         <v>432</v>
@@ -26289,115 +26290,115 @@
         <v>1335</v>
       </c>
       <c r="E750" s="13" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F750" s="14" t="s">
         <v>2584</v>
-      </c>
-      <c r="F750" s="14" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751" s="11" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B751" s="12" t="s">
         <v>1543</v>
       </c>
       <c r="C751" s="13" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D751" s="13" t="s">
         <v>2587</v>
       </c>
-      <c r="D751" s="13" t="s">
+      <c r="E751" s="13" t="s">
         <v>2588</v>
       </c>
-      <c r="E751" s="13" t="s">
+      <c r="F751" s="14" t="s">
         <v>2589</v>
-      </c>
-      <c r="F751" s="14" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752" s="11" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B752" s="12" t="s">
         <v>1543</v>
       </c>
       <c r="C752" s="13" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D752" s="13" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E752" s="13" t="s">
         <v>2592</v>
       </c>
-      <c r="E752" s="13" t="s">
+      <c r="F752" s="14" t="s">
         <v>2593</v>
-      </c>
-      <c r="F752" s="14" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753" s="11" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B753" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C753" s="13" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D753" s="13" t="s">
         <v>2596</v>
       </c>
-      <c r="D753" s="13" t="s">
+      <c r="E753" s="13" t="s">
         <v>2597</v>
       </c>
-      <c r="E753" s="13" t="s">
+      <c r="F753" s="14" t="s">
         <v>2598</v>
-      </c>
-      <c r="F753" s="14" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754" s="11" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B754" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C754" s="13" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D754" s="13" t="s">
         <v>2601</v>
       </c>
-      <c r="D754" s="13" t="s">
+      <c r="E754" s="13" t="s">
         <v>2602</v>
       </c>
-      <c r="E754" s="13" t="s">
+      <c r="F754" s="14" t="s">
         <v>2603</v>
-      </c>
-      <c r="F754" s="14" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755" s="11" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B755" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C755" s="13" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D755" s="13" t="s">
         <v>2606</v>
       </c>
-      <c r="D755" s="13" t="s">
+      <c r="E755" s="13" t="s">
         <v>2607</v>
       </c>
-      <c r="E755" s="13" t="s">
+      <c r="F755" s="14" t="s">
         <v>2608</v>
-      </c>
-      <c r="F755" s="14" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756" s="11" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B756" s="12" t="s">
         <v>351</v>
@@ -26409,35 +26410,35 @@
         <v>395</v>
       </c>
       <c r="E756" s="13" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F756" s="14" t="s">
         <v>2611</v>
-      </c>
-      <c r="F756" s="14" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757" s="11" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B757" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C757" s="13" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D757" s="13" t="s">
         <v>2614</v>
       </c>
-      <c r="D757" s="13" t="s">
+      <c r="E757" s="13" t="s">
         <v>2615</v>
       </c>
-      <c r="E757" s="13" t="s">
+      <c r="F757" s="14" t="s">
         <v>2616</v>
-      </c>
-      <c r="F757" s="14" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758" s="11" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B758" s="12" t="s">
         <v>230</v>
@@ -26446,18 +26447,18 @@
         <v>231</v>
       </c>
       <c r="D758" s="13" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E758" s="13" t="s">
         <v>2619</v>
       </c>
-      <c r="E758" s="13" t="s">
+      <c r="F758" s="14" t="s">
         <v>2620</v>
-      </c>
-      <c r="F758" s="14" t="s">
-        <v>2621</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759" s="11" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B759" s="12" t="s">
         <v>230</v>
@@ -26466,56 +26467,56 @@
         <v>231</v>
       </c>
       <c r="D759" s="13" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E759" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F759" s="14" t="s">
         <v>2623</v>
-      </c>
-      <c r="F759" s="14" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760" s="11" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B760" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D760" s="13" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E760" s="13" t="s">
         <v>2626</v>
       </c>
-      <c r="E760" s="13" t="s">
+      <c r="F760" s="14" t="s">
         <v>2627</v>
-      </c>
-      <c r="F760" s="14" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761" s="11" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B761" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C761" s="13" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D761" s="13" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E761" s="13" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="F761" s="15"/>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762" s="11" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B762" s="12" t="s">
         <v>420</v>
@@ -26524,18 +26525,18 @@
         <v>1569</v>
       </c>
       <c r="D762" s="13" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E762" s="13" t="s">
         <v>2632</v>
       </c>
-      <c r="E762" s="13" t="s">
+      <c r="F762" s="14" t="s">
         <v>2633</v>
-      </c>
-      <c r="F762" s="14" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763" s="11" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B763" s="12" t="s">
         <v>420</v>
@@ -26544,18 +26545,18 @@
         <v>1569</v>
       </c>
       <c r="D763" s="13" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E763" s="13" t="s">
         <v>2636</v>
       </c>
-      <c r="E763" s="13" t="s">
+      <c r="F763" s="14" t="s">
         <v>2637</v>
-      </c>
-      <c r="F763" s="14" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764" s="11" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B764" s="12" t="s">
         <v>420</v>
@@ -26564,18 +26565,18 @@
         <v>1569</v>
       </c>
       <c r="D764" s="13" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E764" s="13" t="s">
         <v>2640</v>
       </c>
-      <c r="E764" s="13" t="s">
+      <c r="F764" s="14" t="s">
         <v>2641</v>
-      </c>
-      <c r="F764" s="14" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765" s="11" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B765" s="12" t="s">
         <v>420</v>
@@ -26584,18 +26585,18 @@
         <v>1569</v>
       </c>
       <c r="D765" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="E765" s="13" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F765" s="14" t="s">
         <v>2644</v>
-      </c>
-      <c r="F765" s="14" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766" s="11" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B766" s="12" t="s">
         <v>420</v>
@@ -26604,16 +26605,16 @@
         <v>1569</v>
       </c>
       <c r="D766" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="E766" s="13" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="F766" s="15"/>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767" s="11" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B767" s="12" t="s">
         <v>420</v>
@@ -26622,18 +26623,18 @@
         <v>1569</v>
       </c>
       <c r="D767" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="E767" s="13" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F767" s="14" t="s">
         <v>2649</v>
-      </c>
-      <c r="F767" s="14" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768" s="11" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B768" s="12" t="s">
         <v>420</v>
@@ -26645,13 +26646,13 @@
         <v>1996</v>
       </c>
       <c r="E768" s="13" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="F768" s="15"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769" s="11" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B769" s="12" t="s">
         <v>420</v>
@@ -26663,15 +26664,15 @@
         <v>1570</v>
       </c>
       <c r="E769" s="13" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F769" s="14" t="s">
         <v>2654</v>
-      </c>
-      <c r="F769" s="14" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770" s="11" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B770" s="12" t="s">
         <v>420</v>
@@ -26680,56 +26681,56 @@
         <v>1569</v>
       </c>
       <c r="D770" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="E770" s="13" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="F770" s="15"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771" s="11" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B771" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C771" s="13" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D771" s="13" t="s">
         <v>2659</v>
       </c>
-      <c r="D771" s="13" t="s">
+      <c r="E771" s="13" t="s">
         <v>2660</v>
       </c>
-      <c r="E771" s="13" t="s">
+      <c r="F771" s="14" t="s">
         <v>2661</v>
-      </c>
-      <c r="F771" s="14" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772" s="11" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B772" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C772" s="13" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D772" s="13" t="s">
         <v>2664</v>
       </c>
-      <c r="D772" s="13" t="s">
+      <c r="E772" s="13" t="s">
         <v>2665</v>
       </c>
-      <c r="E772" s="13" t="s">
+      <c r="F772" s="14" t="s">
         <v>2666</v>
-      </c>
-      <c r="F772" s="14" t="s">
-        <v>2667</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773" s="11" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B773" s="12" t="s">
         <v>814</v>
@@ -26738,18 +26739,18 @@
         <v>1423</v>
       </c>
       <c r="D773" s="13" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E773" s="13" t="s">
         <v>2669</v>
       </c>
-      <c r="E773" s="13" t="s">
+      <c r="F773" s="14" t="s">
         <v>2670</v>
-      </c>
-      <c r="F773" s="14" t="s">
-        <v>2671</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774" s="11" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B774" s="12" t="s">
         <v>814</v>
@@ -26758,18 +26759,18 @@
         <v>1423</v>
       </c>
       <c r="D774" s="13" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E774" s="13" t="s">
         <v>2673</v>
       </c>
-      <c r="E774" s="13" t="s">
+      <c r="F774" s="14" t="s">
         <v>2674</v>
-      </c>
-      <c r="F774" s="14" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775" s="11" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B775" s="12" t="s">
         <v>814</v>
@@ -26778,18 +26779,18 @@
         <v>1423</v>
       </c>
       <c r="D775" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E775" s="13" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F775" s="14" t="s">
         <v>2677</v>
-      </c>
-      <c r="F775" s="14" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776" s="11" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>814</v>
@@ -26798,18 +26799,18 @@
         <v>1423</v>
       </c>
       <c r="D776" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E776" s="13" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F776" s="14" t="s">
         <v>2680</v>
-      </c>
-      <c r="F776" s="14" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777" s="11" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B777" s="12" t="s">
         <v>236</v>
@@ -26818,18 +26819,18 @@
         <v>1230</v>
       </c>
       <c r="D777" s="13" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E777" s="13" t="s">
         <v>2683</v>
       </c>
-      <c r="E777" s="13" t="s">
+      <c r="F777" s="14" t="s">
         <v>2684</v>
-      </c>
-      <c r="F777" s="14" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778" s="11" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B778" s="12" t="s">
         <v>236</v>
@@ -26838,18 +26839,18 @@
         <v>1230</v>
       </c>
       <c r="D778" s="13" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E778" s="13" t="s">
         <v>2687</v>
       </c>
-      <c r="E778" s="13" t="s">
+      <c r="F778" s="14" t="s">
         <v>2688</v>
-      </c>
-      <c r="F778" s="14" t="s">
-        <v>2689</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A779" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B779" s="12" t="s">
         <v>236</v>
@@ -26858,18 +26859,18 @@
         <v>1230</v>
       </c>
       <c r="D779" s="13" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E779" s="13" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F779" s="14" t="s">
         <v>2691</v>
-      </c>
-      <c r="F779" s="14" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A780" s="11" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B780" s="12" t="s">
         <v>236</v>
@@ -26878,18 +26879,18 @@
         <v>1230</v>
       </c>
       <c r="D780" s="13" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E780" s="13" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F780" s="14" t="s">
         <v>2694</v>
-      </c>
-      <c r="F780" s="14" t="s">
-        <v>2695</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A781" s="11" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B781" s="12" t="s">
         <v>236</v>
@@ -26898,18 +26899,18 @@
         <v>1230</v>
       </c>
       <c r="D781" s="13" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E781" s="13" t="s">
         <v>2697</v>
       </c>
-      <c r="E781" s="13" t="s">
+      <c r="F781" s="14" t="s">
         <v>2698</v>
-      </c>
-      <c r="F781" s="14" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A782" s="11" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B782" s="12" t="s">
         <v>236</v>
@@ -26918,18 +26919,18 @@
         <v>1230</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E782" s="13" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F782" s="14" t="s">
         <v>2701</v>
-      </c>
-      <c r="F782" s="14" t="s">
-        <v>2702</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A783" s="11" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B783" s="12" t="s">
         <v>236</v>
@@ -26938,18 +26939,18 @@
         <v>1230</v>
       </c>
       <c r="D783" s="13" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E783" s="13" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F783" s="14" t="s">
         <v>2704</v>
-      </c>
-      <c r="F783" s="14" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A784" s="11" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B784" s="12" t="s">
         <v>236</v>
@@ -26958,18 +26959,18 @@
         <v>1230</v>
       </c>
       <c r="D784" s="13" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E784" s="13" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F784" s="14" t="s">
         <v>2707</v>
-      </c>
-      <c r="F784" s="14" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A785" s="11" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B785" s="12" t="s">
         <v>236</v>
@@ -26978,18 +26979,18 @@
         <v>1230</v>
       </c>
       <c r="D785" s="13" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E785" s="13" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F785" s="14" t="s">
         <v>2710</v>
-      </c>
-      <c r="F785" s="14" t="s">
-        <v>2711</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A786" s="11" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B786" s="12" t="s">
         <v>236</v>
@@ -26998,18 +26999,18 @@
         <v>1230</v>
       </c>
       <c r="D786" s="13" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E786" s="13" t="s">
         <v>2713</v>
       </c>
-      <c r="E786" s="13" t="s">
+      <c r="F786" s="14" t="s">
         <v>2714</v>
-      </c>
-      <c r="F786" s="14" t="s">
-        <v>2715</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A787" s="11" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B787" s="12" t="s">
         <v>236</v>
@@ -27018,38 +27019,38 @@
         <v>1230</v>
       </c>
       <c r="D787" s="13" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E787" s="13" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F787" s="14" t="s">
         <v>2717</v>
-      </c>
-      <c r="F787" s="14" t="s">
-        <v>2718</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A788" s="11" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B788" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C788" s="13" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D788" s="13" t="s">
         <v>2720</v>
       </c>
-      <c r="D788" s="13" t="s">
+      <c r="E788" s="13" t="s">
         <v>2721</v>
       </c>
-      <c r="E788" s="13" t="s">
+      <c r="F788" s="14" t="s">
         <v>2722</v>
-      </c>
-      <c r="F788" s="14" t="s">
-        <v>2723</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A789" s="11" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B789" s="12" t="s">
         <v>12</v>
@@ -27058,16 +27059,16 @@
         <v>1630</v>
       </c>
       <c r="D789" s="13" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E789" s="13" t="s">
         <v>2725</v>
-      </c>
-      <c r="E789" s="13" t="s">
-        <v>2726</v>
       </c>
       <c r="F789" s="15"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A790" s="11" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B790" s="12" t="s">
         <v>996</v>
@@ -27076,18 +27077,18 @@
         <v>997</v>
       </c>
       <c r="D790" s="13" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E790" s="13" t="s">
         <v>2728</v>
       </c>
-      <c r="E790" s="13" t="s">
+      <c r="F790" s="14" t="s">
         <v>2729</v>
-      </c>
-      <c r="F790" s="14" t="s">
-        <v>2730</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A791" s="11" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B791" s="12" t="s">
         <v>996</v>
@@ -27096,18 +27097,18 @@
         <v>997</v>
       </c>
       <c r="D791" s="13" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E791" s="13" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F791" s="14" t="s">
         <v>2732</v>
-      </c>
-      <c r="F791" s="14" t="s">
-        <v>2733</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A792" s="11" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B792" s="12" t="s">
         <v>996</v>
@@ -27116,18 +27117,18 @@
         <v>997</v>
       </c>
       <c r="D792" s="13" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E792" s="13" t="s">
         <v>2735</v>
       </c>
-      <c r="E792" s="13" t="s">
+      <c r="F792" s="14" t="s">
         <v>2736</v>
-      </c>
-      <c r="F792" s="14" t="s">
-        <v>2737</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A793" s="11" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B793" s="12" t="s">
         <v>996</v>
@@ -27136,18 +27137,18 @@
         <v>997</v>
       </c>
       <c r="D793" s="13" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E793" s="13" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F793" s="14" t="s">
         <v>2739</v>
-      </c>
-      <c r="F793" s="14" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A794" s="11" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B794" s="12" t="s">
         <v>996</v>
@@ -27156,18 +27157,18 @@
         <v>997</v>
       </c>
       <c r="D794" s="13" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E794" s="13" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F794" s="14" t="s">
         <v>2742</v>
-      </c>
-      <c r="F794" s="14" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A795" s="11" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B795" s="12" t="s">
         <v>996</v>
@@ -27176,18 +27177,18 @@
         <v>997</v>
       </c>
       <c r="D795" s="13" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E795" s="13" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F795" s="14" t="s">
         <v>2745</v>
-      </c>
-      <c r="F795" s="14" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A796" s="11" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B796" s="12" t="s">
         <v>996</v>
@@ -27199,15 +27200,15 @@
         <v>1299</v>
       </c>
       <c r="E796" s="13" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F796" s="14" t="s">
         <v>2748</v>
-      </c>
-      <c r="F796" s="14" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A797" s="11" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B797" s="12" t="s">
         <v>996</v>
@@ -27216,16 +27217,16 @@
         <v>997</v>
       </c>
       <c r="D797" s="13" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E797" s="13" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F797" s="15"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A798" s="11" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B798" s="12" t="s">
         <v>996</v>
@@ -27234,18 +27235,18 @@
         <v>997</v>
       </c>
       <c r="D798" s="13" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E798" s="13" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F798" s="14" t="s">
         <v>2753</v>
-      </c>
-      <c r="F798" s="14" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A799" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B799" s="12" t="s">
         <v>996</v>
@@ -27254,18 +27255,18 @@
         <v>997</v>
       </c>
       <c r="D799" s="13" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E799" s="13" t="s">
         <v>2756</v>
       </c>
-      <c r="E799" s="13" t="s">
+      <c r="F799" s="14" t="s">
         <v>2757</v>
-      </c>
-      <c r="F799" s="14" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A800" s="11" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B800" s="12" t="s">
         <v>814</v>
@@ -27274,18 +27275,18 @@
         <v>1423</v>
       </c>
       <c r="D800" s="13" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="E800" s="13" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F800" s="14" t="s">
         <v>2760</v>
-      </c>
-      <c r="F800" s="14" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A801" s="11" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B801" s="12" t="s">
         <v>351</v>
@@ -27297,55 +27298,55 @@
         <v>374</v>
       </c>
       <c r="E801" s="13" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F801" s="14" t="s">
         <v>2763</v>
-      </c>
-      <c r="F801" s="14" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A802" s="11" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B802" s="12" t="s">
         <v>2003</v>
       </c>
       <c r="C802" s="13" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D802" s="13" t="s">
         <v>2766</v>
       </c>
-      <c r="D802" s="13" t="s">
+      <c r="E802" s="13" t="s">
         <v>2767</v>
       </c>
-      <c r="E802" s="13" t="s">
+      <c r="F802" s="14" t="s">
         <v>2768</v>
-      </c>
-      <c r="F802" s="14" t="s">
-        <v>2769</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A803" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B803" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C803" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D803" s="13" t="s">
         <v>2368</v>
       </c>
-      <c r="D803" s="13" t="s">
-        <v>2369</v>
-      </c>
       <c r="E803" s="13" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F803" s="14" t="s">
         <v>2771</v>
-      </c>
-      <c r="F803" s="14" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A804" s="11" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B804" s="12" t="s">
         <v>6</v>
@@ -27357,15 +27358,15 @@
         <v>940</v>
       </c>
       <c r="E804" s="13" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F804" s="14" t="s">
         <v>2774</v>
-      </c>
-      <c r="F804" s="14" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A805" s="11" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B805" s="12" t="s">
         <v>792</v>
@@ -27380,12 +27381,12 @@
         <v>973</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A806" s="11" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B806" s="12" t="s">
         <v>252</v>
@@ -27397,15 +27398,15 @@
         <v>1617</v>
       </c>
       <c r="E806" s="13" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F806" s="14" t="s">
         <v>2779</v>
-      </c>
-      <c r="F806" s="14" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A807" s="11" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B807" s="12" t="s">
         <v>654</v>
@@ -27425,7 +27426,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A808" s="11" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B808" s="12" t="s">
         <v>236</v>
@@ -27434,18 +27435,18 @@
         <v>825</v>
       </c>
       <c r="D808" s="13" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E808" s="13" t="s">
         <v>2783</v>
       </c>
-      <c r="E808" s="13" t="s">
+      <c r="F808" s="14" t="s">
         <v>2784</v>
-      </c>
-      <c r="F808" s="14" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A809" s="11" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B809" s="12" t="s">
         <v>642</v>
@@ -27457,15 +27458,15 @@
         <v>834</v>
       </c>
       <c r="E809" s="13" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F809" s="14" t="s">
         <v>2787</v>
-      </c>
-      <c r="F809" s="14" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A810" s="11" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B810" s="12" t="s">
         <v>437</v>
@@ -27474,18 +27475,18 @@
         <v>1414</v>
       </c>
       <c r="D810" s="13" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E810" s="13" t="s">
         <v>2790</v>
       </c>
-      <c r="E810" s="13" t="s">
+      <c r="F810" s="14" t="s">
         <v>2791</v>
-      </c>
-      <c r="F810" s="14" t="s">
-        <v>2792</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A811" s="11" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B811" s="12" t="s">
         <v>18</v>
@@ -27494,18 +27495,18 @@
         <v>984</v>
       </c>
       <c r="D811" s="13" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E811" s="13" t="s">
         <v>2794</v>
       </c>
-      <c r="E811" s="13" t="s">
+      <c r="F811" s="14" t="s">
         <v>2795</v>
-      </c>
-      <c r="F811" s="14" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A812" s="11" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B812" s="12" t="s">
         <v>1444</v>
@@ -27517,15 +27518,15 @@
         <v>1446</v>
       </c>
       <c r="E812" s="13" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F812" s="14" t="s">
         <v>2798</v>
-      </c>
-      <c r="F812" s="14" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A813" s="11" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B813" s="12" t="s">
         <v>451</v>
@@ -27537,13 +27538,13 @@
         <v>2047</v>
       </c>
       <c r="E813" s="13" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F813" s="15"/>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A814" s="11" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B814" s="12" t="s">
         <v>34</v>
@@ -27555,15 +27556,15 @@
         <v>2063</v>
       </c>
       <c r="E814" s="13" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F814" s="14" t="s">
         <v>2803</v>
-      </c>
-      <c r="F814" s="14" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A815" s="11" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B815" s="12" t="s">
         <v>258</v>
@@ -27575,15 +27576,15 @@
         <v>279</v>
       </c>
       <c r="E815" s="13" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F815" s="14" t="s">
         <v>2806</v>
-      </c>
-      <c r="F815" s="14" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A816" s="11" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B816" s="12" t="s">
         <v>637</v>
@@ -27595,13 +27596,13 @@
         <v>1510</v>
       </c>
       <c r="E816" s="13" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="F816" s="15"/>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A817" s="11" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B817" s="12" t="s">
         <v>34</v>
@@ -27613,13 +27614,13 @@
         <v>1398</v>
       </c>
       <c r="E817" s="13" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="F817" s="15"/>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A818" s="11" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B818" s="12" t="s">
         <v>34</v>
@@ -27631,15 +27632,15 @@
         <v>2063</v>
       </c>
       <c r="E818" s="13" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F818" s="14" t="s">
         <v>2813</v>
-      </c>
-      <c r="F818" s="14" t="s">
-        <v>2814</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A819" s="11" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B819" s="12" t="s">
         <v>34</v>
@@ -27651,15 +27652,15 @@
         <v>2063</v>
       </c>
       <c r="E819" s="13" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F819" s="14" t="s">
         <v>2816</v>
-      </c>
-      <c r="F819" s="14" t="s">
-        <v>2817</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A820" s="11" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B820" s="12" t="s">
         <v>34</v>
@@ -27671,15 +27672,15 @@
         <v>2067</v>
       </c>
       <c r="E820" s="13" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F820" s="14" t="s">
         <v>2819</v>
-      </c>
-      <c r="F820" s="14" t="s">
-        <v>2820</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A821" s="11" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B821" s="12" t="s">
         <v>34</v>
@@ -27688,18 +27689,18 @@
         <v>1397</v>
       </c>
       <c r="D821" s="13" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E821" s="13" t="s">
         <v>2822</v>
       </c>
-      <c r="E821" s="13" t="s">
+      <c r="F821" s="14" t="s">
         <v>2823</v>
-      </c>
-      <c r="F821" s="14" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A822" s="11" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B822" s="12" t="s">
         <v>34</v>
@@ -27711,15 +27712,15 @@
         <v>2063</v>
       </c>
       <c r="E822" s="13" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F822" s="14" t="s">
         <v>2826</v>
-      </c>
-      <c r="F822" s="14" t="s">
-        <v>2827</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A823" s="11" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B823" s="12" t="s">
         <v>34</v>
@@ -27731,15 +27732,15 @@
         <v>1331</v>
       </c>
       <c r="E823" s="13" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F823" s="14" t="s">
         <v>2829</v>
-      </c>
-      <c r="F823" s="14" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A824" s="11" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B824" s="12" t="s">
         <v>1537</v>
@@ -27751,13 +27752,13 @@
         <v>1539</v>
       </c>
       <c r="E824" s="13" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="F824" s="15"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A825" s="11" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B825" s="12" t="s">
         <v>1449</v>
@@ -27769,15 +27770,15 @@
         <v>1451</v>
       </c>
       <c r="E825" s="13" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F825" s="14" t="s">
         <v>2834</v>
-      </c>
-      <c r="F825" s="14" t="s">
-        <v>2835</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A826" s="11" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B826" s="12" t="s">
         <v>258</v>
@@ -27789,45 +27790,45 @@
         <v>260</v>
       </c>
       <c r="E826" s="13" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="F826" s="15"/>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A827" s="11" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B827" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C827" s="13" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D827" s="13" t="s">
         <v>2839</v>
       </c>
-      <c r="D827" s="13" t="s">
+      <c r="E827" s="13" t="s">
         <v>2840</v>
       </c>
-      <c r="E827" s="13" t="s">
+      <c r="F827" s="14" t="s">
         <v>2841</v>
-      </c>
-      <c r="F827" s="14" t="s">
-        <v>2842</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A828" s="11" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B828" s="12" t="s">
         <v>996</v>
       </c>
       <c r="C828" s="13" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D828" s="13" t="s">
         <v>2844</v>
       </c>
-      <c r="D828" s="13" t="s">
+      <c r="E828" s="13" t="s">
         <v>2845</v>
-      </c>
-      <c r="E828" s="13" t="s">
-        <v>2846</v>
       </c>
       <c r="F828" s="16">
         <v>4000710919</v>
@@ -27835,47 +27836,47 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A829" s="11" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B829" s="12" t="s">
         <v>996</v>
       </c>
       <c r="C829" s="13" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D829" s="13" t="s">
         <v>2844</v>
       </c>
-      <c r="D829" s="13" t="s">
-        <v>2845</v>
-      </c>
       <c r="E829" s="13" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F829" s="14" t="s">
         <v>2848</v>
-      </c>
-      <c r="F829" s="14" t="s">
-        <v>2849</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A830" s="11" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B830" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C830" s="13" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D830" s="13" t="s">
         <v>2851</v>
       </c>
-      <c r="D830" s="13" t="s">
+      <c r="E830" s="13" t="s">
         <v>2852</v>
       </c>
-      <c r="E830" s="13" t="s">
+      <c r="F830" s="14" t="s">
         <v>2853</v>
-      </c>
-      <c r="F830" s="14" t="s">
-        <v>2854</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A831" s="11" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B831" s="12" t="s">
         <v>814</v>
@@ -27884,18 +27885,18 @@
         <v>1423</v>
       </c>
       <c r="D831" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E831" s="13" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F831" s="14" t="s">
         <v>2856</v>
-      </c>
-      <c r="F831" s="14" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A832" s="11" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B832" s="12" t="s">
         <v>814</v>
@@ -27904,38 +27905,38 @@
         <v>1423</v>
       </c>
       <c r="D832" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E832" s="13" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F832" s="14" t="s">
         <v>2859</v>
-      </c>
-      <c r="F832" s="14" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A833" s="11" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B833" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C833" s="13" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D833" s="13" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E833" s="13" t="s">
         <v>2862</v>
       </c>
-      <c r="D833" s="13" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E833" s="13" t="s">
+      <c r="F833" s="14" t="s">
         <v>2863</v>
-      </c>
-      <c r="F833" s="14" t="s">
-        <v>2864</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A834" s="11" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B834" s="12" t="s">
         <v>814</v>
@@ -27944,18 +27945,18 @@
         <v>1423</v>
       </c>
       <c r="D834" s="13" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E834" s="13" t="s">
         <v>2866</v>
       </c>
-      <c r="E834" s="13" t="s">
+      <c r="F834" s="14" t="s">
         <v>2867</v>
-      </c>
-      <c r="F834" s="14" t="s">
-        <v>2868</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A835" s="11" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B835" s="12" t="s">
         <v>6</v>
@@ -27964,18 +27965,18 @@
         <v>659</v>
       </c>
       <c r="D835" s="13" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E835" s="13" t="s">
         <v>2870</v>
       </c>
-      <c r="E835" s="13" t="s">
+      <c r="F835" s="14" t="s">
         <v>2871</v>
-      </c>
-      <c r="F835" s="14" t="s">
-        <v>2872</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A836" s="11" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B836" s="12" t="s">
         <v>236</v>
@@ -27984,16 +27985,16 @@
         <v>237</v>
       </c>
       <c r="D836" s="13" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E836" s="13" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="F836" s="15"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A837" s="11" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B837" s="12" t="s">
         <v>6</v>
@@ -28005,35 +28006,35 @@
         <v>1286</v>
       </c>
       <c r="E837" s="13" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F837" s="14" t="s">
         <v>2876</v>
-      </c>
-      <c r="F837" s="14" t="s">
-        <v>2877</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A838" s="11" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B838" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C838" s="13" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D838" s="13" t="s">
         <v>2879</v>
       </c>
-      <c r="D838" s="13" t="s">
+      <c r="E838" s="13" t="s">
         <v>2880</v>
       </c>
-      <c r="E838" s="13" t="s">
+      <c r="F838" s="14" t="s">
         <v>2881</v>
-      </c>
-      <c r="F838" s="14" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A839" s="11" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B839" s="12" t="s">
         <v>236</v>
@@ -28045,73 +28046,73 @@
         <v>1464</v>
       </c>
       <c r="E839" s="13" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F839" s="14" t="s">
         <v>2884</v>
-      </c>
-      <c r="F839" s="14" t="s">
-        <v>2885</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A840" s="11" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B840" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C840" s="13" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D840" s="13" t="s">
         <v>2887</v>
       </c>
-      <c r="D840" s="13" t="s">
+      <c r="E840" s="13" t="s">
         <v>2888</v>
       </c>
-      <c r="E840" s="13" t="s">
+      <c r="F840" s="14" t="s">
         <v>2889</v>
-      </c>
-      <c r="F840" s="14" t="s">
-        <v>2890</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A841" s="11" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B841" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C841" s="13" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D841" s="13" t="s">
         <v>2887</v>
       </c>
-      <c r="D841" s="13" t="s">
-        <v>2888</v>
-      </c>
       <c r="E841" s="13" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="F841" s="15"/>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A842" s="11" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B842" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C842" s="13" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D842" s="13" t="s">
         <v>2887</v>
       </c>
-      <c r="D842" s="13" t="s">
-        <v>2888</v>
-      </c>
       <c r="E842" s="13" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F842" s="14" t="s">
         <v>2894</v>
-      </c>
-      <c r="F842" s="14" t="s">
-        <v>2895</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A843" s="11" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B843" s="12" t="s">
         <v>230</v>
@@ -28123,15 +28124,15 @@
         <v>1276</v>
       </c>
       <c r="E843" s="13" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F843" s="14" t="s">
         <v>2897</v>
-      </c>
-      <c r="F843" s="14" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A844" s="11" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B844" s="12" t="s">
         <v>230</v>
@@ -28143,15 +28144,15 @@
         <v>1276</v>
       </c>
       <c r="E844" s="13" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F844" s="14" t="s">
         <v>2900</v>
-      </c>
-      <c r="F844" s="14" t="s">
-        <v>2901</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A845" s="11" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B845" s="12" t="s">
         <v>230</v>
@@ -28161,73 +28162,73 @@
       </c>
       <c r="D845" s="17"/>
       <c r="E845" s="13" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F845" s="14" t="s">
         <v>2903</v>
-      </c>
-      <c r="F845" s="14" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A846" s="11" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B846" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C846" s="13" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D846" s="13" t="s">
         <v>2906</v>
       </c>
-      <c r="D846" s="13" t="s">
+      <c r="E846" s="13" t="s">
         <v>2907</v>
       </c>
-      <c r="E846" s="13" t="s">
+      <c r="F846" s="14" t="s">
         <v>2908</v>
-      </c>
-      <c r="F846" s="14" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A847" s="11" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B847" s="12" t="s">
         <v>654</v>
       </c>
       <c r="C847" s="13" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D847" s="13" t="s">
         <v>2911</v>
       </c>
-      <c r="D847" s="13" t="s">
+      <c r="E847" s="13" t="s">
         <v>2912</v>
       </c>
-      <c r="E847" s="13" t="s">
+      <c r="F847" s="14" t="s">
         <v>2913</v>
-      </c>
-      <c r="F847" s="14" t="s">
-        <v>2914</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A848" s="11" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B848" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C848" s="13" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D848" s="13" t="s">
         <v>2916</v>
       </c>
-      <c r="D848" s="13" t="s">
+      <c r="E848" s="13" t="s">
         <v>2917</v>
-      </c>
-      <c r="E848" s="13" t="s">
-        <v>2918</v>
       </c>
       <c r="F848" s="15"/>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A849" s="11" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B849" s="12" t="s">
         <v>236</v>
@@ -28239,7 +28240,7 @@
         <v>826</v>
       </c>
       <c r="E849" s="13" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="F849" s="16">
         <v>13222686081</v>
@@ -28247,7 +28248,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A850" s="11" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B850" s="12" t="s">
         <v>236</v>
@@ -28259,53 +28260,53 @@
         <v>826</v>
       </c>
       <c r="E850" s="13" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F850" s="14" t="s">
         <v>2922</v>
-      </c>
-      <c r="F850" s="14" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A851" s="11" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B851" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C851" s="13" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D851" s="17"/>
       <c r="E851" s="13" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F851" s="14" t="s">
         <v>2926</v>
-      </c>
-      <c r="F851" s="14" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A852" s="11" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B852" s="12" t="s">
         <v>814</v>
       </c>
       <c r="C852" s="13" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D852" s="13" t="s">
         <v>2929</v>
       </c>
-      <c r="D852" s="13" t="s">
+      <c r="E852" s="13" t="s">
         <v>2930</v>
       </c>
-      <c r="E852" s="13" t="s">
+      <c r="F852" s="14" t="s">
         <v>2931</v>
-      </c>
-      <c r="F852" s="14" t="s">
-        <v>2932</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A853" s="11" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B853" s="12" t="s">
         <v>236</v>
@@ -28314,58 +28315,58 @@
         <v>825</v>
       </c>
       <c r="D853" s="13" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E853" s="13" t="s">
         <v>2934</v>
       </c>
-      <c r="E853" s="13" t="s">
+      <c r="F853" s="14" t="s">
         <v>2935</v>
-      </c>
-      <c r="F853" s="14" t="s">
-        <v>2936</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A854" s="11" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B854" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C854" s="13" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D854" s="13" t="s">
         <v>2938</v>
       </c>
-      <c r="D854" s="13" t="s">
+      <c r="E854" s="13" t="s">
         <v>2939</v>
       </c>
-      <c r="E854" s="13" t="s">
+      <c r="F854" s="14" t="s">
         <v>2940</v>
-      </c>
-      <c r="F854" s="14" t="s">
-        <v>2941</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A855" s="11" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B855" s="12" t="s">
         <v>996</v>
       </c>
       <c r="C855" s="13" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D855" s="13" t="s">
         <v>2943</v>
       </c>
-      <c r="D855" s="13" t="s">
+      <c r="E855" s="13" t="s">
         <v>2944</v>
       </c>
-      <c r="E855" s="13" t="s">
+      <c r="F855" s="14" t="s">
         <v>2945</v>
-      </c>
-      <c r="F855" s="14" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A856" s="11" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B856" s="12" t="s">
         <v>236</v>
@@ -28377,15 +28378,15 @@
         <v>1231</v>
       </c>
       <c r="E856" s="13" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F856" s="14" t="s">
         <v>2948</v>
-      </c>
-      <c r="F856" s="14" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A857" s="11" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B857" s="12" t="s">
         <v>236</v>
@@ -28397,15 +28398,15 @@
         <v>1231</v>
       </c>
       <c r="E857" s="13" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F857" s="14" t="s">
         <v>2951</v>
-      </c>
-      <c r="F857" s="14" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A858" s="11" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B858" s="12" t="s">
         <v>236</v>
@@ -28417,15 +28418,15 @@
         <v>1231</v>
       </c>
       <c r="E858" s="13" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F858" s="14" t="s">
         <v>2954</v>
-      </c>
-      <c r="F858" s="14" t="s">
-        <v>2955</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A859" s="11" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B859" s="12" t="s">
         <v>1449</v>
@@ -28437,15 +28438,15 @@
         <v>1451</v>
       </c>
       <c r="E859" s="13" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F859" s="14" t="s">
         <v>2957</v>
-      </c>
-      <c r="F859" s="14" t="s">
-        <v>2958</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A860" s="11" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B860" s="12" t="s">
         <v>1449</v>
@@ -28457,7 +28458,7 @@
         <v>1451</v>
       </c>
       <c r="E860" s="13" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="F860" s="16">
         <v>4009985033</v>
@@ -28465,7 +28466,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A861" s="11" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B861" s="12" t="s">
         <v>216</v>
@@ -28474,30 +28475,30 @@
         <v>217</v>
       </c>
       <c r="D861" s="13" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E861" s="13" t="s">
         <v>2962</v>
       </c>
-      <c r="E861" s="13" t="s">
+      <c r="F861" s="14" t="s">
         <v>2963</v>
-      </c>
-      <c r="F861" s="14" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A862" s="11" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B862" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C862" s="13" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D862" s="13" t="s">
         <v>2966</v>
       </c>
-      <c r="D862" s="13" t="s">
+      <c r="E862" s="13" t="s">
         <v>2967</v>
-      </c>
-      <c r="E862" s="13" t="s">
-        <v>2968</v>
       </c>
       <c r="F862" s="16">
         <v>4008553120</v>
@@ -28505,47 +28506,47 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A863" s="11" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B863" s="12" t="s">
         <v>669</v>
       </c>
       <c r="C863" s="13" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D863" s="13" t="s">
         <v>2970</v>
       </c>
-      <c r="D863" s="13" t="s">
+      <c r="E863" s="13" t="s">
         <v>2971</v>
       </c>
-      <c r="E863" s="13" t="s">
+      <c r="F863" s="14" t="s">
         <v>2972</v>
-      </c>
-      <c r="F863" s="14" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A864" s="11" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B864" s="12" t="s">
         <v>637</v>
       </c>
       <c r="C864" s="13" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D864" s="13" t="s">
         <v>2975</v>
       </c>
-      <c r="D864" s="13" t="s">
+      <c r="E864" s="13" t="s">
         <v>2976</v>
       </c>
-      <c r="E864" s="13" t="s">
+      <c r="F864" s="14" t="s">
         <v>2977</v>
-      </c>
-      <c r="F864" s="14" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A865" s="11" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B865" s="12" t="s">
         <v>637</v>
@@ -28554,18 +28555,18 @@
         <v>1430</v>
       </c>
       <c r="D865" s="13" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E865" s="13" t="s">
         <v>2980</v>
       </c>
-      <c r="E865" s="13" t="s">
+      <c r="F865" s="14" t="s">
         <v>2981</v>
-      </c>
-      <c r="F865" s="14" t="s">
-        <v>2982</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A866" s="11" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B866" s="12" t="s">
         <v>637</v>
@@ -28574,18 +28575,18 @@
         <v>1430</v>
       </c>
       <c r="D866" s="13" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="E866" s="13" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F866" s="14" t="s">
         <v>2984</v>
-      </c>
-      <c r="F866" s="14" t="s">
-        <v>2985</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A867" s="11" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B867" s="12" t="s">
         <v>637</v>
@@ -28597,15 +28598,15 @@
         <v>1506</v>
       </c>
       <c r="E867" s="13" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F867" s="14" t="s">
         <v>2987</v>
-      </c>
-      <c r="F867" s="14" t="s">
-        <v>2988</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A868" s="11" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B868" s="12" t="s">
         <v>637</v>
@@ -28614,18 +28615,18 @@
         <v>1430</v>
       </c>
       <c r="D868" s="13" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="E868" s="13" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F868" s="14" t="s">
         <v>2990</v>
-      </c>
-      <c r="F868" s="14" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A869" s="11" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B869" s="12" t="s">
         <v>637</v>
@@ -28637,35 +28638,35 @@
         <v>1431</v>
       </c>
       <c r="E869" s="13" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F869" s="14" t="s">
         <v>2993</v>
-      </c>
-      <c r="F869" s="14" t="s">
-        <v>2994</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A870" s="11" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B870" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C870" s="13" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D870" s="13" t="s">
         <v>2996</v>
       </c>
-      <c r="D870" s="13" t="s">
+      <c r="E870" s="13" t="s">
         <v>2997</v>
       </c>
-      <c r="E870" s="13" t="s">
+      <c r="F870" s="14" t="s">
         <v>2998</v>
-      </c>
-      <c r="F870" s="14" t="s">
-        <v>2999</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A871" s="11" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B871" s="12" t="s">
         <v>469</v>
@@ -28677,7 +28678,7 @@
         <v>1389</v>
       </c>
       <c r="E871" s="13" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F871" s="16">
         <v>4000126216</v>
@@ -28685,7 +28686,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A872" s="11" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B872" s="12" t="s">
         <v>236</v>
@@ -28694,18 +28695,18 @@
         <v>237</v>
       </c>
       <c r="D872" s="13" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E872" s="13" t="s">
         <v>3003</v>
       </c>
-      <c r="E872" s="13" t="s">
+      <c r="F872" s="14" t="s">
         <v>3004</v>
-      </c>
-      <c r="F872" s="14" t="s">
-        <v>3005</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A873" s="11" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B873" s="12" t="s">
         <v>236</v>
@@ -28714,18 +28715,18 @@
         <v>237</v>
       </c>
       <c r="D873" s="13" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E873" s="13" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F873" s="14" t="s">
         <v>3007</v>
-      </c>
-      <c r="F873" s="14" t="s">
-        <v>3008</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A874" s="11" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B874" s="12" t="s">
         <v>236</v>
@@ -28734,18 +28735,18 @@
         <v>237</v>
       </c>
       <c r="D874" s="13" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E874" s="13" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F874" s="14" t="s">
         <v>3010</v>
-      </c>
-      <c r="F874" s="14" t="s">
-        <v>3011</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A875" s="11" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B875" s="12" t="s">
         <v>654</v>
@@ -28757,15 +28758,15 @@
         <v>87</v>
       </c>
       <c r="E875" s="13" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F875" s="14" t="s">
         <v>3013</v>
-      </c>
-      <c r="F875" s="14" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A876" s="11" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B876" s="12" t="s">
         <v>654</v>
@@ -28774,18 +28775,18 @@
         <v>1068</v>
       </c>
       <c r="D876" s="13" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E876" s="13" t="s">
         <v>3016</v>
       </c>
-      <c r="E876" s="13" t="s">
+      <c r="F876" s="14" t="s">
         <v>3017</v>
-      </c>
-      <c r="F876" s="14" t="s">
-        <v>3018</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A877" s="11" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B877" s="12" t="s">
         <v>654</v>
@@ -28797,13 +28798,13 @@
         <v>1069</v>
       </c>
       <c r="E877" s="13" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="F877" s="15"/>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A878" s="11" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B878" s="12" t="s">
         <v>654</v>
@@ -28812,10 +28813,10 @@
         <v>1068</v>
       </c>
       <c r="D878" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E878" s="13" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="F878" s="16">
         <v>13524402436</v>
@@ -28823,7 +28824,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A879" s="11" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B879" s="12" t="s">
         <v>654</v>
@@ -28835,15 +28836,15 @@
         <v>1069</v>
       </c>
       <c r="E879" s="13" t="s">
+        <v>3023</v>
+      </c>
+      <c r="F879" s="14" t="s">
         <v>3024</v>
-      </c>
-      <c r="F879" s="14" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A880" s="11" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B880" s="12" t="s">
         <v>654</v>
@@ -28852,18 +28853,18 @@
         <v>1068</v>
       </c>
       <c r="D880" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E880" s="13" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F880" s="14" t="s">
         <v>3027</v>
-      </c>
-      <c r="F880" s="14" t="s">
-        <v>3028</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A881" s="11" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B881" s="12" t="s">
         <v>654</v>
@@ -28875,15 +28876,15 @@
         <v>87</v>
       </c>
       <c r="E881" s="13" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F881" s="14" t="s">
         <v>3030</v>
-      </c>
-      <c r="F881" s="14" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A882" s="11" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B882" s="12" t="s">
         <v>654</v>
@@ -28895,15 +28896,15 @@
         <v>87</v>
       </c>
       <c r="E882" s="13" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F882" s="14" t="s">
         <v>3033</v>
-      </c>
-      <c r="F882" s="14" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A883" s="11" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B883" s="12" t="s">
         <v>654</v>
@@ -28912,18 +28913,18 @@
         <v>1068</v>
       </c>
       <c r="D883" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E883" s="13" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F883" s="14" t="s">
         <v>3036</v>
-      </c>
-      <c r="F883" s="14" t="s">
-        <v>3037</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A884" s="11" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B884" s="12" t="s">
         <v>654</v>
@@ -28932,18 +28933,18 @@
         <v>1068</v>
       </c>
       <c r="D884" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E884" s="13" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F884" s="14" t="s">
         <v>3039</v>
-      </c>
-      <c r="F884" s="14" t="s">
-        <v>3040</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A885" s="11" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B885" s="12" t="s">
         <v>654</v>
@@ -28955,13 +28956,13 @@
         <v>87</v>
       </c>
       <c r="E885" s="13" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="F885" s="15"/>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A886" s="11" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B886" s="12" t="s">
         <v>654</v>
@@ -28970,18 +28971,18 @@
         <v>1068</v>
       </c>
       <c r="D886" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E886" s="13" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F886" s="14" t="s">
         <v>3039</v>
-      </c>
-      <c r="F886" s="14" t="s">
-        <v>3040</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A887" s="11" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B887" s="12" t="s">
         <v>654</v>
@@ -28990,18 +28991,18 @@
         <v>1068</v>
       </c>
       <c r="D887" s="13" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E887" s="13" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F887" s="14" t="s">
         <v>3045</v>
-      </c>
-      <c r="F887" s="14" t="s">
-        <v>3046</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A888" s="11" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B888" s="12" t="s">
         <v>654</v>
@@ -29013,15 +29014,15 @@
         <v>1069</v>
       </c>
       <c r="E888" s="13" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F888" s="14" t="s">
         <v>3048</v>
-      </c>
-      <c r="F888" s="14" t="s">
-        <v>3049</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A889" s="11" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B889" s="12" t="s">
         <v>216</v>
@@ -29030,18 +29031,18 @@
         <v>217</v>
       </c>
       <c r="D889" s="13" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E889" s="13" t="s">
         <v>3051</v>
       </c>
-      <c r="E889" s="13" t="s">
+      <c r="F889" s="14" t="s">
         <v>3052</v>
-      </c>
-      <c r="F889" s="14" t="s">
-        <v>3053</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A890" s="11" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B890" s="12" t="s">
         <v>216</v>
@@ -29050,18 +29051,18 @@
         <v>217</v>
       </c>
       <c r="D890" s="13" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="E890" s="13" t="s">
+        <v>3054</v>
+      </c>
+      <c r="F890" s="14" t="s">
         <v>3055</v>
-      </c>
-      <c r="F890" s="14" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A891" s="11" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="B891" s="12" t="s">
         <v>252</v>
@@ -29070,18 +29071,18 @@
         <v>1003</v>
       </c>
       <c r="D891" s="13" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E891" s="13" t="s">
         <v>3058</v>
       </c>
-      <c r="E891" s="13" t="s">
+      <c r="F891" s="14" t="s">
         <v>3059</v>
-      </c>
-      <c r="F891" s="14" t="s">
-        <v>3060</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A892" s="11" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B892" s="12" t="s">
         <v>252</v>
@@ -29090,18 +29091,18 @@
         <v>1003</v>
       </c>
       <c r="D892" s="13" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E892" s="13" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F892" s="14" t="s">
         <v>3062</v>
-      </c>
-      <c r="F892" s="14" t="s">
-        <v>3063</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A893" s="11" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B893" s="12" t="s">
         <v>252</v>
@@ -29110,18 +29111,18 @@
         <v>1003</v>
       </c>
       <c r="D893" s="13" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E893" s="13" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F893" s="14" t="s">
         <v>3065</v>
-      </c>
-      <c r="F893" s="14" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A894" s="11" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B894" s="12" t="s">
         <v>252</v>
@@ -29133,15 +29134,15 @@
         <v>1004</v>
       </c>
       <c r="E894" s="13" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F894" s="14" t="s">
         <v>3068</v>
-      </c>
-      <c r="F894" s="14" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A895" s="11" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B895" s="12" t="s">
         <v>252</v>
@@ -29150,18 +29151,18 @@
         <v>1003</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E895" s="13" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F895" s="14" t="s">
         <v>3071</v>
-      </c>
-      <c r="F895" s="14" t="s">
-        <v>3072</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A896" s="11" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B896" s="12" t="s">
         <v>252</v>
@@ -29170,18 +29171,18 @@
         <v>1003</v>
       </c>
       <c r="D896" s="13" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E896" s="13" t="s">
         <v>3074</v>
       </c>
-      <c r="E896" s="13" t="s">
+      <c r="F896" s="14" t="s">
         <v>3075</v>
-      </c>
-      <c r="F896" s="14" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A897" s="11" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B897" s="12" t="s">
         <v>252</v>
@@ -29193,15 +29194,15 @@
         <v>1004</v>
       </c>
       <c r="E897" s="13" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F897" s="14" t="s">
         <v>3078</v>
-      </c>
-      <c r="F897" s="14" t="s">
-        <v>3079</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A898" s="11" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B898" s="12" t="s">
         <v>252</v>
@@ -29213,15 +29214,15 @@
         <v>1617</v>
       </c>
       <c r="E898" s="13" t="s">
+        <v>3080</v>
+      </c>
+      <c r="F898" s="14" t="s">
         <v>3081</v>
-      </c>
-      <c r="F898" s="14" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A899" s="11" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B899" s="12" t="s">
         <v>252</v>
@@ -29230,18 +29231,18 @@
         <v>1003</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E899" s="13" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F899" s="14" t="s">
         <v>3084</v>
-      </c>
-      <c r="F899" s="14" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A900" s="11" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B900" s="12" t="s">
         <v>252</v>
@@ -29253,15 +29254,15 @@
         <v>1303</v>
       </c>
       <c r="E900" s="13" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F900" s="14" t="s">
         <v>3087</v>
-      </c>
-      <c r="F900" s="14" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A901" s="11" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B901" s="12" t="s">
         <v>252</v>
@@ -29270,18 +29271,18 @@
         <v>1003</v>
       </c>
       <c r="D901" s="13" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E901" s="13" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F901" s="14" t="s">
         <v>3090</v>
-      </c>
-      <c r="F901" s="14" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A902" s="11" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="B902" s="12" t="s">
         <v>252</v>
@@ -29290,18 +29291,18 @@
         <v>1003</v>
       </c>
       <c r="D902" s="13" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="E902" s="13" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F902" s="14" t="s">
         <v>3090</v>
-      </c>
-      <c r="F902" s="14" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A903" s="11" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B903" s="12" t="s">
         <v>252</v>
@@ -29310,18 +29311,18 @@
         <v>1003</v>
       </c>
       <c r="D903" s="13" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E903" s="13" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F903" s="14" t="s">
         <v>3094</v>
-      </c>
-      <c r="F903" s="14" t="s">
-        <v>3095</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A904" s="11" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="B904" s="12" t="s">
         <v>252</v>
@@ -29330,18 +29331,18 @@
         <v>1003</v>
       </c>
       <c r="D904" s="13" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E904" s="13" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F904" s="14" t="s">
         <v>3097</v>
-      </c>
-      <c r="F904" s="14" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A905" s="11" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B905" s="12" t="s">
         <v>252</v>
@@ -29350,18 +29351,18 @@
         <v>1003</v>
       </c>
       <c r="D905" s="13" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E905" s="13" t="s">
         <v>3100</v>
       </c>
-      <c r="E905" s="13" t="s">
+      <c r="F905" s="14" t="s">
         <v>3101</v>
-      </c>
-      <c r="F905" s="14" t="s">
-        <v>3102</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A906" s="11" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B906" s="12" t="s">
         <v>252</v>
@@ -29373,15 +29374,15 @@
         <v>1004</v>
       </c>
       <c r="E906" s="13" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F906" s="14" t="s">
         <v>3104</v>
-      </c>
-      <c r="F906" s="14" t="s">
-        <v>3105</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A907" s="11" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B907" s="12" t="s">
         <v>252</v>
@@ -29393,7 +29394,7 @@
         <v>1004</v>
       </c>
       <c r="E907" s="13" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="F907" s="16">
         <v>4000986199</v>
@@ -29401,7 +29402,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A908" s="11" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B908" s="12" t="s">
         <v>451</v>
@@ -29413,15 +29414,15 @@
         <v>453</v>
       </c>
       <c r="E908" s="13" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F908" s="14" t="s">
         <v>3109</v>
-      </c>
-      <c r="F908" s="14" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A909" s="11" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B909" s="12" t="s">
         <v>451</v>
@@ -29430,78 +29431,78 @@
         <v>1480</v>
       </c>
       <c r="D909" s="13" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E909" s="13" t="s">
         <v>3112</v>
       </c>
-      <c r="E909" s="13" t="s">
+      <c r="F909" s="14" t="s">
         <v>3113</v>
-      </c>
-      <c r="F909" s="14" t="s">
-        <v>3114</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A910" s="11" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B910" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C910" s="13" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D910" s="13" t="s">
         <v>3116</v>
       </c>
-      <c r="D910" s="13" t="s">
+      <c r="E910" s="13" t="s">
         <v>3117</v>
       </c>
-      <c r="E910" s="13" t="s">
+      <c r="F910" s="14" t="s">
         <v>3118</v>
-      </c>
-      <c r="F910" s="14" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A911" s="11" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B911" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C911" s="13" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D911" s="13" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E911" s="13" t="s">
         <v>3121</v>
       </c>
-      <c r="E911" s="13" t="s">
+      <c r="F911" s="14" t="s">
         <v>3122</v>
-      </c>
-      <c r="F911" s="14" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A912" s="11" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B912" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C912" s="13" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D912" s="13" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E912" s="13" t="s">
         <v>3125</v>
       </c>
-      <c r="E912" s="13" t="s">
+      <c r="F912" s="14" t="s">
         <v>3126</v>
-      </c>
-      <c r="F912" s="14" t="s">
-        <v>3127</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A913" s="11" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B913" s="12" t="s">
         <v>420</v>
@@ -29510,18 +29511,18 @@
         <v>1208</v>
       </c>
       <c r="D913" s="13" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E913" s="13" t="s">
         <v>3129</v>
       </c>
-      <c r="E913" s="13" t="s">
+      <c r="F913" s="14" t="s">
         <v>3130</v>
-      </c>
-      <c r="F913" s="14" t="s">
-        <v>3131</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A914" s="11" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B914" s="12" t="s">
         <v>6</v>
@@ -29533,15 +29534,15 @@
         <v>940</v>
       </c>
       <c r="E914" s="13" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F914" s="14" t="s">
         <v>3133</v>
-      </c>
-      <c r="F914" s="14" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A915" s="11" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B915" s="12" t="s">
         <v>6</v>
@@ -29553,7 +29554,7 @@
         <v>933</v>
       </c>
       <c r="E915" s="13" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="F915" s="16">
         <v>4009919037</v>
@@ -29561,7 +29562,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A916" s="11" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="B916" s="12" t="s">
         <v>6</v>
@@ -29570,18 +29571,18 @@
         <v>659</v>
       </c>
       <c r="D916" s="13" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E916" s="13" t="s">
         <v>3138</v>
       </c>
-      <c r="E916" s="13" t="s">
+      <c r="F916" s="14" t="s">
         <v>3139</v>
-      </c>
-      <c r="F916" s="14" t="s">
-        <v>3140</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A917" s="11" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B917" s="12" t="s">
         <v>6</v>
@@ -29590,18 +29591,18 @@
         <v>659</v>
       </c>
       <c r="D917" s="13" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E917" s="13" t="s">
         <v>3142</v>
       </c>
-      <c r="E917" s="13" t="s">
+      <c r="F917" s="14" t="s">
         <v>3143</v>
-      </c>
-      <c r="F917" s="14" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A918" s="11" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B918" s="12" t="s">
         <v>6</v>
@@ -29610,18 +29611,18 @@
         <v>659</v>
       </c>
       <c r="D918" s="13" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="E918" s="13" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F918" s="14" t="s">
         <v>3146</v>
-      </c>
-      <c r="F918" s="14" t="s">
-        <v>3147</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A919" s="11" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B919" s="12" t="s">
         <v>6</v>
@@ -29633,15 +29634,15 @@
         <v>933</v>
       </c>
       <c r="E919" s="13" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F919" s="14" t="s">
         <v>3149</v>
-      </c>
-      <c r="F919" s="14" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A920" s="11" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B920" s="12" t="s">
         <v>6</v>
@@ -29653,15 +29654,15 @@
         <v>940</v>
       </c>
       <c r="E920" s="13" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F920" s="14" t="s">
         <v>3152</v>
-      </c>
-      <c r="F920" s="14" t="s">
-        <v>3153</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A921" s="11" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B921" s="12" t="s">
         <v>6</v>
@@ -29673,15 +29674,15 @@
         <v>933</v>
       </c>
       <c r="E921" s="13" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F921" s="14" t="s">
         <v>3155</v>
-      </c>
-      <c r="F921" s="14" t="s">
-        <v>3156</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A922" s="11" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B922" s="12" t="s">
         <v>6</v>
@@ -29693,15 +29694,15 @@
         <v>940</v>
       </c>
       <c r="E922" s="13" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F922" s="14" t="s">
         <v>3158</v>
-      </c>
-      <c r="F922" s="14" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A923" s="11" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B923" s="12" t="s">
         <v>6</v>
@@ -29713,189 +29714,189 @@
         <v>940</v>
       </c>
       <c r="E923" s="13" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F923" s="14" t="s">
         <v>3161</v>
-      </c>
-      <c r="F923" s="14" t="s">
-        <v>3162</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A924" s="11" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B924" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C924" s="13" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D924" s="13" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E924" s="13" t="s">
         <v>3164</v>
       </c>
-      <c r="D924" s="13" t="s">
-        <v>3164</v>
-      </c>
-      <c r="E924" s="13" t="s">
+      <c r="F924" s="14" t="s">
         <v>3165</v>
-      </c>
-      <c r="F924" s="14" t="s">
-        <v>3166</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A925" s="11" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B925" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C925" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D925" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E925" s="13" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="F925" s="15"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A926" s="11" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B926" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C926" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D926" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E926" s="13" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="F926" s="15"/>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A927" s="11" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="B927" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C927" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D927" s="13" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E927" s="13" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F927" s="14" t="s">
         <v>3172</v>
-      </c>
-      <c r="F927" s="14" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A928" s="11" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B928" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C928" s="13" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D928" s="13" t="s">
         <v>3175</v>
       </c>
-      <c r="D928" s="13" t="s">
+      <c r="E928" s="13" t="s">
         <v>3176</v>
-      </c>
-      <c r="E928" s="13" t="s">
-        <v>3177</v>
       </c>
       <c r="F928" s="15"/>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A929" s="11" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B929" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C929" s="13" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D929" s="13" t="s">
         <v>3175</v>
       </c>
-      <c r="D929" s="13" t="s">
-        <v>3176</v>
-      </c>
       <c r="E929" s="13" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F929" s="14" t="s">
         <v>3179</v>
-      </c>
-      <c r="F929" s="14" t="s">
-        <v>3180</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A930" s="11" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B930" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C930" s="13" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D930" s="13" t="s">
         <v>3182</v>
       </c>
-      <c r="D930" s="13" t="s">
+      <c r="E930" s="13" t="s">
         <v>3183</v>
       </c>
-      <c r="E930" s="13" t="s">
+      <c r="F930" s="14" t="s">
         <v>3184</v>
-      </c>
-      <c r="F930" s="14" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A931" s="11" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B931" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C931" s="13" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D931" s="13" t="s">
         <v>3182</v>
       </c>
-      <c r="D931" s="13" t="s">
-        <v>3183</v>
-      </c>
       <c r="E931" s="13" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F931" s="14" t="s">
         <v>3187</v>
-      </c>
-      <c r="F931" s="14" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A932" s="11" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B932" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C932" s="13" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D932" s="13" t="s">
         <v>3182</v>
       </c>
-      <c r="D932" s="13" t="s">
-        <v>3183</v>
-      </c>
       <c r="E932" s="13" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F932" s="14" t="s">
         <v>3190</v>
-      </c>
-      <c r="F932" s="14" t="s">
-        <v>3191</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A933" s="11" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B933" s="12" t="s">
         <v>6</v>
@@ -29907,107 +29908,107 @@
         <v>1295</v>
       </c>
       <c r="E933" s="13" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F933" s="14" t="s">
         <v>3193</v>
-      </c>
-      <c r="F933" s="14" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A934" s="11" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B934" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C934" s="13" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D934" s="13" t="s">
         <v>3196</v>
       </c>
-      <c r="D934" s="13" t="s">
+      <c r="E934" s="13" t="s">
         <v>3197</v>
       </c>
-      <c r="E934" s="13" t="s">
+      <c r="F934" s="14" t="s">
         <v>3198</v>
-      </c>
-      <c r="F934" s="14" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A935" s="11" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B935" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C935" s="13" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D935" s="13" t="s">
         <v>3201</v>
       </c>
-      <c r="D935" s="13" t="s">
+      <c r="E935" s="13" t="s">
         <v>3202</v>
       </c>
-      <c r="E935" s="13" t="s">
+      <c r="F935" s="14" t="s">
         <v>3203</v>
-      </c>
-      <c r="F935" s="14" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A936" s="11" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B936" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C936" s="13" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D936" s="13" t="s">
         <v>3201</v>
       </c>
-      <c r="D936" s="13" t="s">
-        <v>3202</v>
-      </c>
       <c r="E936" s="13" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F936" s="14" t="s">
         <v>3206</v>
-      </c>
-      <c r="F936" s="14" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A937" s="11" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B937" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C937" s="13" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D937" s="13" t="s">
         <v>3201</v>
       </c>
-      <c r="D937" s="13" t="s">
-        <v>3202</v>
-      </c>
       <c r="E937" s="13" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F937" s="14" t="s">
         <v>3209</v>
-      </c>
-      <c r="F937" s="14" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A938" s="11" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B938" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C938" s="13" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D938" s="13" t="s">
         <v>3212</v>
       </c>
-      <c r="D938" s="13" t="s">
+      <c r="E938" s="13" t="s">
         <v>3213</v>
-      </c>
-      <c r="E938" s="13" t="s">
-        <v>3214</v>
       </c>
       <c r="F938" s="16">
         <v>4000852829</v>
@@ -30015,22 +30016,22 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A939" s="11" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B939" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C939" s="13" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D939" s="13" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E939" s="13" t="s">
         <v>3216</v>
       </c>
-      <c r="E939" s="13" t="s">
+      <c r="F939" s="14" t="s">
         <v>3217</v>
-      </c>
-      <c r="F939" s="14" t="s">
-        <v>3218</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/hospital.xlsx
+++ b/assets/data/hospital.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niuniu/Downloads/putianxi.github.io/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF59A0-2CC3-5149-8A2E-189603B3A83E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9BBAC7-6E71-8349-BD3F-C9C1D63A9FB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="3221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="3233">
   <si>
     <t>安顺阳光妇科医院</t>
   </si>
@@ -9699,6 +9699,54 @@
   </si>
   <si>
     <t>上海中医药大学附属曙光医院(整形科)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州萧山华东医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧山区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧绍路608号(近天虹商场)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0571-22896666;0571-22899999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳昆仑泌尿外科医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安大道4003号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755-29638666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9706,7 +9754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -9743,6 +9791,13 @@
       <color indexed="8"/>
       <name val="华文仿宋"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="STFangsong"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -9905,7 +9960,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9971,6 +10026,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11164,10 +11228,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP937"/>
+  <dimension ref="A1:IP939"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A931" workbookViewId="0">
+      <selection activeCell="A943" sqref="A943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.6640625" defaultRowHeight="24"/>
@@ -29980,6 +30044,46 @@
         <v>3211</v>
       </c>
     </row>
+    <row r="938" spans="1:6">
+      <c r="A938" s="22" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B938" s="23" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C938" s="24" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D938" s="24" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E938" s="24" t="s">
+        <v>3225</v>
+      </c>
+      <c r="F938" s="14" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" ht="25">
+      <c r="A939" s="22" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B939" s="23" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C939" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D939" s="24" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E939" s="24" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F939" s="14" t="s">
+        <v>3231</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
